--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -517,12 +517,14 @@
         <v>0.4178685778060003</v>
       </c>
       <c r="I2" t="n">
-        <v>144</v>
+        <v>10.71081832812239</v>
       </c>
       <c r="J2" t="n">
         <v>206.4270774361642</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.05688779743089346</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -550,12 +552,14 @@
         <v>0.4296585973087172</v>
       </c>
       <c r="I3" t="n">
-        <v>144</v>
+        <v>10.48258576510333</v>
       </c>
       <c r="J3" t="n">
         <v>211.1415584594421</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0.05914391926236712</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -583,12 +587,14 @@
         <v>0.3825430617162416</v>
       </c>
       <c r="I4" t="n">
-        <v>144</v>
+        <v>11.45830518377043</v>
       </c>
       <c r="J4" t="n">
         <v>194.1250837951746</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0.05124092394714092</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -616,12 +622,14 @@
         <v>0.3771426580659244</v>
       </c>
       <c r="I5" t="n">
-        <v>144</v>
+        <v>11.58187071093918</v>
       </c>
       <c r="J5" t="n">
         <v>188.8149437253964</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.05035585750973871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -649,12 +657,14 @@
         <v>0.3608313777411052</v>
       </c>
       <c r="I6" t="n">
-        <v>144</v>
+        <v>11.97181147634162</v>
       </c>
       <c r="J6" t="n">
         <v>181.2377558281466</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.04757798739689843</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -682,12 +692,14 @@
         <v>0.3798462464794771</v>
       </c>
       <c r="I7" t="n">
-        <v>144</v>
+        <v>11.51967911845715</v>
       </c>
       <c r="J7" t="n">
         <v>186.3003710127337</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.05029694166552715</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -715,12 +727,14 @@
         <v>0.358511434876115</v>
       </c>
       <c r="I8" t="n">
-        <v>144</v>
+        <v>12.02941561605072</v>
       </c>
       <c r="J8" t="n">
         <v>179.3538290820951</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.04647892091509858</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +762,14 @@
         <v>0.3537094138989731</v>
       </c>
       <c r="I9" t="n">
-        <v>144</v>
+        <v>12.15042866110551</v>
       </c>
       <c r="J9" t="n">
         <v>176.1773416951047</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.04540398301522356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -781,12 +797,14 @@
         <v>0.330896756061986</v>
       </c>
       <c r="I10" t="n">
-        <v>144</v>
+        <v>12.76024418850088</v>
       </c>
       <c r="J10" t="n">
         <v>166.9311153373787</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.04184421719767997</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -814,12 +832,14 @@
         <v>0.3324092063324214</v>
       </c>
       <c r="I11" t="n">
-        <v>144</v>
+        <v>12.7179258717365</v>
       </c>
       <c r="J11" t="n">
         <v>165.2911730649824</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.04193487730257494</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -847,12 +867,14 @@
         <v>0.2932364989368538</v>
       </c>
       <c r="I12" t="n">
-        <v>144</v>
+        <v>13.91299345199728</v>
       </c>
       <c r="J12" t="n">
         <v>150.30015303165</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0.03665320433842609</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -880,12 +902,14 @@
         <v>0.2748519285727636</v>
       </c>
       <c r="I13" t="n">
-        <v>144</v>
+        <v>14.55487447580995</v>
       </c>
       <c r="J13" t="n">
         <v>140.1457142065171</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.03444325087685227</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -913,12 +937,14 @@
         <v>0.2556442506121983</v>
       </c>
       <c r="I14" t="n">
-        <v>144</v>
+        <v>15.29196108364185</v>
       </c>
       <c r="J14" t="n">
         <v>130.3685967208693</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0.03190025970475719</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -946,12 +972,14 @@
         <v>0.2467679245988367</v>
       </c>
       <c r="I15" t="n">
-        <v>144</v>
+        <v>15.65841229309978</v>
       </c>
       <c r="J15" t="n">
         <v>124.5473192881744</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.03077034464355462</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -979,12 +1007,14 @@
         <v>0.2446057684721877</v>
       </c>
       <c r="I16" t="n">
-        <v>144</v>
+        <v>15.75035070752769</v>
       </c>
       <c r="J16" t="n">
         <v>122.0863036394414</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0.0304599985407997</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +1042,14 @@
         <v>0.2322028009507486</v>
       </c>
       <c r="I17" t="n">
-        <v>144</v>
+        <v>16.29933213346858</v>
       </c>
       <c r="J17" t="n">
         <v>116.765399189713</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0.02887931445343443</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1045,12 +1077,14 @@
         <v>0.2191750013784391</v>
       </c>
       <c r="I18" t="n">
-        <v>144</v>
+        <v>16.91874619453215</v>
       </c>
       <c r="J18" t="n">
         <v>110.7066886728943</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.02738384011094466</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1078,12 +1112,14 @@
         <v>0.2121466546541697</v>
       </c>
       <c r="I19" t="n">
-        <v>144</v>
+        <v>17.27287228247198</v>
       </c>
       <c r="J19" t="n">
         <v>106.6009079570472</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.02657502907140456</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1111,12 +1147,14 @@
         <v>0.2155894349486043</v>
       </c>
       <c r="I20" t="n">
-        <v>144</v>
+        <v>17.09757291810111</v>
       </c>
       <c r="J20" t="n">
         <v>106.7202484546109</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.02685335672181339</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1144,12 +1182,14 @@
         <v>0.2064411970058823</v>
       </c>
       <c r="I21" t="n">
-        <v>144</v>
+        <v>17.5714340974613</v>
       </c>
       <c r="J21" t="n">
         <v>103.240448810762</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.02589780029265531</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1177,12 +1217,14 @@
         <v>0.2792411259878104</v>
       </c>
       <c r="I22" t="n">
-        <v>144</v>
+        <v>14.39630607112502</v>
       </c>
       <c r="J22" t="n">
         <v>129.0345325859545</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.03517808378687421</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1210,12 +1252,14 @@
         <v>0.3327543899924592</v>
       </c>
       <c r="I23" t="n">
-        <v>144</v>
+        <v>12.70830695376389</v>
       </c>
       <c r="J23" t="n">
         <v>154.2123977466792</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0.04227050532551307</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1243,12 +1287,14 @@
         <v>0.3109411772820017</v>
       </c>
       <c r="I24" t="n">
-        <v>144</v>
+        <v>13.34618318325451</v>
       </c>
       <c r="J24" t="n">
         <v>152.6728651332982</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0.03929849129933192</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1322,14 @@
         <v>0.2816248485653735</v>
       </c>
       <c r="I25" t="n">
-        <v>144</v>
+        <v>14.31162860665523</v>
       </c>
       <c r="J25" t="n">
         <v>142.5544895486352</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.03542722135405635</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1309,12 +1357,14 @@
         <v>0.2674869771550628</v>
       </c>
       <c r="I26" t="n">
-        <v>144</v>
+        <v>14.82894389486354</v>
       </c>
       <c r="J26" t="n">
         <v>135.2214219443326</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.03339442618649093</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1342,12 +1392,14 @@
         <v>0.2580634940479655</v>
       </c>
       <c r="I27" t="n">
-        <v>144</v>
+        <v>15.19504036625655</v>
       </c>
       <c r="J27" t="n">
         <v>129.8308321135651</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0.03199559362728262</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1375,12 +1427,14 @@
         <v>0.3404518098119378</v>
       </c>
       <c r="I28" t="n">
-        <v>144</v>
+        <v>12.49752716461493</v>
       </c>
       <c r="J28" t="n">
         <v>158.4386399003882</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0.04345508738254517</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1408,12 +1462,14 @@
         <v>0.3445455094612315</v>
       </c>
       <c r="I29" t="n">
-        <v>144</v>
+        <v>12.38825184204099</v>
       </c>
       <c r="J29" t="n">
         <v>166.09356476114</v>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0.04436429647706659</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1441,12 +1497,14 @@
         <v>0.3032932852768275</v>
       </c>
       <c r="I30" t="n">
-        <v>144</v>
+        <v>13.58526074217714</v>
       </c>
       <c r="J30" t="n">
         <v>153.6257390437737</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0.0379891903130498</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1474,12 +1532,14 @@
         <v>0.3059410230956302</v>
       </c>
       <c r="I31" t="n">
-        <v>144</v>
+        <v>13.5015275074403</v>
       </c>
       <c r="J31" t="n">
         <v>152.1914695664592</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.03809500789503357</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1507,12 +1567,14 @@
         <v>0.2887083099531897</v>
       </c>
       <c r="I32" t="n">
-        <v>144</v>
+        <v>14.06577851782252</v>
       </c>
       <c r="J32" t="n">
         <v>145.2294543720204</v>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0.03563453759944332</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1602,14 @@
         <v>0.2719533690249702</v>
       </c>
       <c r="I33" t="n">
-        <v>144</v>
+        <v>14.66151976787533</v>
       </c>
       <c r="J33" t="n">
         <v>137.4615574680817</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.03353217150752336</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1573,12 +1637,14 @@
         <v>0.2472131559058861</v>
       </c>
       <c r="I34" t="n">
-        <v>144</v>
+        <v>15.63961343630012</v>
       </c>
       <c r="J34" t="n">
         <v>126.4553250930016</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.03046972318377952</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1606,12 +1672,14 @@
         <v>0.2403763369516359</v>
       </c>
       <c r="I35" t="n">
-        <v>144</v>
+        <v>15.93335081763268</v>
       </c>
       <c r="J35" t="n">
         <v>121.2198675835989</v>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0.02977132596572631</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1639,12 +1707,14 @@
         <v>0.2339235198835189</v>
       </c>
       <c r="I36" t="n">
-        <v>144</v>
+        <v>16.22089412781658</v>
       </c>
       <c r="J36" t="n">
         <v>117.2991873466877</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0.02915160963446069</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1672,12 +1742,14 @@
         <v>0.2274764356465966</v>
       </c>
       <c r="I37" t="n">
-        <v>144</v>
+        <v>16.51873683816322</v>
       </c>
       <c r="J37" t="n">
         <v>113.8439381484017</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.02816564286990601</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1705,12 +1777,14 @@
         <v>0.2287871851217699</v>
       </c>
       <c r="I38" t="n">
-        <v>144</v>
+        <v>16.4573002448605</v>
       </c>
       <c r="J38" t="n">
         <v>113.393095983871</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0.02883488656224514</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1738,12 +1812,14 @@
         <v>0.2238273088189626</v>
       </c>
       <c r="I39" t="n">
-        <v>144</v>
+        <v>16.69221780809865</v>
       </c>
       <c r="J39" t="n">
         <v>111.3462478286751</v>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.02858046850153843</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1771,12 +1847,14 @@
         <v>0.2197848169997865</v>
       </c>
       <c r="I40" t="n">
-        <v>144</v>
+        <v>16.88870376541135</v>
       </c>
       <c r="J40" t="n">
         <v>109.3795135447364</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0.02807510985066916</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1804,12 +1882,14 @@
         <v>0.2060372866265172</v>
       </c>
       <c r="I41" t="n">
-        <v>144</v>
+        <v>17.59296207315207</v>
       </c>
       <c r="J41" t="n">
         <v>103.8489638048739</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0.02652333919981583</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1837,12 +1917,14 @@
         <v>0.2077375562905923</v>
       </c>
       <c r="I42" t="n">
-        <v>144</v>
+        <v>17.50269410193203</v>
       </c>
       <c r="J42" t="n">
         <v>103.1636689483378</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0.02676503184700691</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1870,12 +1952,14 @@
         <v>0.2026380595351235</v>
       </c>
       <c r="I43" t="n">
-        <v>144</v>
+        <v>17.77624890948463</v>
       </c>
       <c r="J43" t="n">
         <v>100.9589404955503</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0.026315829010952</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1903,12 +1987,14 @@
         <v>0.3454358850034582</v>
       </c>
       <c r="I44" t="n">
-        <v>144</v>
+        <v>12.3647371042262</v>
       </c>
       <c r="J44" t="n">
         <v>152.5738015263342</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.04694786973767867</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1936,12 +2022,14 @@
         <v>0.3633140167633769</v>
       </c>
       <c r="I45" t="n">
-        <v>144</v>
+        <v>11.91077555649031</v>
       </c>
       <c r="J45" t="n">
         <v>170.5270325258551</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.04868098114850217</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1969,12 +2057,14 @@
         <v>0.3800580712157126</v>
       </c>
       <c r="I46" t="n">
-        <v>144</v>
+        <v>11.51483464290675</v>
       </c>
       <c r="J46" t="n">
         <v>182.300204739002</v>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0.05095789503785069</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2002,12 +2092,14 @@
         <v>0.3770328244854845</v>
       </c>
       <c r="I47" t="n">
-        <v>144</v>
+        <v>11.58441144865484</v>
       </c>
       <c r="J47" t="n">
         <v>184.6393547467786</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.05094014620781521</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2035,12 +2127,14 @@
         <v>0.3505189583305061</v>
       </c>
       <c r="I48" t="n">
-        <v>144</v>
+        <v>12.23218479393821</v>
       </c>
       <c r="J48" t="n">
         <v>175.9761586114512</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.04744712920887762</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2068,12 +2162,14 @@
         <v>0.3337849528796162</v>
       </c>
       <c r="I49" t="n">
-        <v>144</v>
+        <v>12.67967556970253</v>
       </c>
       <c r="J49" t="n">
         <v>168.0817444686022</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0.04523920761593692</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2101,12 +2197,14 @@
         <v>0.3442854033406958</v>
       </c>
       <c r="I50" t="n">
-        <v>144</v>
+        <v>12.39513811088608</v>
       </c>
       <c r="J50" t="n">
         <v>169.8992372930757</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.04717465432422367</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2134,12 +2232,14 @@
         <v>0.3477021940317806</v>
       </c>
       <c r="I51" t="n">
-        <v>144</v>
+        <v>12.30528493616876</v>
       </c>
       <c r="J51" t="n">
         <v>171.2595540934948</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0.04733599494390225</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2167,12 +2267,14 @@
         <v>0.3658285838853993</v>
       </c>
       <c r="I52" t="n">
-        <v>144</v>
+        <v>11.84958583850189</v>
       </c>
       <c r="J52" t="n">
         <v>178.1995058508998</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0.04956042715351067</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2200,12 +2302,14 @@
         <v>0.4807685015638108</v>
       </c>
       <c r="I53" t="n">
-        <v>144</v>
+        <v>9.596158864399531</v>
       </c>
       <c r="J53" t="n">
         <v>221.7732403505152</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0.06850558194442256</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2233,12 +2337,14 @@
         <v>0.4049991609702973</v>
       </c>
       <c r="I54" t="n">
-        <v>144</v>
+        <v>10.97156705030009</v>
       </c>
       <c r="J54" t="n">
         <v>204.0400604247346</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0.05509579144039054</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2266,12 +2372,14 @@
         <v>0.3784505576631474</v>
       </c>
       <c r="I55" t="n">
-        <v>144</v>
+        <v>11.55170100587954</v>
       </c>
       <c r="J55" t="n">
         <v>191.8335714469623</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0.05117328551262563</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2299,12 +2407,14 @@
         <v>0.3434902555495241</v>
       </c>
       <c r="I56" t="n">
-        <v>144</v>
+        <v>12.416237079692</v>
       </c>
       <c r="J56" t="n">
         <v>175.980480290871</v>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0.04505933399265959</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2332,12 +2442,14 @@
         <v>0.3542890556357789</v>
       </c>
       <c r="I57" t="n">
-        <v>144</v>
+        <v>12.13569238280435</v>
       </c>
       <c r="J57" t="n">
         <v>175.9446408310527</v>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0.04669324285204919</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2365,12 +2477,14 @@
         <v>0.3270664235723382</v>
       </c>
       <c r="I58" t="n">
-        <v>144</v>
+        <v>12.86868723553727</v>
       </c>
       <c r="J58" t="n">
         <v>165.4165397841014</v>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0.04240272369811772</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2398,12 +2512,14 @@
         <v>0.3357545830281747</v>
       </c>
       <c r="I59" t="n">
-        <v>144</v>
+        <v>12.62531212660008</v>
       </c>
       <c r="J59" t="n">
         <v>166.158859410221</v>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0.04373092736357179</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2431,12 +2547,14 @@
         <v>0.3010565025675059</v>
       </c>
       <c r="I60" t="n">
-        <v>144</v>
+        <v>13.65681131098574</v>
       </c>
       <c r="J60" t="n">
         <v>153.2984883338948</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0.03904010036843639</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2464,12 +2582,14 @@
         <v>0.3008873465808304</v>
       </c>
       <c r="I61" t="n">
-        <v>144</v>
+        <v>13.66225296606581</v>
       </c>
       <c r="J61" t="n">
         <v>150.3437576098494</v>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0.03918300544360862</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2497,12 +2617,14 @@
         <v>0.2875031543715308</v>
       </c>
       <c r="I62" t="n">
-        <v>144</v>
+        <v>14.1070085646101</v>
       </c>
       <c r="J62" t="n">
         <v>144.3772621509706</v>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0.03644540426498561</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2530,12 +2652,14 @@
         <v>0.3031008873022483</v>
       </c>
       <c r="I63" t="n">
-        <v>144</v>
+        <v>13.59138571573534</v>
       </c>
       <c r="J63" t="n">
         <v>148.5882841153182</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0.03793196399122618</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2563,12 +2687,14 @@
         <v>0.2776266448582951</v>
       </c>
       <c r="I64" t="n">
-        <v>144</v>
+        <v>14.4542290626928</v>
       </c>
       <c r="J64" t="n">
         <v>140.0068800016323</v>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0.03471780166461502</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2596,12 +2722,14 @@
         <v>0.2798138417198817</v>
       </c>
       <c r="I65" t="n">
-        <v>144</v>
+        <v>14.37587005064868</v>
       </c>
       <c r="J65" t="n">
         <v>138.9983032464715</v>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0.03590073779586046</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2629,12 +2757,14 @@
         <v>0.2987102874446617</v>
       </c>
       <c r="I66" t="n">
-        <v>144</v>
+        <v>13.73267681452672</v>
       </c>
       <c r="J66" t="n">
         <v>145.4131819534494</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0.0389570189422356</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2662,12 +2792,14 @@
         <v>0.277608920365889</v>
       </c>
       <c r="I67" t="n">
-        <v>144</v>
+        <v>14.45486755381453</v>
       </c>
       <c r="J67" t="n">
         <v>139.06494190491</v>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.03583309299225926</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2695,12 +2827,14 @@
         <v>0.2813173915328162</v>
       </c>
       <c r="I68" t="n">
-        <v>144</v>
+        <v>14.32249446798896</v>
       </c>
       <c r="J68" t="n">
         <v>139.2018823692824</v>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0.03623826328553246</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2728,12 +2862,14 @@
         <v>0.2822664026719539</v>
       </c>
       <c r="I69" t="n">
-        <v>144</v>
+        <v>14.28900840642185</v>
       </c>
       <c r="J69" t="n">
         <v>139.4024239396169</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0.03646593235446373</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2761,12 +2897,14 @@
         <v>0.2670121594237166</v>
       </c>
       <c r="I70" t="n">
-        <v>144</v>
+        <v>14.84696771817686</v>
       </c>
       <c r="J70" t="n">
         <v>133.8544322413887</v>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0.03413216748913899</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2794,12 +2932,14 @@
         <v>0.2606292243557762</v>
       </c>
       <c r="I71" t="n">
-        <v>144</v>
+        <v>15.09358447771519</v>
       </c>
       <c r="J71" t="n">
         <v>130.290210974656</v>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0.03327497875559536</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2827,12 +2967,14 @@
         <v>0.2626006110757732</v>
       </c>
       <c r="I72" t="n">
-        <v>144</v>
+        <v>15.01654625039454</v>
       </c>
       <c r="J72" t="n">
         <v>130.0371745451669</v>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0.0331806218810633</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2860,12 +3002,14 @@
         <v>0.240873134411386</v>
       </c>
       <c r="I73" t="n">
-        <v>144</v>
+        <v>15.9116351441377</v>
       </c>
       <c r="J73" t="n">
         <v>121.9038628624957</v>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0.03137597493427961</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2893,12 +3037,14 @@
         <v>0.2266036695317407</v>
       </c>
       <c r="I74" t="n">
-        <v>144</v>
+        <v>16.5598995914882</v>
       </c>
       <c r="J74" t="n">
         <v>114.8509792674294</v>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0.03009868878400102</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2926,12 +3072,14 @@
         <v>0.2300233570893907</v>
       </c>
       <c r="I75" t="n">
-        <v>144</v>
+        <v>16.39977646463954</v>
       </c>
       <c r="J75" t="n">
         <v>114.2613023418835</v>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.03043048305766815</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2959,12 +3107,14 @@
         <v>0.2213104480060849</v>
       </c>
       <c r="I76" t="n">
-        <v>144</v>
+        <v>16.81400918168307</v>
       </c>
       <c r="J76" t="n">
         <v>110.6808935648122</v>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0.02886900885977634</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2992,12 +3142,14 @@
         <v>0.271465758289134</v>
       </c>
       <c r="I77" t="n">
-        <v>144</v>
+        <v>14.67961394719948</v>
       </c>
       <c r="J77" t="n">
         <v>128.1441336509505</v>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.0350764502674456</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -3025,12 +3177,14 @@
         <v>0.2425915636165824</v>
       </c>
       <c r="I78" t="n">
-        <v>144</v>
+        <v>15.83697467996553</v>
       </c>
       <c r="J78" t="n">
         <v>121.3654669140921</v>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0.03130173992999913</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -3058,12 +3212,14 @@
         <v>0.2364355579613811</v>
       </c>
       <c r="I79" t="n">
-        <v>144</v>
+        <v>16.10773036869685</v>
       </c>
       <c r="J79" t="n">
         <v>118.1529018159386</v>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.03042225118819962</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -3091,12 +3247,14 @@
         <v>0.3109304913177204</v>
       </c>
       <c r="I80" t="n">
-        <v>144</v>
+        <v>13.34651136208772</v>
       </c>
       <c r="J80" t="n">
         <v>144.5058703628236</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0.04026599696732374</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -3124,12 +3282,14 @@
         <v>0.4467442960206522</v>
       </c>
       <c r="I81" t="n">
-        <v>144</v>
+        <v>10.16858290185113</v>
       </c>
       <c r="J81" t="n">
         <v>199.8591756849242</v>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.06348628604676791</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -3157,12 +3317,14 @@
         <v>0.3439178607837193</v>
       </c>
       <c r="I82" t="n">
-        <v>144</v>
+        <v>12.40488180495576</v>
       </c>
       <c r="J82" t="n">
         <v>175.4712783960235</v>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0.04684811330285681</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -3190,12 +3352,14 @@
         <v>0.3423232702954851</v>
       </c>
       <c r="I83" t="n">
-        <v>144</v>
+        <v>12.447333019021</v>
       </c>
       <c r="J83" t="n">
         <v>171.3642539797432</v>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0.04586135677610085</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -3223,12 +3387,14 @@
         <v>0.4209389446496165</v>
       </c>
       <c r="I84" t="n">
-        <v>144</v>
+        <v>10.65043012952279</v>
       </c>
       <c r="J84" t="n">
         <v>198.6515984978055</v>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.0582840191577103</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -3256,12 +3422,14 @@
         <v>0.4379104282659038</v>
       </c>
       <c r="I85" t="n">
-        <v>144</v>
+        <v>10.32854701564505</v>
       </c>
       <c r="J85" t="n">
         <v>210.7241164783806</v>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.05963289977758712</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -3289,12 +3457,14 @@
         <v>0.3696638683926729</v>
       </c>
       <c r="I86" t="n">
-        <v>144</v>
+        <v>11.7574589854689</v>
       </c>
       <c r="J86" t="n">
         <v>189.3397660502039</v>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0.04909287195275634</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -3322,12 +3492,14 @@
         <v>0.3512411309157076</v>
       </c>
       <c r="I87" t="n">
-        <v>144</v>
+        <v>12.21358277347413</v>
       </c>
       <c r="J87" t="n">
         <v>178.3594789883645</v>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0.04696879327597583</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -3355,12 +3527,14 @@
         <v>0.3725505731965276</v>
       </c>
       <c r="I88" t="n">
-        <v>144</v>
+        <v>11.68905721572985</v>
       </c>
       <c r="J88" t="n">
         <v>183.0791024825719</v>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.05010566567901716</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -3388,12 +3562,14 @@
         <v>0.3675569830982486</v>
       </c>
       <c r="I89" t="n">
-        <v>144</v>
+        <v>11.80789011246816</v>
       </c>
       <c r="J89" t="n">
         <v>181.8626251014048</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.04840922393360591</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -3421,12 +3597,14 @@
         <v>0.3586875446037489</v>
       </c>
       <c r="I90" t="n">
-        <v>144</v>
+        <v>12.02502337859416</v>
       </c>
       <c r="J90" t="n">
         <v>178.4401485282522</v>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.04751172534678887</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -3454,12 +3632,14 @@
         <v>0.3163090265852115</v>
       </c>
       <c r="I91" t="n">
-        <v>144</v>
+        <v>13.18334545485493</v>
       </c>
       <c r="J91" t="n">
         <v>162.1725220992257</v>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.04182750502672434</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -3487,12 +3667,14 @@
         <v>0.342684592473568</v>
       </c>
       <c r="I92" t="n">
-        <v>144</v>
+        <v>12.43768845480469</v>
       </c>
       <c r="J92" t="n">
         <v>168.0664530901136</v>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.04626463633927189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -499,31 +499,31 @@
         <v>1357.818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.474977540566</v>
+        <v>1351.445824761179</v>
       </c>
       <c r="D2" t="n">
         <v>944.7108333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9850695422058434</v>
+        <v>0.9811550437389979</v>
       </c>
       <c r="F2" t="n">
-        <v>1.024035585771049</v>
+        <v>1.035325017532157</v>
       </c>
       <c r="G2" t="n">
-        <v>1.012941962283435</v>
+        <v>1.011039285961181</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4178685778060003</v>
+        <v>0.4768961515609137</v>
       </c>
       <c r="I2" t="n">
-        <v>10.71081832812239</v>
+        <v>168.7264021283164</v>
       </c>
       <c r="J2" t="n">
-        <v>206.4270774361642</v>
+        <v>235.5866988710914</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05688779743089346</v>
+        <v>0.06693981299303341</v>
       </c>
     </row>
     <row r="3">
@@ -534,31 +534,31 @@
         <v>1343.708333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1355.705461137315</v>
+        <v>1343.754178395979</v>
       </c>
       <c r="D3" t="n">
         <v>944.9838875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9865915905622392</v>
+        <v>0.982671043734641</v>
       </c>
       <c r="F3" t="n">
-        <v>1.021884148802614</v>
+        <v>1.033149862148873</v>
       </c>
       <c r="G3" t="n">
-        <v>1.017210460819511</v>
+        <v>1.015307784497257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4296585973087172</v>
+        <v>0.4907090233955974</v>
       </c>
       <c r="I3" t="n">
-        <v>10.48258576510333</v>
+        <v>164.8840869204511</v>
       </c>
       <c r="J3" t="n">
-        <v>211.1415584594421</v>
+        <v>241.1100588728776</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05914391926236712</v>
+        <v>0.06979156875739603</v>
       </c>
     </row>
     <row r="4">
@@ -569,31 +569,31 @@
         <v>1360.041666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>1388.667385283756</v>
+        <v>1376.409689997832</v>
       </c>
       <c r="D4" t="n">
         <v>947.6163916666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9887835789783389</v>
+        <v>0.9848543215623747</v>
       </c>
       <c r="F4" t="n">
-        <v>1.00140239018856</v>
+        <v>1.012442303358112</v>
       </c>
       <c r="G4" t="n">
-        <v>1.010979753997625</v>
+        <v>1.00907707767537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3825430617162416</v>
+        <v>0.4356852260653008</v>
       </c>
       <c r="I4" t="n">
-        <v>11.45830518377043</v>
+        <v>181.1564395191053</v>
       </c>
       <c r="J4" t="n">
-        <v>194.1250837951746</v>
+        <v>221.2401482386922</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05124092394714092</v>
+        <v>0.05978818768419102</v>
       </c>
     </row>
     <row r="5">
@@ -604,31 +604,31 @@
         <v>1362.25</v>
       </c>
       <c r="C5" t="n">
-        <v>1392.794883042988</v>
+        <v>1380.492600874451</v>
       </c>
       <c r="D5" t="n">
         <v>948.9561125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9945118649674209</v>
+        <v>0.990559844319257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9911366696969396</v>
+        <v>1.002063408917677</v>
       </c>
       <c r="G5" t="n">
-        <v>1.007809193490965</v>
+        <v>1.005906517168711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3771426580659244</v>
+        <v>0.4294243174066552</v>
       </c>
       <c r="I5" t="n">
-        <v>11.58187071093918</v>
+        <v>183.1831900129317</v>
       </c>
       <c r="J5" t="n">
-        <v>188.8149437253964</v>
+        <v>215.0565715170844</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05035585750973871</v>
+        <v>0.0586805775451495</v>
       </c>
     </row>
     <row r="6">
@@ -639,31 +639,31 @@
         <v>1379.958333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>1405.752229291808</v>
+        <v>1393.345703150728</v>
       </c>
       <c r="D6" t="n">
         <v>948.7597208333333</v>
       </c>
       <c r="E6" t="n">
-        <v>1.000599288125617</v>
+        <v>0.9966230770953545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9926400237283962</v>
+        <v>1.003583336604372</v>
       </c>
       <c r="G6" t="n">
-        <v>1.011769767995111</v>
+        <v>1.009867091672857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3608313777411052</v>
+        <v>0.4105070183952378</v>
       </c>
       <c r="I6" t="n">
-        <v>11.97181147634162</v>
+        <v>189.5514392293723</v>
       </c>
       <c r="J6" t="n">
-        <v>181.2377558281466</v>
+        <v>206.2598606437968</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04757798739689843</v>
+        <v>0.05522519525852151</v>
       </c>
     </row>
     <row r="7">
@@ -674,31 +674,31 @@
         <v>1386.916666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>1390.718779489895</v>
+        <v>1378.419089726226</v>
       </c>
       <c r="D7" t="n">
         <v>948.3363791666667</v>
       </c>
       <c r="E7" t="n">
-        <v>1.003171403497122</v>
+        <v>0.9991849713187612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9958732584749166</v>
+        <v>1.006852215994053</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00175843922086</v>
+        <v>0.9998557628986058</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3798462464794771</v>
+        <v>0.4325882074700618</v>
       </c>
       <c r="I7" t="n">
-        <v>11.51967911845715</v>
+        <v>182.1541284408339</v>
       </c>
       <c r="J7" t="n">
-        <v>186.3003710127337</v>
+        <v>212.138457547282</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05029694166552715</v>
+        <v>0.05865040974554771</v>
       </c>
     </row>
     <row r="8">
@@ -709,31 +709,31 @@
         <v>1422.958333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>1407.657658017797</v>
+        <v>1395.198885054684</v>
       </c>
       <c r="D8" t="n">
         <v>947.092225</v>
       </c>
       <c r="E8" t="n">
-        <v>1.003637992966701</v>
+        <v>0.9996497066413123</v>
       </c>
       <c r="F8" t="n">
-        <v>1.005475056322467</v>
+        <v>1.016559868406708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9982473484208584</v>
+        <v>0.996344672098604</v>
       </c>
       <c r="H8" t="n">
-        <v>0.358511434876115</v>
+        <v>0.4078742690939023</v>
       </c>
       <c r="I8" t="n">
-        <v>12.02941561605072</v>
+        <v>190.4680903598439</v>
       </c>
       <c r="J8" t="n">
-        <v>179.3538290820951</v>
+        <v>204.093976021311</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04647892091509858</v>
+        <v>0.05392245556697744</v>
       </c>
     </row>
     <row r="9">
@@ -744,31 +744,31 @@
         <v>1445.416666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>1411.653273238463</v>
+        <v>1399.168031857889</v>
       </c>
       <c r="D9" t="n">
         <v>945.2573666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>1.005741593200161</v>
+        <v>1.001744947525979</v>
       </c>
       <c r="F9" t="n">
-        <v>1.019737158131684</v>
+        <v>1.030979202081089</v>
       </c>
       <c r="G9" t="n">
-        <v>1.001623739777262</v>
+        <v>0.9997210634550072</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3537094138989731</v>
+        <v>0.4023122986670622</v>
       </c>
       <c r="I9" t="n">
-        <v>12.15042866110551</v>
+        <v>192.4300501635906</v>
       </c>
       <c r="J9" t="n">
-        <v>176.1773416951047</v>
+        <v>200.4154474160272</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04540398301522356</v>
+        <v>0.05261064515604628</v>
       </c>
     </row>
     <row r="10">
@@ -779,31 +779,31 @@
         <v>1470.291666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>1431.63985420452</v>
+        <v>1418.973433663129</v>
       </c>
       <c r="D10" t="n">
         <v>944.9991666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>1.005134429932484</v>
+        <v>1.001140197021644</v>
       </c>
       <c r="F10" t="n">
-        <v>1.021770741995321</v>
+        <v>1.03303520509361</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999511768855333</v>
+        <v>0.998048500563279</v>
       </c>
       <c r="H10" t="n">
-        <v>0.330896756061986</v>
+        <v>0.376035111343873</v>
       </c>
       <c r="I10" t="n">
-        <v>12.76024418850088</v>
+        <v>202.1923186090028</v>
       </c>
       <c r="J10" t="n">
-        <v>166.9311153373787</v>
+        <v>189.7594153972337</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04184421719767997</v>
+        <v>0.04822603965412651</v>
       </c>
     </row>
     <row r="11">
@@ -814,31 +814,31 @@
         <v>1477.041666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>1430.26081793559</v>
+        <v>1417.60403626759</v>
       </c>
       <c r="D11" t="n">
         <v>944.5693041666667</v>
       </c>
       <c r="E11" t="n">
-        <v>1.006420391334813</v>
+        <v>1.002421048232538</v>
       </c>
       <c r="F11" t="n">
-        <v>1.025158269408097</v>
+        <v>1.036460078141729</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9990655618340155</v>
+        <v>0.9971628855117611</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3324092063324214</v>
+        <v>0.3777768181144189</v>
       </c>
       <c r="I11" t="n">
-        <v>12.7179258717365</v>
+        <v>201.5188360990147</v>
       </c>
       <c r="J11" t="n">
-        <v>165.2911730649824</v>
+        <v>187.8682004633052</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04193487730257494</v>
+        <v>0.04834625005019486</v>
       </c>
     </row>
     <row r="12">
@@ -849,31 +849,31 @@
         <v>1490.416666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>1468.757392263668</v>
+        <v>1455.778737154127</v>
       </c>
       <c r="D12" t="n">
         <v>944.061675</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9920473944632264</v>
+        <v>0.9881051672008055</v>
       </c>
       <c r="F12" t="n">
-        <v>1.02915995958749</v>
+        <v>1.040505884764767</v>
       </c>
       <c r="G12" t="n">
-        <v>1.005823472020231</v>
+        <v>1.003920795697977</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2932364989368538</v>
+        <v>0.3329170171784661</v>
       </c>
       <c r="I12" t="n">
-        <v>13.91299345199728</v>
+        <v>220.2064367787337</v>
       </c>
       <c r="J12" t="n">
-        <v>150.30015303165</v>
+        <v>170.6954212171697</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03665320433842609</v>
+        <v>0.04187376752602712</v>
       </c>
     </row>
     <row r="13">
@@ -884,31 +884,31 @@
         <v>1478.583333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>1489.058143500433</v>
+        <v>1475.893441361547</v>
       </c>
       <c r="D13" t="n">
         <v>945.4647208333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9786909579754218</v>
+        <v>0.9748018069151509</v>
       </c>
       <c r="F13" t="n">
-        <v>1.018124215871387</v>
+        <v>1.029348478015321</v>
       </c>
       <c r="G13" t="n">
-        <v>1.003502066319738</v>
+        <v>1.001599389997483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2748519285727636</v>
+        <v>0.3120140651479551</v>
       </c>
       <c r="I13" t="n">
-        <v>14.55487447580995</v>
+        <v>229.9782502665621</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1457142065171</v>
+        <v>159.1198267708231</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03444325087685227</v>
+        <v>0.0391796960248289</v>
       </c>
     </row>
     <row r="14">
@@ -919,31 +919,31 @@
         <v>1498.416666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>1512.053963479905</v>
+        <v>1498.647536871646</v>
       </c>
       <c r="D14" t="n">
         <v>948.5548583333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9869532311003605</v>
+        <v>0.9830312471749014</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9942074435209456</v>
+        <v>1.005168036342106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9901306620366176</v>
+        <v>0.9882279857143632</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2556442506121983</v>
+        <v>0.2902929820390653</v>
       </c>
       <c r="I14" t="n">
-        <v>15.29196108364185</v>
+        <v>240.9678105069951</v>
       </c>
       <c r="J14" t="n">
-        <v>130.3685967208693</v>
+        <v>148.0353084622459</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03190025970475719</v>
+        <v>0.03613106549217279</v>
       </c>
     </row>
     <row r="15">
@@ -954,31 +954,31 @@
         <v>1506.333333333333</v>
       </c>
       <c r="C15" t="n">
-        <v>1523.36303103448</v>
+        <v>1509.866077902321</v>
       </c>
       <c r="D15" t="n">
         <v>948.9345791666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.990979418731373</v>
+        <v>0.987041435422486</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9913031262882791</v>
+        <v>1.002231700601815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9934595367649922</v>
+        <v>0.9915568604427379</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2467679245988367</v>
+        <v>0.2802601456097492</v>
       </c>
       <c r="I15" t="n">
-        <v>15.65841229309978</v>
+        <v>246.3604047627803</v>
       </c>
       <c r="J15" t="n">
-        <v>124.5473192881744</v>
+        <v>141.4438071086929</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03077034464355462</v>
+        <v>0.03477877104213935</v>
       </c>
     </row>
     <row r="16">
@@ -989,31 +989,31 @@
         <v>1516.434782608696</v>
       </c>
       <c r="C16" t="n">
-        <v>1526.187619231478</v>
+        <v>1512.666516530498</v>
       </c>
       <c r="D16" t="n">
         <v>948.7083375000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9946780501561316</v>
+        <v>0.9907253691163523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9930313965486409</v>
+        <v>1.003979024095717</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9937531602111709</v>
+        <v>0.9918504838889164</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2446057684721877</v>
+        <v>0.2778206258124313</v>
       </c>
       <c r="I16" t="n">
-        <v>15.75035070752769</v>
+        <v>247.7038697099382</v>
       </c>
       <c r="J16" t="n">
-        <v>122.0863036394414</v>
+        <v>138.6594031359971</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0304599985407997</v>
+        <v>0.03441358478080326</v>
       </c>
     </row>
     <row r="17">
@@ -1024,31 +1024,31 @@
         <v>1535.363636363636</v>
       </c>
       <c r="C17" t="n">
-        <v>1542.948544224751</v>
+        <v>1529.264703604407</v>
       </c>
       <c r="D17" t="n">
         <v>949.6388916666666</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9991731380588829</v>
+        <v>0.9952025943059145</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9859441034372018</v>
+        <v>0.9968135974574118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9894890537576075</v>
+        <v>0.9875863774353532</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2322028009507486</v>
+        <v>0.263864912930071</v>
       </c>
       <c r="I17" t="n">
-        <v>16.29933213346858</v>
+        <v>255.6445606424546</v>
       </c>
       <c r="J17" t="n">
-        <v>116.765399189713</v>
+        <v>132.6670959223383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02887931445343443</v>
+        <v>0.03253720548470863</v>
       </c>
     </row>
     <row r="18">
@@ -1059,31 +1059,31 @@
         <v>1534.791666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>1561.646062222446</v>
+        <v>1547.8080079221</v>
       </c>
       <c r="D18" t="n">
         <v>950.9663875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997970546422232</v>
+        <v>0.9958240315510921</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9759303892131467</v>
+        <v>0.9866894875156896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9927975049641687</v>
+        <v>0.9908948286419145</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2191750013784391</v>
+        <v>0.2492252498794999</v>
       </c>
       <c r="I18" t="n">
-        <v>16.91874619453215</v>
+        <v>264.4709177009635</v>
       </c>
       <c r="J18" t="n">
-        <v>110.7066886728943</v>
+        <v>125.8549257307175</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02738384011094466</v>
+        <v>0.03075616089161685</v>
       </c>
     </row>
     <row r="19">
@@ -1094,31 +1094,31 @@
         <v>1540.375</v>
       </c>
       <c r="C19" t="n">
-        <v>1572.235303032121</v>
+        <v>1558.311116113328</v>
       </c>
       <c r="D19" t="n">
         <v>950.310425</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9942031803121448</v>
+        <v>0.9902523863241893</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9809006495512541</v>
+        <v>0.9917145422532316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9953589138631743</v>
+        <v>0.9934562375409199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2121466546541697</v>
+        <v>0.2413439865064645</v>
       </c>
       <c r="I19" t="n">
-        <v>17.27287228247198</v>
+        <v>269.4490777340253</v>
       </c>
       <c r="J19" t="n">
-        <v>106.6009079570472</v>
+        <v>121.2458294438275</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02657502907140456</v>
+        <v>0.02979948531177192</v>
       </c>
     </row>
     <row r="20">
@@ -1129,31 +1129,31 @@
         <v>1550.75</v>
       </c>
       <c r="C20" t="n">
-        <v>1567.002474753637</v>
+        <v>1553.13289659494</v>
       </c>
       <c r="D20" t="n">
         <v>949.1808291666666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9983531884255917</v>
+        <v>0.994385903012715</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9894345709086401</v>
+        <v>1.00034254542199</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9981240135088499</v>
+        <v>0.9962213371865957</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2155894349486043</v>
+        <v>0.2451939872486993</v>
       </c>
       <c r="I20" t="n">
-        <v>17.09757291810111</v>
+        <v>266.9966763771167</v>
       </c>
       <c r="J20" t="n">
-        <v>106.7202484546109</v>
+        <v>121.3739275383585</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02685335672181339</v>
+        <v>0.03013416052873152</v>
       </c>
     </row>
     <row r="21">
@@ -1164,31 +1164,31 @@
         <v>1548.478260869565</v>
       </c>
       <c r="C21" t="n">
-        <v>1581.10701154763</v>
+        <v>1567.129697678575</v>
       </c>
       <c r="D21" t="n">
         <v>950.5386041666667</v>
       </c>
       <c r="E21" t="n">
-        <v>1.004394010406884</v>
+        <v>1.000402719797043</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9791386263553262</v>
+        <v>0.989933093716126</v>
       </c>
       <c r="G21" t="n">
-        <v>1.004117905577541</v>
+        <v>1.002215229255286</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2064411970058823</v>
+        <v>0.2349415803644948</v>
       </c>
       <c r="I21" t="n">
-        <v>17.5714340974613</v>
+        <v>273.6169358162812</v>
       </c>
       <c r="J21" t="n">
-        <v>103.240448810762</v>
+        <v>117.4724881892059</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02589780029265531</v>
+        <v>0.02900037384098823</v>
       </c>
     </row>
     <row r="22">
@@ -1199,31 +1199,31 @@
         <v>1458.260869565217</v>
       </c>
       <c r="C22" t="n">
-        <v>1484.067143209171</v>
+        <v>1470.978002098959</v>
       </c>
       <c r="D22" t="n">
         <v>949.1741583333334</v>
       </c>
       <c r="E22" t="n">
-        <v>1.007392083643312</v>
+        <v>1.003388879201417</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9894878644081518</v>
+        <v>1.00039642645316</v>
       </c>
       <c r="G22" t="n">
-        <v>1.014837262159542</v>
+        <v>1.012934585837288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2792411259878104</v>
+        <v>0.3169665383736176</v>
       </c>
       <c r="I22" t="n">
-        <v>14.39630607112502</v>
+        <v>227.5951978655235</v>
       </c>
       <c r="J22" t="n">
-        <v>129.0345325859545</v>
+        <v>146.539322195179</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03517808378687421</v>
+        <v>0.04004851512328721</v>
       </c>
     </row>
     <row r="23">
@@ -1234,31 +1234,31 @@
         <v>1457.291666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>1429.947199945409</v>
+        <v>1417.330559499384</v>
       </c>
       <c r="D23" t="n">
         <v>945.5572208333333</v>
       </c>
       <c r="E23" t="n">
-        <v>1.014641647721403</v>
+        <v>1.010609634747467</v>
       </c>
       <c r="F23" t="n">
-        <v>1.017485203270645</v>
+        <v>1.028702420650461</v>
       </c>
       <c r="G23" t="n">
-        <v>1.013054368212845</v>
+        <v>1.011151691890591</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3327543899924592</v>
+        <v>0.3781259304022481</v>
       </c>
       <c r="I23" t="n">
-        <v>12.70830695376389</v>
+        <v>201.3843104815942</v>
       </c>
       <c r="J23" t="n">
-        <v>154.2123977466792</v>
+        <v>175.225160880978</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04227050532551307</v>
+        <v>0.04873120294269419</v>
       </c>
     </row>
     <row r="24">
@@ -1269,31 +1269,31 @@
         <v>1461.708333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>1450.613757232733</v>
+        <v>1437.776760158193</v>
       </c>
       <c r="D24" t="n">
         <v>947.6508333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>1.005640688172484</v>
+        <v>1.001644443477685</v>
       </c>
       <c r="F24" t="n">
-        <v>1.001165735572775</v>
+        <v>1.012203039754736</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9990569736766538</v>
+        <v>0.9971542973543993</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3109411772820017</v>
+        <v>0.3531553111386488</v>
       </c>
       <c r="I24" t="n">
-        <v>13.34618318325451</v>
+        <v>211.4167156090074</v>
       </c>
       <c r="J24" t="n">
-        <v>152.6728651332982</v>
+        <v>173.417870629293</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03929849129933192</v>
+        <v>0.04508319276356262</v>
       </c>
     </row>
     <row r="25">
@@ -1304,31 +1304,31 @@
         <v>1466.125</v>
       </c>
       <c r="C25" t="n">
-        <v>1481.395453230231</v>
+        <v>1468.283611658331</v>
       </c>
       <c r="D25" t="n">
         <v>950.346525</v>
       </c>
       <c r="E25" t="n">
-        <v>1.007332965621372</v>
+        <v>1.00332999610442</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9805940279368562</v>
+        <v>0.9914045403033841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9981613108218217</v>
+        <v>0.9962586344995673</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2816248485653735</v>
+        <v>0.3197228536001017</v>
       </c>
       <c r="I25" t="n">
-        <v>14.31162860665523</v>
+        <v>226.2875827941639</v>
       </c>
       <c r="J25" t="n">
-        <v>142.5544895486352</v>
+        <v>161.8648710599797</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03542722135405635</v>
+        <v>0.04036389017530256</v>
       </c>
     </row>
     <row r="26">
@@ -1339,31 +1339,31 @@
         <v>1491.208333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>1497.647727487627</v>
+        <v>1484.392056229392</v>
       </c>
       <c r="D26" t="n">
         <v>949.5340208333333</v>
       </c>
       <c r="E26" t="n">
-        <v>1.007180260111931</v>
+        <v>1.003177897420646</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9867517053187438</v>
+        <v>0.9976301027076047</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9981316836626196</v>
+        <v>0.9962290073403652</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2674869771550628</v>
+        <v>0.3036755765496637</v>
       </c>
       <c r="I26" t="n">
-        <v>14.82894389486354</v>
+        <v>234.0909193137592</v>
       </c>
       <c r="J26" t="n">
-        <v>135.2214219443326</v>
+        <v>153.5246897182572</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03339442618649093</v>
+        <v>0.03792361057585052</v>
       </c>
     </row>
     <row r="27">
@@ -1374,31 +1374,31 @@
         <v>1515.625</v>
       </c>
       <c r="C27" t="n">
-        <v>1509.049251702064</v>
+        <v>1495.703093996608</v>
       </c>
       <c r="D27" t="n">
         <v>947.7877833333333</v>
       </c>
       <c r="E27" t="n">
-        <v>1.006079740582983</v>
+        <v>1.002081751168736</v>
       </c>
       <c r="F27" t="n">
-        <v>1.000093044315994</v>
+        <v>1.011118522664056</v>
       </c>
       <c r="G27" t="n">
-        <v>1.001780434554064</v>
+        <v>0.9998777582318099</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2580634940479655</v>
+        <v>0.2929974331720085</v>
       </c>
       <c r="I27" t="n">
-        <v>15.19504036625655</v>
+        <v>239.5496381608998</v>
       </c>
       <c r="J27" t="n">
-        <v>129.8308321135651</v>
+        <v>147.4064986521406</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03199559362728262</v>
+        <v>0.03625441694166282</v>
       </c>
     </row>
     <row r="28">
@@ -1409,31 +1409,31 @@
         <v>1450.125</v>
       </c>
       <c r="C28" t="n">
-        <v>1423.059565135256</v>
+        <v>1410.452183730568</v>
       </c>
       <c r="D28" t="n">
         <v>947.3165291666668</v>
       </c>
       <c r="E28" t="n">
-        <v>1.008900459753591</v>
+        <v>1.004891261282119</v>
       </c>
       <c r="F28" t="n">
-        <v>1.003728430260605</v>
+        <v>1.014793986748643</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9937631767766916</v>
+        <v>0.9918605004544373</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3404518098119378</v>
+        <v>0.3870498820743378</v>
       </c>
       <c r="I28" t="n">
-        <v>12.49752716461493</v>
+        <v>197.9978202976895</v>
       </c>
       <c r="J28" t="n">
-        <v>158.4386399003882</v>
+        <v>180.0733356757863</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04345508738254517</v>
+        <v>0.05019897537761379</v>
       </c>
     </row>
     <row r="29">
@@ -1444,31 +1444,31 @@
         <v>1430.708333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>1419.477219716317</v>
+        <v>1406.869297200008</v>
       </c>
       <c r="D29" t="n">
         <v>949.9137541666668</v>
       </c>
       <c r="E29" t="n">
-        <v>1.006078970315596</v>
+        <v>1.00208098396226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9838559320554442</v>
+        <v>0.9947024051292658</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9819669977469502</v>
+        <v>0.9800643214246958</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3445455094612315</v>
+        <v>0.3918101098068956</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38825184204099</v>
+        <v>196.2315919251416</v>
       </c>
       <c r="J29" t="n">
-        <v>166.09356476114</v>
+        <v>188.84703487601</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04436429647706659</v>
+        <v>0.05130937474799704</v>
       </c>
     </row>
     <row r="30">
@@ -1479,31 +1479,31 @@
         <v>1483.375</v>
       </c>
       <c r="C30" t="n">
-        <v>1458.291721209747</v>
+        <v>1445.353448355492</v>
       </c>
       <c r="D30" t="n">
         <v>948.3337583333333</v>
       </c>
       <c r="E30" t="n">
-        <v>1.00818584418545</v>
+        <v>1.004179485474448</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9959117121359533</v>
+        <v>1.006891093585653</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9870321035426124</v>
+        <v>0.9851294272203579</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3032932852768275</v>
+        <v>0.344449805185451</v>
       </c>
       <c r="I30" t="n">
-        <v>13.58526074217714</v>
+        <v>215.1211670688933</v>
       </c>
       <c r="J30" t="n">
-        <v>153.6257390437737</v>
+        <v>174.5245454428329</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0379891903130498</v>
+        <v>0.04350645491192796</v>
       </c>
     </row>
     <row r="31">
@@ -1514,31 +1514,31 @@
         <v>1500.625</v>
       </c>
       <c r="C31" t="n">
-        <v>1455.606812386644</v>
+        <v>1442.704721719577</v>
       </c>
       <c r="D31" t="n">
         <v>945.2074958333333</v>
       </c>
       <c r="E31" t="n">
-        <v>1.002015039582629</v>
+        <v>0.9980332025973748</v>
       </c>
       <c r="F31" t="n">
-        <v>1.020142886743443</v>
+        <v>1.031389403628691</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9915166378066517</v>
+        <v>0.9896139614843973</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3059410230956302</v>
+        <v>0.3474612933649757</v>
       </c>
       <c r="I31" t="n">
-        <v>13.5015275074403</v>
+        <v>213.826956678078</v>
       </c>
       <c r="J31" t="n">
-        <v>152.1914695664592</v>
+        <v>172.8644136539463</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03809500789503357</v>
+        <v>0.04365075548887271</v>
       </c>
     </row>
     <row r="32">
@@ -1549,31 +1549,31 @@
         <v>1521.090909090909</v>
       </c>
       <c r="C32" t="n">
-        <v>1473.613036047857</v>
+        <v>1460.520407679729</v>
       </c>
       <c r="D32" t="n">
         <v>946.6605416666666</v>
       </c>
       <c r="E32" t="n">
-        <v>1.003377257456255</v>
+        <v>0.999390007249346</v>
       </c>
       <c r="F32" t="n">
-        <v>1.008806545632265</v>
+        <v>1.019928085562441</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9806837858912939</v>
+        <v>0.9787811095690396</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2887083099531897</v>
+        <v>0.327834476144631</v>
       </c>
       <c r="I32" t="n">
-        <v>14.06577851782252</v>
+        <v>222.5147127921117</v>
       </c>
       <c r="J32" t="n">
-        <v>145.2294543720204</v>
+        <v>164.9256109844224</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03563453759944332</v>
+        <v>0.04067063484021796</v>
       </c>
     </row>
     <row r="33">
@@ -1584,31 +1584,31 @@
         <v>1525.416666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>1492.406038658163</v>
+        <v>1479.143337442325</v>
       </c>
       <c r="D33" t="n">
         <v>947.7016749999999</v>
       </c>
       <c r="E33" t="n">
-        <v>1.000478356145883</v>
+        <v>0.9965026256786965</v>
       </c>
       <c r="F33" t="n">
-        <v>1.000750843696025</v>
+        <v>1.011783573922163</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9796149749298574</v>
+        <v>0.977712298607603</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2719533690249702</v>
+        <v>0.3087924015987075</v>
       </c>
       <c r="I33" t="n">
-        <v>14.66151976787533</v>
+        <v>231.5520789906208</v>
       </c>
       <c r="J33" t="n">
-        <v>137.4615574680817</v>
+        <v>156.0898431463894</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03353217150752336</v>
+        <v>0.0381236620491824</v>
       </c>
     </row>
     <row r="34">
@@ -1619,31 +1619,31 @@
         <v>1541.833333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>1522.784854513672</v>
+        <v>1509.258937524624</v>
       </c>
       <c r="D34" t="n">
         <v>949.5312375</v>
       </c>
       <c r="E34" t="n">
-        <v>1.007620275356663</v>
+        <v>1.003616164119792</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9868158771224418</v>
+        <v>0.9976949819703099</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9819148522301148</v>
+        <v>0.9800121759078605</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2472131559058861</v>
+        <v>0.28079239251543</v>
       </c>
       <c r="I34" t="n">
-        <v>15.63961343630012</v>
+        <v>246.0689981580159</v>
       </c>
       <c r="J34" t="n">
-        <v>126.4553250930016</v>
+        <v>143.6213080526459</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03046972318377952</v>
+        <v>0.03444593289229408</v>
       </c>
     </row>
     <row r="35">
@@ -1654,31 +1654,31 @@
         <v>1533.291666666667</v>
       </c>
       <c r="C35" t="n">
-        <v>1531.794760916429</v>
+        <v>1518.144585221169</v>
       </c>
       <c r="D35" t="n">
         <v>952.7869375</v>
       </c>
       <c r="E35" t="n">
-        <v>1.006265760156905</v>
+        <v>1.002267031532576</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9623751148367682</v>
+        <v>0.9729847736596664</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9673548215560915</v>
+        <v>0.9654521452338373</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2403763369516359</v>
+        <v>0.2731209003803149</v>
       </c>
       <c r="I35" t="n">
-        <v>15.93335081763268</v>
+        <v>250.3287900886153</v>
       </c>
       <c r="J35" t="n">
-        <v>121.2198675835989</v>
+        <v>137.7157280872388</v>
       </c>
       <c r="K35" t="n">
-        <v>0.02977132596572631</v>
+        <v>0.03360836589810703</v>
       </c>
     </row>
     <row r="36">
@@ -1689,31 +1689,31 @@
         <v>1562.333333333333</v>
       </c>
       <c r="C36" t="n">
-        <v>1540.564733959129</v>
+        <v>1526.838050924268</v>
       </c>
       <c r="D36" t="n">
         <v>950.320275</v>
       </c>
       <c r="E36" t="n">
-        <v>1.003642229437328</v>
+        <v>0.9996539262769276</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9808531257843565</v>
+        <v>0.9916664945628191</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9675896733867688</v>
+        <v>0.9656869970645143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2339235198835189</v>
+        <v>0.2658531243709848</v>
       </c>
       <c r="I36" t="n">
-        <v>16.22089412781658</v>
+        <v>254.4859927803348</v>
       </c>
       <c r="J36" t="n">
-        <v>117.2991873466877</v>
+        <v>133.2950826935725</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02915160963446069</v>
+        <v>0.03288541086572677</v>
       </c>
     </row>
     <row r="37">
@@ -1724,31 +1724,31 @@
         <v>1556.388888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>1549.597185368843</v>
+        <v>1535.836231580925</v>
       </c>
       <c r="D37" t="n">
         <v>947.7711208333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9876684243690415</v>
+        <v>0.9837435983874291</v>
       </c>
       <c r="F37" t="n">
-        <v>1.000224924903069</v>
+        <v>1.01125185716241</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9829727898121914</v>
+        <v>0.981070113489937</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2274764356465966</v>
+        <v>0.2585666345583624</v>
       </c>
       <c r="I37" t="n">
-        <v>16.51873683816322</v>
+        <v>258.7779593189402</v>
       </c>
       <c r="J37" t="n">
-        <v>113.8439381484017</v>
+        <v>129.3924924134965</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02816564286990601</v>
+        <v>0.03170087883587704</v>
       </c>
     </row>
     <row r="38">
@@ -1759,31 +1759,31 @@
         <v>1492.304347826087</v>
       </c>
       <c r="C38" t="n">
-        <v>1547.738324741129</v>
+        <v>1533.99355875741</v>
       </c>
       <c r="D38" t="n">
         <v>951.4979291666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9745885138731122</v>
+        <v>0.9707156652264891</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9720059486816077</v>
+        <v>0.9827217821755866</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9826716715851669</v>
+        <v>0.9807689952629124</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2287871851217699</v>
+        <v>0.2600397844859729</v>
       </c>
       <c r="I38" t="n">
-        <v>16.4573002448605</v>
+        <v>257.8999479086287</v>
       </c>
       <c r="J38" t="n">
-        <v>113.393095983871</v>
+        <v>128.8808653673879</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02883488656224514</v>
+        <v>0.03245967194194018</v>
       </c>
     </row>
     <row r="39">
@@ -1794,31 +1794,31 @@
         <v>1465.166666666667</v>
       </c>
       <c r="C39" t="n">
-        <v>1554.834168197067</v>
+        <v>1541.037918279633</v>
       </c>
       <c r="D39" t="n">
         <v>953.25515</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9696618836668839</v>
+        <v>0.9658086126090123</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9588905530169818</v>
+        <v>0.969461796453317</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9866243278724638</v>
+        <v>0.9847216515502094</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2238273088189626</v>
+        <v>0.2544595542212646</v>
       </c>
       <c r="I39" t="n">
-        <v>16.69221780809865</v>
+        <v>261.2539664647774</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3462478286751</v>
+        <v>126.5764731554106</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02858046850153843</v>
+        <v>0.03213880754896484</v>
       </c>
     </row>
     <row r="40">
@@ -1829,31 +1829,31 @@
         <v>1468.333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>1560.744379687681</v>
+        <v>1546.882349320731</v>
       </c>
       <c r="D40" t="n">
         <v>953.832225</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9679231976079395</v>
+        <v>0.9640768357921269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.954663832385627</v>
+        <v>0.9651884785407699</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9822822824333796</v>
+        <v>0.9803796061111253</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2197848169997865</v>
+        <v>0.2499336485751482</v>
       </c>
       <c r="I40" t="n">
-        <v>16.88870376541135</v>
+        <v>264.031446992245</v>
       </c>
       <c r="J40" t="n">
-        <v>109.3795135447364</v>
+        <v>124.3712936077679</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02807510985066916</v>
+        <v>0.03154127412871684</v>
       </c>
     </row>
     <row r="41">
@@ -1864,31 +1864,31 @@
         <v>1473.291666666667</v>
       </c>
       <c r="C41" t="n">
-        <v>1581.744743050134</v>
+        <v>1567.741408417777</v>
       </c>
       <c r="D41" t="n">
         <v>953.5226375000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9704804853322481</v>
+        <v>0.9666239612908796</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9569247170603461</v>
+        <v>0.9674742882313866</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9970406815200361</v>
+        <v>0.9951380051977817</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2060372866265172</v>
+        <v>0.2345045001740313</v>
       </c>
       <c r="I41" t="n">
-        <v>17.59296207315207</v>
+        <v>273.9056405856079</v>
       </c>
       <c r="J41" t="n">
-        <v>103.8489638048739</v>
+        <v>118.1644355701344</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02652333919981583</v>
+        <v>0.029701675506322</v>
       </c>
     </row>
     <row r="42">
@@ -1899,31 +1899,31 @@
         <v>1466.916666666667</v>
       </c>
       <c r="C42" t="n">
-        <v>1579.068931780784</v>
+        <v>1565.080816853578</v>
       </c>
       <c r="D42" t="n">
         <v>953.7162416666666</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9665939086651004</v>
+        <v>0.9627528292169845</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9555029465121468</v>
+        <v>0.9660368434411915</v>
       </c>
       <c r="G42" t="n">
-        <v>0.994225328655606</v>
+        <v>0.9923226523333516</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2077375562905923</v>
+        <v>0.2364121160680182</v>
       </c>
       <c r="I42" t="n">
-        <v>17.50269410193203</v>
+        <v>272.6495586592409</v>
       </c>
       <c r="J42" t="n">
-        <v>103.1636689483378</v>
+        <v>117.3951554960653</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02676503184700691</v>
+        <v>0.02998459246255367</v>
       </c>
     </row>
     <row r="43">
@@ -1934,31 +1934,31 @@
         <v>1452.291666666667</v>
       </c>
       <c r="C43" t="n">
-        <v>1587.163648622257</v>
+        <v>1573.107952437984</v>
       </c>
       <c r="D43" t="n">
         <v>956.0245875000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9703528135128794</v>
+        <v>0.966496796817561</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9386928618891129</v>
+        <v>0.9490414368372742</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9957762853567128</v>
+        <v>0.9938736090344585</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2026380595351235</v>
+        <v>0.2307081262322634</v>
       </c>
       <c r="I43" t="n">
-        <v>17.77624890948463</v>
+        <v>276.4362034878583</v>
       </c>
       <c r="J43" t="n">
-        <v>100.9589404955503</v>
+        <v>114.9277601367352</v>
       </c>
       <c r="K43" t="n">
-        <v>0.026315829010952</v>
+        <v>0.02944539881061827</v>
       </c>
     </row>
     <row r="44">
@@ -1969,31 +1969,31 @@
         <v>1303.130434782609</v>
       </c>
       <c r="C44" t="n">
-        <v>1418.705305928418</v>
+        <v>1406.155701352885</v>
       </c>
       <c r="D44" t="n">
         <v>955.57805</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9769888596173523</v>
+        <v>0.973106472405853</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9419296403572557</v>
+        <v>0.9523138990161684</v>
       </c>
       <c r="G44" t="n">
-        <v>1.000895247878741</v>
+        <v>0.9989925715564865</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3454358850034582</v>
+        <v>0.3927675762381846</v>
       </c>
       <c r="I44" t="n">
-        <v>12.3647371042262</v>
+        <v>195.8796347688499</v>
       </c>
       <c r="J44" t="n">
-        <v>152.5738015263342</v>
+        <v>173.51317225249</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04694786973767867</v>
+        <v>0.05433211757667214</v>
       </c>
     </row>
     <row r="45">
@@ -2004,31 +2004,31 @@
         <v>1341.208333333333</v>
       </c>
       <c r="C45" t="n">
-        <v>1403.730848712936</v>
+        <v>1391.322009846138</v>
       </c>
       <c r="D45" t="n">
         <v>950.1863916666666</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770524066767665</v>
+        <v>0.9731697669400839</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9818907665140008</v>
+        <v>0.992715574713488</v>
       </c>
       <c r="G45" t="n">
-        <v>1.004018330380549</v>
+        <v>1.002115654058295</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3633140167633769</v>
+        <v>0.41340858704039</v>
       </c>
       <c r="I45" t="n">
-        <v>11.91077555649031</v>
+        <v>188.5500006289247</v>
       </c>
       <c r="J45" t="n">
-        <v>170.5270325258551</v>
+        <v>194.0194680807457</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04868098114850217</v>
+        <v>0.05654971855960293</v>
       </c>
     </row>
     <row r="46">
@@ -2039,31 +2039,31 @@
         <v>1354.25</v>
       </c>
       <c r="C46" t="n">
-        <v>1390.556948675764</v>
+        <v>1378.277338401202</v>
       </c>
       <c r="D46" t="n">
         <v>946.7461125</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9746978918420436</v>
+        <v>0.9708246085460139</v>
       </c>
       <c r="F46" t="n">
-        <v>1.008129438080795</v>
+        <v>1.019243513270875</v>
       </c>
       <c r="G46" t="n">
-        <v>1.008988015032353</v>
+        <v>1.007085338710099</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3800580712157126</v>
+        <v>0.4328056796145132</v>
       </c>
       <c r="I46" t="n">
-        <v>11.51483464290675</v>
+        <v>182.0837616868882</v>
       </c>
       <c r="J46" t="n">
-        <v>182.300204739002</v>
+        <v>207.5544993036212</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05095789503785069</v>
+        <v>0.05942359354704619</v>
       </c>
     </row>
     <row r="47">
@@ -2074,31 +2074,31 @@
         <v>1332.875</v>
       </c>
       <c r="C47" t="n">
-        <v>1392.879642911373</v>
+        <v>1380.537595413737</v>
       </c>
       <c r="D47" t="n">
         <v>951.2018041666666</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9754138553781112</v>
+        <v>0.9715377269650172</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9743175662156176</v>
+        <v>0.9850588840274956</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9930964199366764</v>
+        <v>0.991193743614422</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3770328244854845</v>
+        <v>0.4293560179920805</v>
       </c>
       <c r="I47" t="n">
-        <v>11.58441144865484</v>
+        <v>183.2055151280846</v>
       </c>
       <c r="J47" t="n">
-        <v>184.6393547467786</v>
+        <v>210.2462430540921</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05094014620781521</v>
+        <v>0.05937604393345686</v>
       </c>
     </row>
     <row r="48">
@@ -2109,31 +2109,31 @@
         <v>1303.833333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>1414.347154252993</v>
+        <v>1401.814442568344</v>
       </c>
       <c r="D48" t="n">
         <v>955.9801416666666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9747186890614882</v>
+        <v>0.9708453231208533</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9389971612667498</v>
+        <v>0.9493490909489716</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9928698185889142</v>
+        <v>0.9909671422666598</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3505189583305061</v>
+        <v>0.3986609565188758</v>
       </c>
       <c r="I48" t="n">
-        <v>12.23218479393821</v>
+        <v>193.7371668146798</v>
       </c>
       <c r="J48" t="n">
-        <v>175.9761586114512</v>
+        <v>200.2080931754933</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04744712920887762</v>
+        <v>0.0549591538061262</v>
       </c>
     </row>
     <row r="49">
@@ -2144,31 +2144,31 @@
         <v>1294.695652173913</v>
       </c>
       <c r="C49" t="n">
-        <v>1429.01333375216</v>
+        <v>1416.391959922231</v>
       </c>
       <c r="D49" t="n">
         <v>955.3333250000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9679570893729604</v>
+        <v>0.96411059287705</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9436980240533427</v>
+        <v>0.9541017781744655</v>
       </c>
       <c r="G49" t="n">
-        <v>1.007809865454443</v>
+        <v>1.005907189132189</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3337849528796162</v>
+        <v>0.379327386564998</v>
       </c>
       <c r="I49" t="n">
-        <v>12.67967556970253</v>
+        <v>200.9225364510735</v>
       </c>
       <c r="J49" t="n">
-        <v>168.0817444686022</v>
+        <v>191.079888486066</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04523920761593692</v>
+        <v>0.05219626815140496</v>
       </c>
     </row>
     <row r="50">
@@ -2179,31 +2179,31 @@
         <v>1285.5</v>
       </c>
       <c r="C50" t="n">
-        <v>1419.703204408823</v>
+        <v>1407.162968157232</v>
       </c>
       <c r="D50" t="n">
         <v>954.2948708333333</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9596370461940088</v>
+        <v>0.9558236121316349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9512530968052787</v>
+        <v>0.9617401414677347</v>
       </c>
       <c r="G50" t="n">
-        <v>1.006923062094619</v>
+        <v>1.005020385772365</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3442854033406958</v>
+        <v>0.3914169891562055</v>
       </c>
       <c r="I50" t="n">
-        <v>12.39513811088608</v>
+        <v>196.376417810848</v>
       </c>
       <c r="J50" t="n">
-        <v>169.8992372930757</v>
+        <v>193.1616315393534</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04717465432422367</v>
+        <v>0.0545839026690921</v>
       </c>
     </row>
     <row r="51">
@@ -2214,31 +2214,31 @@
         <v>1285.608695652174</v>
       </c>
       <c r="C51" t="n">
-        <v>1416.752041203048</v>
+        <v>1404.235023758271</v>
       </c>
       <c r="D51" t="n">
         <v>954.6870791666666</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9633568599719055</v>
+        <v>0.9595286440035783</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9483932957442781</v>
+        <v>0.9588488126655336</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0070373225855</v>
+        <v>1.005134646263246</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3477021940317806</v>
+        <v>0.3953603486928283</v>
       </c>
       <c r="I51" t="n">
-        <v>12.30528493616876</v>
+        <v>194.9320275577935</v>
       </c>
       <c r="J51" t="n">
-        <v>171.2595540934948</v>
+        <v>194.7273009663018</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04733599494390225</v>
+        <v>0.05478460056097935</v>
       </c>
     </row>
     <row r="52">
@@ -2249,31 +2249,31 @@
         <v>1318.083333333333</v>
       </c>
       <c r="C52" t="n">
-        <v>1401.701854644852</v>
+        <v>1389.299393426463</v>
       </c>
       <c r="D52" t="n">
         <v>951.5705541666666</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9676401243432758</v>
+        <v>0.9637948874123703</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9714617903663608</v>
+        <v>0.9821716248127941</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9994269848129741</v>
+        <v>0.9975243084907198</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3658285838853993</v>
+        <v>0.4163367303888826</v>
       </c>
       <c r="I52" t="n">
-        <v>11.84958583850189</v>
+        <v>187.5486320093951</v>
       </c>
       <c r="J52" t="n">
-        <v>178.1995058508998</v>
+        <v>202.7558402163629</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04956042715351067</v>
+        <v>0.05761628900613641</v>
       </c>
     </row>
     <row r="53">
@@ -2284,31 +2284,31 @@
         <v>1323.625</v>
       </c>
       <c r="C53" t="n">
-        <v>1325.179377801839</v>
+        <v>1313.377339536479</v>
       </c>
       <c r="D53" t="n">
         <v>948.26055</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9721321311764797</v>
+        <v>0.9682690437760305</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9964743377040718</v>
+        <v>1.00745992179267</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9699592495401603</v>
+        <v>0.9680565732179059</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4807685015638108</v>
+        <v>0.5513435833091318</v>
       </c>
       <c r="I53" t="n">
-        <v>9.596158864399531</v>
+        <v>149.6585022670475</v>
       </c>
       <c r="J53" t="n">
-        <v>221.7732403505152</v>
+        <v>253.9083578704211</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06850558194442256</v>
+        <v>0.08190655300840101</v>
       </c>
     </row>
     <row r="54">
@@ -2319,31 +2319,31 @@
         <v>1349.041666666667</v>
       </c>
       <c r="C54" t="n">
-        <v>1372.306854090869</v>
+        <v>1360.061539817109</v>
       </c>
       <c r="D54" t="n">
         <v>951.4865416666667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9725761903249929</v>
+        <v>0.9687113383091722</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9722057495082345</v>
+        <v>0.9829237856969529</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9615464201483226</v>
+        <v>0.9596437438260682</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4049991609702973</v>
+        <v>0.4620739720653525</v>
       </c>
       <c r="I54" t="n">
-        <v>10.97156705030009</v>
+        <v>173.0235281136856</v>
       </c>
       <c r="J54" t="n">
-        <v>204.0400604247346</v>
+        <v>232.9693493020123</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05509579144039054</v>
+        <v>0.06468215037443355</v>
       </c>
     </row>
     <row r="55">
@@ -2354,31 +2354,31 @@
         <v>1332.25</v>
       </c>
       <c r="C55" t="n">
-        <v>1391.788075516812</v>
+        <v>1379.330821683409</v>
       </c>
       <c r="D55" t="n">
         <v>957.2805458333333</v>
       </c>
       <c r="E55" t="n">
-        <v>0.976469121698082</v>
+        <v>0.9725887998364905</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9296639082552791</v>
+        <v>0.9399129439322081</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9483063091679872</v>
+        <v>0.9464036328457328</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3784505576631474</v>
+        <v>0.4311930633969822</v>
       </c>
       <c r="I55" t="n">
-        <v>11.55170100587954</v>
+        <v>182.6066690038116</v>
       </c>
       <c r="J55" t="n">
-        <v>191.8335714469623</v>
+        <v>218.7163331238376</v>
       </c>
       <c r="K55" t="n">
-        <v>0.05117328551262563</v>
+        <v>0.05970025615349418</v>
       </c>
     </row>
     <row r="56">
@@ -2389,31 +2389,31 @@
         <v>1379.125</v>
       </c>
       <c r="C56" t="n">
-        <v>1420.395407149234</v>
+        <v>1407.684668929693</v>
       </c>
       <c r="D56" t="n">
         <v>955.9748625000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9813764952196392</v>
+        <v>0.977476672292079</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9390832875118239</v>
+        <v>0.9494361666887509</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9491485385819453</v>
+        <v>0.9472458622596908</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3434902555495241</v>
+        <v>0.3907199248605503</v>
       </c>
       <c r="I56" t="n">
-        <v>12.416237079692</v>
+        <v>196.6336730851353</v>
       </c>
       <c r="J56" t="n">
-        <v>175.980480290871</v>
+        <v>200.326348520764</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04505933399265959</v>
+        <v>0.05212413583355606</v>
       </c>
     </row>
     <row r="57">
@@ -2424,31 +2424,31 @@
         <v>1375.125</v>
       </c>
       <c r="C57" t="n">
-        <v>1411.167234595165</v>
+        <v>1398.589623243988</v>
       </c>
       <c r="D57" t="n">
         <v>954.06805</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9883682122899855</v>
+        <v>0.9844406054704463</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9529343236834276</v>
+        <v>0.9634399029518872</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9665360724512891</v>
+        <v>0.9646333961290349</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3542890556357789</v>
+        <v>0.4031163811998669</v>
       </c>
       <c r="I57" t="n">
-        <v>12.13569238280435</v>
+        <v>192.144254198101</v>
       </c>
       <c r="J57" t="n">
-        <v>175.9446408310527</v>
+        <v>200.2328101173035</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04669324285204919</v>
+        <v>0.05414156141854814</v>
       </c>
     </row>
     <row r="58">
@@ -2459,31 +2459,31 @@
         <v>1398.333333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>1435.168346681389</v>
+        <v>1422.401625948914</v>
       </c>
       <c r="D58" t="n">
         <v>952.4061</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9843587779746369</v>
+        <v>0.9804471039637043</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9651905636606294</v>
+        <v>0.9758312612655931</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9751585827444985</v>
+        <v>0.9732559064222442</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3270664235723382</v>
+        <v>0.3717213108698151</v>
       </c>
       <c r="I58" t="n">
-        <v>12.86868723553727</v>
+        <v>203.8773375749506</v>
       </c>
       <c r="J58" t="n">
-        <v>165.4165397841014</v>
+        <v>188.0748970376515</v>
       </c>
       <c r="K58" t="n">
-        <v>0.04240272369811772</v>
+        <v>0.0488437182175649</v>
       </c>
     </row>
     <row r="59">
@@ -2494,31 +2494,31 @@
         <v>1393.208333333333</v>
       </c>
       <c r="C59" t="n">
-        <v>1427.238682730842</v>
+        <v>1414.533145484313</v>
       </c>
       <c r="D59" t="n">
         <v>952.9681916666667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9872245577873748</v>
+        <v>0.9833014956559061</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9610363811052145</v>
+        <v>0.9716312811215647</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9718529661791592</v>
+        <v>0.9699502898569047</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3357545830281747</v>
+        <v>0.3817218058629429</v>
       </c>
       <c r="I59" t="n">
-        <v>12.62531212660008</v>
+        <v>200.0077201234711</v>
       </c>
       <c r="J59" t="n">
-        <v>166.158859410221</v>
+        <v>188.9179960500872</v>
       </c>
       <c r="K59" t="n">
-        <v>0.04373092736357179</v>
+        <v>0.05048142228237486</v>
       </c>
     </row>
     <row r="60">
@@ -2529,31 +2529,31 @@
         <v>1388.291666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>1460.582433212435</v>
+        <v>1447.54676015062</v>
       </c>
       <c r="D60" t="n">
         <v>957.9590374999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.987423671906873</v>
+        <v>0.9834998185298301</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9248739972292764</v>
+        <v>0.935070226759211</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9606850754306843</v>
+        <v>0.95878239910843</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3010565025675059</v>
+        <v>0.3419814941718938</v>
       </c>
       <c r="I60" t="n">
-        <v>13.65681131098574</v>
+        <v>216.1921798016549</v>
       </c>
       <c r="J60" t="n">
-        <v>153.2984883338948</v>
+        <v>174.1835435307954</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03904010036843639</v>
+        <v>0.04470724190117074</v>
       </c>
     </row>
     <row r="61">
@@ -2564,31 +2564,31 @@
         <v>1375.583333333333</v>
       </c>
       <c r="C61" t="n">
-        <v>1460.756515363784</v>
+        <v>1447.719331062791</v>
       </c>
       <c r="D61" t="n">
         <v>959.7282041666667</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9915677104480719</v>
+        <v>0.9876273893681704</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9123242455796486</v>
+        <v>0.9223821209675633</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9606473761219917</v>
+        <v>0.9587446997997372</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3008873465808304</v>
+        <v>0.3417882519943188</v>
       </c>
       <c r="I61" t="n">
-        <v>13.66225296606581</v>
+        <v>216.2764216379656</v>
       </c>
       <c r="J61" t="n">
-        <v>150.3437576098494</v>
+        <v>170.7976898614041</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03918300544360862</v>
+        <v>0.04486840999598562</v>
       </c>
     </row>
     <row r="62">
@@ -2599,31 +2599,31 @@
         <v>1445</v>
       </c>
       <c r="C62" t="n">
-        <v>1474.920834752798</v>
+        <v>1461.728708971385</v>
       </c>
       <c r="D62" t="n">
         <v>955.4352791666666</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9880406560837317</v>
+        <v>0.9841143509167281</v>
       </c>
       <c r="F62" t="n">
-        <v>0.943123825894043</v>
+        <v>0.9535212497947841</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9512091381950829</v>
+        <v>0.9493064618728285</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2875031543715308</v>
+        <v>0.3265550472567733</v>
       </c>
       <c r="I62" t="n">
-        <v>14.1070085646101</v>
+        <v>223.102455829748</v>
       </c>
       <c r="J62" t="n">
-        <v>144.3772621509706</v>
+        <v>163.9985316961058</v>
       </c>
       <c r="K62" t="n">
-        <v>0.03644540426498561</v>
+        <v>0.04160186704635953</v>
       </c>
     </row>
     <row r="63">
@@ -2634,31 +2634,31 @@
         <v>1485.833333333333</v>
       </c>
       <c r="C63" t="n">
-        <v>1458.487942253691</v>
+        <v>1445.457328938935</v>
       </c>
       <c r="D63" t="n">
         <v>949.4324958333333</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9863984460149889</v>
+        <v>0.9824786667109023</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9875465010729499</v>
+        <v>0.9984336606499182</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9561321692935795</v>
+        <v>0.9542294929713252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3031008873022483</v>
+        <v>0.3443323840693779</v>
       </c>
       <c r="I63" t="n">
-        <v>13.59138571573534</v>
+        <v>215.171906645592</v>
       </c>
       <c r="J63" t="n">
-        <v>148.5882841153182</v>
+        <v>168.7972682488364</v>
       </c>
       <c r="K63" t="n">
-        <v>0.03793196399122618</v>
+        <v>0.04345295733125907</v>
       </c>
     </row>
     <row r="64">
@@ -2669,31 +2669,31 @@
         <v>1486</v>
       </c>
       <c r="C64" t="n">
-        <v>1485.892109881281</v>
+        <v>1472.544759887982</v>
       </c>
       <c r="D64" t="n">
         <v>954.6754208333333</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9840537520894482</v>
+        <v>0.9801432901993953</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9485808113484623</v>
+        <v>0.959038395526605</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9332733751967215</v>
+        <v>0.9313706988744671</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2776266448582951</v>
+        <v>0.3153774159504824</v>
       </c>
       <c r="I64" t="n">
-        <v>14.4542290626928</v>
+        <v>228.355122787681</v>
       </c>
       <c r="J64" t="n">
-        <v>140.0068800016323</v>
+        <v>159.0453006317724</v>
       </c>
       <c r="K64" t="n">
-        <v>0.03471780166461502</v>
+        <v>0.03954658314577932</v>
       </c>
     </row>
     <row r="65">
@@ -2704,31 +2704,31 @@
         <v>1412.375</v>
       </c>
       <c r="C65" t="n">
-        <v>1483.422769648034</v>
+        <v>1470.12996924515</v>
       </c>
       <c r="D65" t="n">
         <v>959.6005541666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9835804227802351</v>
+        <v>0.9796718418201834</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9132081870204737</v>
+        <v>0.9232758073788908</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9434360902323248</v>
+        <v>0.9415334139100704</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2798138417198817</v>
+        <v>0.3178308460086563</v>
       </c>
       <c r="I65" t="n">
-        <v>14.37587005064868</v>
+        <v>227.1837416628461</v>
       </c>
       <c r="J65" t="n">
-        <v>138.9983032464715</v>
+        <v>157.8877274143219</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03590073779586046</v>
+        <v>0.04091288476040123</v>
       </c>
     </row>
     <row r="66">
@@ -2739,31 +2739,31 @@
         <v>1371.5</v>
       </c>
       <c r="C66" t="n">
-        <v>1463.007714671603</v>
+        <v>1449.904925555937</v>
       </c>
       <c r="D66" t="n">
         <v>961.0152708333334</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9814263700329371</v>
+        <v>0.9775263489113696</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9033405487893961</v>
+        <v>0.9132993838380047</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9456918797916485</v>
+        <v>0.9437892034693941</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2987102874446617</v>
+        <v>0.3393529338140498</v>
       </c>
       <c r="I66" t="n">
-        <v>13.73267681452672</v>
+        <v>217.3430076493257</v>
       </c>
       <c r="J66" t="n">
-        <v>145.4131819534494</v>
+        <v>165.1926850567532</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0389570189422356</v>
+        <v>0.04459491904647518</v>
       </c>
     </row>
     <row r="67">
@@ -2774,31 +2774,31 @@
         <v>1397.875</v>
       </c>
       <c r="C67" t="n">
-        <v>1485.912215001076</v>
+        <v>1472.600616518228</v>
       </c>
       <c r="D67" t="n">
         <v>961.1181958333333</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9843774569587677</v>
+        <v>0.9804657087207359</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9026391307332827</v>
+        <v>0.9125902330317893</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9444193793062284</v>
+        <v>0.9425167029839741</v>
       </c>
       <c r="H67" t="n">
-        <v>0.277608920365889</v>
+        <v>0.3153209456249411</v>
       </c>
       <c r="I67" t="n">
-        <v>14.45486755381453</v>
+        <v>228.3822089796309</v>
       </c>
       <c r="J67" t="n">
-        <v>139.06494190491</v>
+        <v>157.9624078180535</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03583309299225926</v>
+        <v>0.04081693392428603</v>
       </c>
     </row>
     <row r="68">
@@ -2809,31 +2809,31 @@
         <v>1403.166666666667</v>
       </c>
       <c r="C68" t="n">
-        <v>1481.738537177382</v>
+        <v>1468.484576501014</v>
       </c>
       <c r="D68" t="n">
         <v>958.7958291666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9800853345124488</v>
+        <v>0.9761906424374754</v>
       </c>
       <c r="F68" t="n">
-        <v>0.918931036077855</v>
+        <v>0.9290617477143587</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9509784142696752</v>
+        <v>0.9490757379474209</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2813173915328162</v>
+        <v>0.3195162375719491</v>
       </c>
       <c r="I68" t="n">
-        <v>14.32249446798896</v>
+        <v>226.3851459413948</v>
       </c>
       <c r="J68" t="n">
-        <v>139.2018823692824</v>
+        <v>158.107921021308</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03623826328553246</v>
+        <v>0.04131092608904901</v>
       </c>
     </row>
     <row r="69">
@@ -2844,31 +2844,31 @@
         <v>1395.041666666667</v>
       </c>
       <c r="C69" t="n">
-        <v>1480.680994678719</v>
+        <v>1467.440616864915</v>
       </c>
       <c r="D69" t="n">
         <v>954.8863875000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9476025811088681</v>
+        <v>0.9438369699596052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9469509089919695</v>
+        <v>0.9573905243888644</v>
       </c>
       <c r="G69" t="n">
-        <v>0.952360798348716</v>
+        <v>0.9504581220264615</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2822664026719539</v>
+        <v>0.3205913798259547</v>
       </c>
       <c r="I69" t="n">
-        <v>14.28900840642185</v>
+        <v>225.8782733431835</v>
       </c>
       <c r="J69" t="n">
-        <v>139.4024239396169</v>
+        <v>158.3318955760186</v>
       </c>
       <c r="K69" t="n">
-        <v>0.03646593235446373</v>
+        <v>0.04157923933629219</v>
       </c>
     </row>
     <row r="70">
@@ -2879,31 +2879,31 @@
         <v>1425.625</v>
       </c>
       <c r="C70" t="n">
-        <v>1498.210981395874</v>
+        <v>1484.810851717692</v>
       </c>
       <c r="D70" t="n">
         <v>954.9862583333334</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9567256280386004</v>
+        <v>0.9529237634557582</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9462128186958313</v>
+        <v>0.9566442970512524</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9513257104380685</v>
+        <v>0.949423034115814</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2670121594237166</v>
+        <v>0.3032718168845871</v>
       </c>
       <c r="I70" t="n">
-        <v>14.84696771817686</v>
+        <v>234.2933355597069</v>
       </c>
       <c r="J70" t="n">
-        <v>133.8544322413887</v>
+        <v>152.0315007413299</v>
       </c>
       <c r="K70" t="n">
-        <v>0.03413216748913899</v>
+        <v>0.03877893955326341</v>
       </c>
     </row>
     <row r="71">
@@ -2914,31 +2914,31 @@
         <v>1431.916666666667</v>
       </c>
       <c r="C71" t="n">
-        <v>1505.897796257719</v>
+        <v>1492.414778769216</v>
       </c>
       <c r="D71" t="n">
         <v>955.2788958333334</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9537504702569312</v>
+        <v>0.9499604284440316</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9441048176577983</v>
+        <v>0.9545130564557257</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9468897446671516</v>
+        <v>0.9449870683448972</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2606292243557762</v>
+        <v>0.2960539002480533</v>
       </c>
       <c r="I71" t="n">
-        <v>15.09358447771519</v>
+        <v>237.9644622571309</v>
       </c>
       <c r="J71" t="n">
-        <v>130.290210974656</v>
+        <v>147.9949248940854</v>
       </c>
       <c r="K71" t="n">
-        <v>0.03327497875559536</v>
+        <v>0.0377511137315584</v>
       </c>
     </row>
     <row r="72">
@@ -2949,31 +2949,31 @@
         <v>1458.666666666667</v>
       </c>
       <c r="C72" t="n">
-        <v>1503.500599965068</v>
+        <v>1490.035081246265</v>
       </c>
       <c r="D72" t="n">
         <v>953.5561208333334</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9589414947436922</v>
+        <v>0.9551308246842333</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9566844045740761</v>
+        <v>0.9672313264315061</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9456221656249731</v>
+        <v>0.9437194893027189</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2626006110757732</v>
+        <v>0.2982900138096482</v>
       </c>
       <c r="I72" t="n">
-        <v>15.01654625039454</v>
+        <v>236.8163918332282</v>
       </c>
       <c r="J72" t="n">
-        <v>130.0371745451669</v>
+        <v>147.7090411859489</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0331806218810633</v>
+        <v>0.03765924243803031</v>
       </c>
     </row>
     <row r="73">
@@ -2984,31 +2984,31 @@
         <v>1392.833333333333</v>
       </c>
       <c r="C73" t="n">
-        <v>1531.130439008997</v>
+        <v>1517.422912763922</v>
       </c>
       <c r="D73" t="n">
         <v>955.7990333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9166904029070539</v>
+        <v>0.9130476314853365</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9403385820964472</v>
+        <v>0.9507053002090028</v>
       </c>
       <c r="G73" t="n">
-        <v>0.947325391363579</v>
+        <v>0.9454227150413246</v>
       </c>
       <c r="H73" t="n">
-        <v>0.240873134411386</v>
+        <v>0.273734636036658</v>
       </c>
       <c r="I73" t="n">
-        <v>15.9116351441377</v>
+        <v>249.9832216432741</v>
       </c>
       <c r="J73" t="n">
-        <v>121.9038628624957</v>
+        <v>138.5167530459403</v>
       </c>
       <c r="K73" t="n">
-        <v>0.03137597493427961</v>
+        <v>0.03543841820735389</v>
       </c>
     </row>
     <row r="74">
@@ -3019,31 +3019,31 @@
         <v>1354.416666666667</v>
       </c>
       <c r="C74" t="n">
-        <v>1550.84138850163</v>
+        <v>1536.951863242006</v>
       </c>
       <c r="D74" t="n">
         <v>960.3093083333333</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9093164406459885</v>
+        <v>0.9057029720934886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.908265399656022</v>
+        <v>0.9182785284895001</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9455906822014546</v>
+        <v>0.9436880058792002</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2266036695317407</v>
+        <v>0.2576793978367655</v>
       </c>
       <c r="I74" t="n">
-        <v>16.5598995914882</v>
+        <v>259.3093162933336</v>
       </c>
       <c r="J74" t="n">
-        <v>114.8509792674294</v>
+        <v>130.5718610570728</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03009868878400102</v>
+        <v>0.03388500633096127</v>
       </c>
     </row>
     <row r="75">
@@ -3054,31 +3054,31 @@
         <v>1359.333333333333</v>
       </c>
       <c r="C75" t="n">
-        <v>1545.995839083631</v>
+        <v>1532.149743461068</v>
       </c>
       <c r="D75" t="n">
         <v>961.8522166666667</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9264600893080385</v>
+        <v>0.9227784948176952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8975334361911549</v>
+        <v>0.9074282510022661</v>
       </c>
       <c r="G75" t="n">
-        <v>0.945747467643801</v>
+        <v>0.9438447913215465</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2300233570893907</v>
+        <v>0.2615235486787043</v>
       </c>
       <c r="I75" t="n">
-        <v>16.39977646463954</v>
+        <v>257.0209227730519</v>
       </c>
       <c r="J75" t="n">
-        <v>114.2613023418835</v>
+        <v>129.9036651819162</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03043048305766815</v>
+        <v>0.03428409493526411</v>
       </c>
     </row>
     <row r="76">
@@ -3089,31 +3089,31 @@
         <v>1409.041666666667</v>
       </c>
       <c r="C76" t="n">
-        <v>1558.500249538278</v>
+        <v>1544.578081527568</v>
       </c>
       <c r="D76" t="n">
         <v>958.5895833333334</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9397560598059762</v>
+        <v>0.9360216293950209</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9204071063292559</v>
+        <v>0.930554090832259</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9566824255927072</v>
+        <v>0.9547797492704527</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2213104480060849</v>
+        <v>0.25170703252118</v>
       </c>
       <c r="I76" t="n">
-        <v>16.81400918168307</v>
+        <v>262.9369433738256</v>
       </c>
       <c r="J76" t="n">
-        <v>110.6808935648122</v>
+        <v>125.868801237206</v>
       </c>
       <c r="K76" t="n">
-        <v>0.02886900885977634</v>
+        <v>0.03245504928860274</v>
       </c>
     </row>
     <row r="77">
@@ -3124,31 +3124,31 @@
         <v>1394.708333333333</v>
       </c>
       <c r="C77" t="n">
-        <v>1492.973365030612</v>
+        <v>1479.657379658576</v>
       </c>
       <c r="D77" t="n">
         <v>955.6144458333333</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9558810298489305</v>
+        <v>0.9520825215553418</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9416583813934026</v>
+        <v>0.9520396495707298</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9635537377303082</v>
+        <v>0.9616510614080539</v>
       </c>
       <c r="H77" t="n">
-        <v>0.271465758289134</v>
+        <v>0.3082866030205854</v>
       </c>
       <c r="I77" t="n">
-        <v>14.67961394719948</v>
+        <v>231.8008863084801</v>
       </c>
       <c r="J77" t="n">
-        <v>128.1441336509505</v>
+        <v>145.5697307036373</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0350764502674456</v>
+        <v>0.03988914301699326</v>
       </c>
     </row>
     <row r="78">
@@ -3159,31 +3159,31 @@
         <v>1414.166666666667</v>
       </c>
       <c r="C78" t="n">
-        <v>1528.844287495786</v>
+        <v>1515.178017292281</v>
       </c>
       <c r="D78" t="n">
         <v>960.1406874999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9701771925486798</v>
+        <v>0.9663218737411405</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9094485128533364</v>
+        <v>0.9194746848621613</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9538326411574977</v>
+        <v>0.9519299648352434</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2425915636165824</v>
+        <v>0.2756542005977451</v>
       </c>
       <c r="I78" t="n">
-        <v>15.83697467996553</v>
+        <v>248.9078117979975</v>
       </c>
       <c r="J78" t="n">
-        <v>121.3654669140921</v>
+        <v>137.9012849661177</v>
       </c>
       <c r="K78" t="n">
-        <v>0.03130173992999913</v>
+        <v>0.03536311470507963</v>
       </c>
     </row>
     <row r="79">
@@ -3194,31 +3194,31 @@
         <v>1426.25</v>
       </c>
       <c r="C79" t="n">
-        <v>1537.119147052428</v>
+        <v>1523.373794409407</v>
       </c>
       <c r="D79" t="n">
         <v>960.7073541666667</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9757391007822044</v>
+        <v>0.9718616798993089</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9054887072328707</v>
+        <v>0.9154712245523854</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9522707358815063</v>
+        <v>0.950368059559252</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2364355579613811</v>
+        <v>0.2687217922260148</v>
       </c>
       <c r="I79" t="n">
-        <v>16.10773036869685</v>
+        <v>252.83063349861</v>
       </c>
       <c r="J79" t="n">
-        <v>118.1529018159386</v>
+        <v>134.2769031344332</v>
       </c>
       <c r="K79" t="n">
-        <v>0.03042225118819962</v>
+        <v>0.03431984809926516</v>
       </c>
     </row>
     <row r="80">
@@ -3229,31 +3229,31 @@
         <v>1410.583333333333</v>
       </c>
       <c r="C80" t="n">
-        <v>1450.624321896892</v>
+        <v>1437.66352756428</v>
       </c>
       <c r="D80" t="n">
         <v>954.2177916666666</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9778885319251813</v>
+        <v>0.9740025695692696</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9522518120921353</v>
+        <v>0.9627498670439176</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9564120676114812</v>
+        <v>0.954509391289227</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3109304913177204</v>
+        <v>0.3532875621886893</v>
       </c>
       <c r="I80" t="n">
-        <v>13.34651136208772</v>
+        <v>211.3612981902517</v>
       </c>
       <c r="J80" t="n">
-        <v>144.5058703628236</v>
+        <v>164.197796899085</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04026599696732374</v>
+        <v>0.04623646760260081</v>
       </c>
     </row>
     <row r="81">
@@ -3264,31 +3264,31 @@
         <v>1299.125</v>
       </c>
       <c r="C81" t="n">
-        <v>1344.956146215275</v>
+        <v>1332.926820618551</v>
       </c>
       <c r="D81" t="n">
         <v>955.8916666666668</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9782420846557408</v>
+        <v>0.9743547173415369</v>
       </c>
       <c r="F81" t="n">
-        <v>0.940583151443227</v>
+        <v>0.9509525657989503</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9517948402861974</v>
+        <v>0.949892163963943</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4467442960206522</v>
+        <v>0.5111507141046006</v>
       </c>
       <c r="I81" t="n">
-        <v>10.16858290185113</v>
+        <v>159.4661135991944</v>
       </c>
       <c r="J81" t="n">
-        <v>199.8591756849242</v>
+        <v>228.3835216048609</v>
       </c>
       <c r="K81" t="n">
-        <v>0.06348628604676791</v>
+        <v>0.07533780892869735</v>
       </c>
     </row>
     <row r="82">
@@ -3299,31 +3299,31 @@
         <v>1284.173913043478</v>
       </c>
       <c r="C82" t="n">
-        <v>1420.022906600554</v>
+        <v>1407.254328260856</v>
       </c>
       <c r="D82" t="n">
         <v>967.832225</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9801629389516729</v>
+        <v>0.9762679384898848</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8572002012889733</v>
+        <v>0.8666503642642892</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9290611656845001</v>
+        <v>0.9271584893622458</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3439178607837193</v>
+        <v>0.3912947987509279</v>
       </c>
       <c r="I82" t="n">
-        <v>12.40488180495576</v>
+        <v>196.4214706090269</v>
       </c>
       <c r="J82" t="n">
-        <v>175.4712783960235</v>
+        <v>199.856948894974</v>
       </c>
       <c r="K82" t="n">
-        <v>0.04684811330285681</v>
+        <v>0.0542243584017959</v>
       </c>
     </row>
     <row r="83">
@@ -3334,31 +3334,31 @@
         <v>1324.375</v>
       </c>
       <c r="C83" t="n">
-        <v>1421.415046222491</v>
+        <v>1408.674919916593</v>
       </c>
       <c r="D83" t="n">
         <v>962.2584791666667</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9814223261291563</v>
+        <v>0.977522321077373</v>
       </c>
       <c r="F83" t="n">
-        <v>0.894807098197978</v>
+        <v>0.9046718566251516</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9424984541042516</v>
+        <v>0.9405957777819972</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3423232702954851</v>
+        <v>0.3894013937522755</v>
       </c>
       <c r="I83" t="n">
-        <v>12.447333019021</v>
+        <v>197.1218861180121</v>
       </c>
       <c r="J83" t="n">
-        <v>171.3642539797432</v>
+        <v>195.0203817803171</v>
       </c>
       <c r="K83" t="n">
-        <v>0.04586135677610085</v>
+        <v>0.05304838722949676</v>
       </c>
     </row>
     <row r="84">
@@ -3369,31 +3369,31 @@
         <v>1331.625</v>
       </c>
       <c r="C84" t="n">
-        <v>1361.422790183018</v>
+        <v>1349.268215762292</v>
       </c>
       <c r="D84" t="n">
         <v>953.9443</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9841941333206998</v>
+        <v>0.9802831135795603</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9543198426408709</v>
+        <v>0.964840696497383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9594108390095539</v>
+        <v>0.9575081626872995</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4209389446496165</v>
+        <v>0.4807496083973564</v>
       </c>
       <c r="I84" t="n">
-        <v>10.65043012952279</v>
+        <v>167.6391612625445</v>
       </c>
       <c r="J84" t="n">
-        <v>198.6515984978055</v>
+        <v>226.7056331004698</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0582840191577103</v>
+        <v>0.06871491005222813</v>
       </c>
     </row>
     <row r="85">
@@ -3404,31 +3404,31 @@
         <v>1388.125</v>
       </c>
       <c r="C85" t="n">
-        <v>1350.440942828556</v>
+        <v>1338.337995596572</v>
       </c>
       <c r="D85" t="n">
         <v>950.3462500000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9884186648038235</v>
+        <v>0.9844908574945933</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9809131271627108</v>
+        <v>0.9917271574235244</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9428764620264939</v>
+        <v>0.9409737857042395</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4379104282659038</v>
+        <v>0.5007835610315862</v>
       </c>
       <c r="I85" t="n">
-        <v>10.32854701564505</v>
+        <v>162.1751613578228</v>
       </c>
       <c r="J85" t="n">
-        <v>210.7241164783806</v>
+        <v>240.840091753564</v>
       </c>
       <c r="K85" t="n">
-        <v>0.05963289977758712</v>
+        <v>0.0705814705647613</v>
       </c>
     </row>
     <row r="86">
@@ -3439,31 +3439,31 @@
         <v>1369.958333333333</v>
       </c>
       <c r="C86" t="n">
-        <v>1398.642244347825</v>
+        <v>1386.080146010749</v>
       </c>
       <c r="D86" t="n">
         <v>958.26805</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9912869479855687</v>
+        <v>0.9873477426078404</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9226674621989949</v>
+        <v>0.9328393658881101</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9337156935731814</v>
+        <v>0.931813017250927</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3696638683926729</v>
+        <v>0.4210562326160445</v>
       </c>
       <c r="I86" t="n">
-        <v>11.7574589854689</v>
+        <v>185.9538808383394</v>
       </c>
       <c r="J86" t="n">
-        <v>189.3397660502039</v>
+        <v>215.858792605975</v>
       </c>
       <c r="K86" t="n">
-        <v>0.04909287195275634</v>
+        <v>0.05715794717476631</v>
       </c>
     </row>
     <row r="87">
@@ -3474,31 +3474,31 @@
         <v>1336.208333333333</v>
       </c>
       <c r="C87" t="n">
-        <v>1413.734606326062</v>
+        <v>1401.04978858909</v>
       </c>
       <c r="D87" t="n">
         <v>962.5824875</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9933129437798045</v>
+        <v>0.9893656874400979</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8925120116584998</v>
+        <v>0.9023514680129395</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9379181774946653</v>
+        <v>0.9360155011724109</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3512411309157076</v>
+        <v>0.3997113484160246</v>
       </c>
       <c r="I87" t="n">
-        <v>12.21358277347413</v>
+        <v>193.3595720363701</v>
       </c>
       <c r="J87" t="n">
-        <v>178.3594789883645</v>
+        <v>203.0961603493924</v>
       </c>
       <c r="K87" t="n">
-        <v>0.04696879327597583</v>
+        <v>0.05444683965731708</v>
       </c>
     </row>
     <row r="88">
@@ -3509,31 +3509,31 @@
         <v>1339.666666666667</v>
       </c>
       <c r="C88" t="n">
-        <v>1396.36684773171</v>
+        <v>1383.860228949665</v>
       </c>
       <c r="D88" t="n">
         <v>959.8000041666668</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9947148304238532</v>
+        <v>0.9907620032255587</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9118851799441904</v>
+        <v>0.9219382148738249</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9454356317327216</v>
+        <v>0.9435329554104673</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3725505731965276</v>
+        <v>0.4243536677290205</v>
       </c>
       <c r="I88" t="n">
-        <v>11.68905721572985</v>
+        <v>184.8535052629049</v>
       </c>
       <c r="J88" t="n">
-        <v>183.0791024825719</v>
+        <v>208.5322026835503</v>
       </c>
       <c r="K88" t="n">
-        <v>0.05010566567901716</v>
+        <v>0.05837229735629487</v>
       </c>
     </row>
     <row r="89">
@@ -3544,31 +3544,31 @@
         <v>1392.333333333333</v>
       </c>
       <c r="C89" t="n">
-        <v>1400.317815316441</v>
+        <v>1387.778165572213</v>
       </c>
       <c r="D89" t="n">
         <v>952.6476333333334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9766526379029966</v>
+        <v>0.972771586779285</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9635573696323473</v>
+        <v>0.9741800621671834</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9462173049157895</v>
+        <v>0.9443146285935352</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3675569830982486</v>
+        <v>0.4185577833188718</v>
       </c>
       <c r="I89" t="n">
-        <v>11.80789011246816</v>
+        <v>186.7951904936945</v>
       </c>
       <c r="J89" t="n">
-        <v>181.8626251014048</v>
+        <v>207.1096913695193</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04840922393360591</v>
+        <v>0.0563260126839195</v>
       </c>
     </row>
     <row r="90">
@@ -3579,31 +3579,31 @@
         <v>1365.458333333333</v>
       </c>
       <c r="C90" t="n">
-        <v>1407.512450180305</v>
+        <v>1394.905172268805</v>
       </c>
       <c r="D90" t="n">
         <v>953.0522208333333</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9546152879655057</v>
+        <v>0.9508218095144305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9605098435732328</v>
+        <v>0.9710989388015273</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9451786234251093</v>
+        <v>0.943275947102855</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3586875446037489</v>
+        <v>0.4082899977329208</v>
       </c>
       <c r="I90" t="n">
-        <v>12.02502337859416</v>
+        <v>190.3228354868041</v>
       </c>
       <c r="J90" t="n">
-        <v>178.4401485282522</v>
+        <v>203.143185038371</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04751172534678887</v>
+        <v>0.05516304758326411</v>
       </c>
     </row>
     <row r="91">
@@ -3614,31 +3614,31 @@
         <v>1341.916666666667</v>
       </c>
       <c r="C91" t="n">
-        <v>1445.36313352146</v>
+        <v>1432.387283416602</v>
       </c>
       <c r="D91" t="n">
         <v>956.4694416666666</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9285561794344767</v>
+        <v>0.9248662554392256</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9354821010113749</v>
+        <v>0.9457952790784763</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9355858349794893</v>
+        <v>0.9336831586572351</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3163090265852115</v>
+        <v>0.3595221374535424</v>
       </c>
       <c r="I91" t="n">
-        <v>13.18334545485493</v>
+        <v>208.7772600439908</v>
       </c>
       <c r="J91" t="n">
-        <v>162.1725220992257</v>
+        <v>184.4158407833725</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04182750502672434</v>
+        <v>0.04808746524798355</v>
       </c>
     </row>
     <row r="92">
@@ -3649,31 +3649,31 @@
         <v>1305</v>
       </c>
       <c r="C92" t="n">
-        <v>1421.098868572777</v>
+        <v>1408.35494898163</v>
       </c>
       <c r="D92" t="n">
         <v>957.0566</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9271400428437715</v>
+        <v>0.9234557463339677</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9312484180898759</v>
+        <v>0.9415149221203476</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9402095724948583</v>
+        <v>0.9383068961726039</v>
       </c>
       <c r="H92" t="n">
-        <v>0.342684592473568</v>
+        <v>0.389826784485038</v>
       </c>
       <c r="I92" t="n">
-        <v>12.43768845480469</v>
+        <v>196.9641469020458</v>
       </c>
       <c r="J92" t="n">
-        <v>168.0664530901136</v>
+        <v>191.1784314814672</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04626463633927189</v>
+        <v>0.05352279287885344</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -517,7 +517,7 @@
         <v>0.4768961515609137</v>
       </c>
       <c r="I2" t="n">
-        <v>168.7264021283164</v>
+        <v>500</v>
       </c>
       <c r="J2" t="n">
         <v>235.5866988710914</v>
@@ -552,7 +552,7 @@
         <v>0.4907090233955974</v>
       </c>
       <c r="I3" t="n">
-        <v>164.8840869204511</v>
+        <v>500</v>
       </c>
       <c r="J3" t="n">
         <v>241.1100588728776</v>
@@ -587,7 +587,7 @@
         <v>0.4356852260653008</v>
       </c>
       <c r="I4" t="n">
-        <v>181.1564395191053</v>
+        <v>500</v>
       </c>
       <c r="J4" t="n">
         <v>221.2401482386922</v>
@@ -622,7 +622,7 @@
         <v>0.4294243174066552</v>
       </c>
       <c r="I5" t="n">
-        <v>183.1831900129317</v>
+        <v>500</v>
       </c>
       <c r="J5" t="n">
         <v>215.0565715170844</v>
@@ -657,7 +657,7 @@
         <v>0.4105070183952378</v>
       </c>
       <c r="I6" t="n">
-        <v>189.5514392293723</v>
+        <v>500</v>
       </c>
       <c r="J6" t="n">
         <v>206.2598606437968</v>
@@ -692,7 +692,7 @@
         <v>0.4325882074700618</v>
       </c>
       <c r="I7" t="n">
-        <v>182.1541284408339</v>
+        <v>500</v>
       </c>
       <c r="J7" t="n">
         <v>212.138457547282</v>
@@ -727,7 +727,7 @@
         <v>0.4078742690939023</v>
       </c>
       <c r="I8" t="n">
-        <v>190.4680903598439</v>
+        <v>500</v>
       </c>
       <c r="J8" t="n">
         <v>204.093976021311</v>
@@ -762,7 +762,7 @@
         <v>0.4023122986670622</v>
       </c>
       <c r="I9" t="n">
-        <v>192.4300501635906</v>
+        <v>500</v>
       </c>
       <c r="J9" t="n">
         <v>200.4154474160272</v>
@@ -797,7 +797,7 @@
         <v>0.376035111343873</v>
       </c>
       <c r="I10" t="n">
-        <v>202.1923186090028</v>
+        <v>500</v>
       </c>
       <c r="J10" t="n">
         <v>189.7594153972337</v>
@@ -832,7 +832,7 @@
         <v>0.3777768181144189</v>
       </c>
       <c r="I11" t="n">
-        <v>201.5188360990147</v>
+        <v>500</v>
       </c>
       <c r="J11" t="n">
         <v>187.8682004633052</v>
@@ -867,7 +867,7 @@
         <v>0.3329170171784661</v>
       </c>
       <c r="I12" t="n">
-        <v>220.2064367787337</v>
+        <v>500</v>
       </c>
       <c r="J12" t="n">
         <v>170.6954212171697</v>
@@ -902,7 +902,7 @@
         <v>0.3120140651479551</v>
       </c>
       <c r="I13" t="n">
-        <v>229.9782502665621</v>
+        <v>500</v>
       </c>
       <c r="J13" t="n">
         <v>159.1198267708231</v>
@@ -937,7 +937,7 @@
         <v>0.2902929820390653</v>
       </c>
       <c r="I14" t="n">
-        <v>240.9678105069951</v>
+        <v>500</v>
       </c>
       <c r="J14" t="n">
         <v>148.0353084622459</v>
@@ -972,7 +972,7 @@
         <v>0.2802601456097492</v>
       </c>
       <c r="I15" t="n">
-        <v>246.3604047627803</v>
+        <v>500</v>
       </c>
       <c r="J15" t="n">
         <v>141.4438071086929</v>
@@ -1007,7 +1007,7 @@
         <v>0.2778206258124313</v>
       </c>
       <c r="I16" t="n">
-        <v>247.7038697099382</v>
+        <v>500</v>
       </c>
       <c r="J16" t="n">
         <v>138.6594031359971</v>
@@ -1042,7 +1042,7 @@
         <v>0.263864912930071</v>
       </c>
       <c r="I17" t="n">
-        <v>255.6445606424546</v>
+        <v>500</v>
       </c>
       <c r="J17" t="n">
         <v>132.6670959223383</v>
@@ -1077,7 +1077,7 @@
         <v>0.2492252498794999</v>
       </c>
       <c r="I18" t="n">
-        <v>264.4709177009635</v>
+        <v>500</v>
       </c>
       <c r="J18" t="n">
         <v>125.8549257307175</v>
@@ -1112,7 +1112,7 @@
         <v>0.2413439865064645</v>
       </c>
       <c r="I19" t="n">
-        <v>269.4490777340253</v>
+        <v>500</v>
       </c>
       <c r="J19" t="n">
         <v>121.2458294438275</v>
@@ -1147,7 +1147,7 @@
         <v>0.2451939872486993</v>
       </c>
       <c r="I20" t="n">
-        <v>266.9966763771167</v>
+        <v>500</v>
       </c>
       <c r="J20" t="n">
         <v>121.3739275383585</v>
@@ -1182,7 +1182,7 @@
         <v>0.2349415803644948</v>
       </c>
       <c r="I21" t="n">
-        <v>273.6169358162812</v>
+        <v>500</v>
       </c>
       <c r="J21" t="n">
         <v>117.4724881892059</v>
@@ -1217,7 +1217,7 @@
         <v>0.3169665383736176</v>
       </c>
       <c r="I22" t="n">
-        <v>227.5951978655235</v>
+        <v>500</v>
       </c>
       <c r="J22" t="n">
         <v>146.539322195179</v>
@@ -1252,7 +1252,7 @@
         <v>0.3781259304022481</v>
       </c>
       <c r="I23" t="n">
-        <v>201.3843104815942</v>
+        <v>500</v>
       </c>
       <c r="J23" t="n">
         <v>175.225160880978</v>
@@ -1287,7 +1287,7 @@
         <v>0.3531553111386488</v>
       </c>
       <c r="I24" t="n">
-        <v>211.4167156090074</v>
+        <v>500</v>
       </c>
       <c r="J24" t="n">
         <v>173.417870629293</v>
@@ -1322,7 +1322,7 @@
         <v>0.3197228536001017</v>
       </c>
       <c r="I25" t="n">
-        <v>226.2875827941639</v>
+        <v>500</v>
       </c>
       <c r="J25" t="n">
         <v>161.8648710599797</v>
@@ -1357,7 +1357,7 @@
         <v>0.3036755765496637</v>
       </c>
       <c r="I26" t="n">
-        <v>234.0909193137592</v>
+        <v>500</v>
       </c>
       <c r="J26" t="n">
         <v>153.5246897182572</v>
@@ -1392,7 +1392,7 @@
         <v>0.2929974331720085</v>
       </c>
       <c r="I27" t="n">
-        <v>239.5496381608998</v>
+        <v>500</v>
       </c>
       <c r="J27" t="n">
         <v>147.4064986521406</v>
@@ -1427,7 +1427,7 @@
         <v>0.3870498820743378</v>
       </c>
       <c r="I28" t="n">
-        <v>197.9978202976895</v>
+        <v>500</v>
       </c>
       <c r="J28" t="n">
         <v>180.0733356757863</v>
@@ -1462,7 +1462,7 @@
         <v>0.3918101098068956</v>
       </c>
       <c r="I29" t="n">
-        <v>196.2315919251416</v>
+        <v>500</v>
       </c>
       <c r="J29" t="n">
         <v>188.84703487601</v>
@@ -1497,7 +1497,7 @@
         <v>0.344449805185451</v>
       </c>
       <c r="I30" t="n">
-        <v>215.1211670688933</v>
+        <v>500</v>
       </c>
       <c r="J30" t="n">
         <v>174.5245454428329</v>
@@ -1532,7 +1532,7 @@
         <v>0.3474612933649757</v>
       </c>
       <c r="I31" t="n">
-        <v>213.826956678078</v>
+        <v>500</v>
       </c>
       <c r="J31" t="n">
         <v>172.8644136539463</v>
@@ -1567,7 +1567,7 @@
         <v>0.327834476144631</v>
       </c>
       <c r="I32" t="n">
-        <v>222.5147127921117</v>
+        <v>500</v>
       </c>
       <c r="J32" t="n">
         <v>164.9256109844224</v>
@@ -1602,7 +1602,7 @@
         <v>0.3087924015987075</v>
       </c>
       <c r="I33" t="n">
-        <v>231.5520789906208</v>
+        <v>500</v>
       </c>
       <c r="J33" t="n">
         <v>156.0898431463894</v>
@@ -1637,7 +1637,7 @@
         <v>0.28079239251543</v>
       </c>
       <c r="I34" t="n">
-        <v>246.0689981580159</v>
+        <v>500</v>
       </c>
       <c r="J34" t="n">
         <v>143.6213080526459</v>
@@ -1672,7 +1672,7 @@
         <v>0.2731209003803149</v>
       </c>
       <c r="I35" t="n">
-        <v>250.3287900886153</v>
+        <v>500</v>
       </c>
       <c r="J35" t="n">
         <v>137.7157280872388</v>
@@ -1707,7 +1707,7 @@
         <v>0.2658531243709848</v>
       </c>
       <c r="I36" t="n">
-        <v>254.4859927803348</v>
+        <v>500</v>
       </c>
       <c r="J36" t="n">
         <v>133.2950826935725</v>
@@ -1742,7 +1742,7 @@
         <v>0.2585666345583624</v>
       </c>
       <c r="I37" t="n">
-        <v>258.7779593189402</v>
+        <v>500</v>
       </c>
       <c r="J37" t="n">
         <v>129.3924924134965</v>
@@ -1777,7 +1777,7 @@
         <v>0.2600397844859729</v>
       </c>
       <c r="I38" t="n">
-        <v>257.8999479086287</v>
+        <v>500</v>
       </c>
       <c r="J38" t="n">
         <v>128.8808653673879</v>
@@ -1812,7 +1812,7 @@
         <v>0.2544595542212646</v>
       </c>
       <c r="I39" t="n">
-        <v>261.2539664647774</v>
+        <v>500</v>
       </c>
       <c r="J39" t="n">
         <v>126.5764731554106</v>
@@ -1847,7 +1847,7 @@
         <v>0.2499336485751482</v>
       </c>
       <c r="I40" t="n">
-        <v>264.031446992245</v>
+        <v>500</v>
       </c>
       <c r="J40" t="n">
         <v>124.3712936077679</v>
@@ -1882,7 +1882,7 @@
         <v>0.2345045001740313</v>
       </c>
       <c r="I41" t="n">
-        <v>273.9056405856079</v>
+        <v>500</v>
       </c>
       <c r="J41" t="n">
         <v>118.1644355701344</v>
@@ -1917,7 +1917,7 @@
         <v>0.2364121160680182</v>
       </c>
       <c r="I42" t="n">
-        <v>272.6495586592409</v>
+        <v>500</v>
       </c>
       <c r="J42" t="n">
         <v>117.3951554960653</v>
@@ -1952,7 +1952,7 @@
         <v>0.2307081262322634</v>
       </c>
       <c r="I43" t="n">
-        <v>276.4362034878583</v>
+        <v>500</v>
       </c>
       <c r="J43" t="n">
         <v>114.9277601367352</v>
@@ -1987,7 +1987,7 @@
         <v>0.3927675762381846</v>
       </c>
       <c r="I44" t="n">
-        <v>195.8796347688499</v>
+        <v>500</v>
       </c>
       <c r="J44" t="n">
         <v>173.51317225249</v>
@@ -2022,7 +2022,7 @@
         <v>0.41340858704039</v>
       </c>
       <c r="I45" t="n">
-        <v>188.5500006289247</v>
+        <v>500</v>
       </c>
       <c r="J45" t="n">
         <v>194.0194680807457</v>
@@ -2057,7 +2057,7 @@
         <v>0.4328056796145132</v>
       </c>
       <c r="I46" t="n">
-        <v>182.0837616868882</v>
+        <v>500</v>
       </c>
       <c r="J46" t="n">
         <v>207.5544993036212</v>
@@ -2092,7 +2092,7 @@
         <v>0.4293560179920805</v>
       </c>
       <c r="I47" t="n">
-        <v>183.2055151280846</v>
+        <v>500</v>
       </c>
       <c r="J47" t="n">
         <v>210.2462430540921</v>
@@ -2127,7 +2127,7 @@
         <v>0.3986609565188758</v>
       </c>
       <c r="I48" t="n">
-        <v>193.7371668146798</v>
+        <v>500</v>
       </c>
       <c r="J48" t="n">
         <v>200.2080931754933</v>
@@ -2162,7 +2162,7 @@
         <v>0.379327386564998</v>
       </c>
       <c r="I49" t="n">
-        <v>200.9225364510735</v>
+        <v>500</v>
       </c>
       <c r="J49" t="n">
         <v>191.079888486066</v>
@@ -2197,7 +2197,7 @@
         <v>0.3914169891562055</v>
       </c>
       <c r="I50" t="n">
-        <v>196.376417810848</v>
+        <v>500</v>
       </c>
       <c r="J50" t="n">
         <v>193.1616315393534</v>
@@ -2232,7 +2232,7 @@
         <v>0.3953603486928283</v>
       </c>
       <c r="I51" t="n">
-        <v>194.9320275577935</v>
+        <v>500</v>
       </c>
       <c r="J51" t="n">
         <v>194.7273009663018</v>
@@ -2267,7 +2267,7 @@
         <v>0.4163367303888826</v>
       </c>
       <c r="I52" t="n">
-        <v>187.5486320093951</v>
+        <v>500</v>
       </c>
       <c r="J52" t="n">
         <v>202.7558402163629</v>
@@ -2302,7 +2302,7 @@
         <v>0.5513435833091318</v>
       </c>
       <c r="I53" t="n">
-        <v>149.6585022670475</v>
+        <v>500</v>
       </c>
       <c r="J53" t="n">
         <v>253.9083578704211</v>
@@ -2337,7 +2337,7 @@
         <v>0.4620739720653525</v>
       </c>
       <c r="I54" t="n">
-        <v>173.0235281136856</v>
+        <v>500</v>
       </c>
       <c r="J54" t="n">
         <v>232.9693493020123</v>
@@ -2372,7 +2372,7 @@
         <v>0.4311930633969822</v>
       </c>
       <c r="I55" t="n">
-        <v>182.6066690038116</v>
+        <v>500</v>
       </c>
       <c r="J55" t="n">
         <v>218.7163331238376</v>
@@ -2407,7 +2407,7 @@
         <v>0.3907199248605503</v>
       </c>
       <c r="I56" t="n">
-        <v>196.6336730851353</v>
+        <v>500</v>
       </c>
       <c r="J56" t="n">
         <v>200.326348520764</v>
@@ -2442,7 +2442,7 @@
         <v>0.4031163811998669</v>
       </c>
       <c r="I57" t="n">
-        <v>192.144254198101</v>
+        <v>500</v>
       </c>
       <c r="J57" t="n">
         <v>200.2328101173035</v>
@@ -2477,7 +2477,7 @@
         <v>0.3717213108698151</v>
       </c>
       <c r="I58" t="n">
-        <v>203.8773375749506</v>
+        <v>500</v>
       </c>
       <c r="J58" t="n">
         <v>188.0748970376515</v>
@@ -2512,7 +2512,7 @@
         <v>0.3817218058629429</v>
       </c>
       <c r="I59" t="n">
-        <v>200.0077201234711</v>
+        <v>500</v>
       </c>
       <c r="J59" t="n">
         <v>188.9179960500872</v>
@@ -2547,7 +2547,7 @@
         <v>0.3419814941718938</v>
       </c>
       <c r="I60" t="n">
-        <v>216.1921798016549</v>
+        <v>500</v>
       </c>
       <c r="J60" t="n">
         <v>174.1835435307954</v>
@@ -2582,7 +2582,7 @@
         <v>0.3417882519943188</v>
       </c>
       <c r="I61" t="n">
-        <v>216.2764216379656</v>
+        <v>500</v>
       </c>
       <c r="J61" t="n">
         <v>170.7976898614041</v>
@@ -2617,7 +2617,7 @@
         <v>0.3265550472567733</v>
       </c>
       <c r="I62" t="n">
-        <v>223.102455829748</v>
+        <v>500</v>
       </c>
       <c r="J62" t="n">
         <v>163.9985316961058</v>
@@ -2652,7 +2652,7 @@
         <v>0.3443323840693779</v>
       </c>
       <c r="I63" t="n">
-        <v>215.171906645592</v>
+        <v>500</v>
       </c>
       <c r="J63" t="n">
         <v>168.7972682488364</v>
@@ -2687,7 +2687,7 @@
         <v>0.3153774159504824</v>
       </c>
       <c r="I64" t="n">
-        <v>228.355122787681</v>
+        <v>500</v>
       </c>
       <c r="J64" t="n">
         <v>159.0453006317724</v>
@@ -2722,7 +2722,7 @@
         <v>0.3178308460086563</v>
       </c>
       <c r="I65" t="n">
-        <v>227.1837416628461</v>
+        <v>500</v>
       </c>
       <c r="J65" t="n">
         <v>157.8877274143219</v>
@@ -2757,7 +2757,7 @@
         <v>0.3393529338140498</v>
       </c>
       <c r="I66" t="n">
-        <v>217.3430076493257</v>
+        <v>500</v>
       </c>
       <c r="J66" t="n">
         <v>165.1926850567532</v>
@@ -2792,7 +2792,7 @@
         <v>0.3153209456249411</v>
       </c>
       <c r="I67" t="n">
-        <v>228.3822089796309</v>
+        <v>500</v>
       </c>
       <c r="J67" t="n">
         <v>157.9624078180535</v>
@@ -2827,7 +2827,7 @@
         <v>0.3195162375719491</v>
       </c>
       <c r="I68" t="n">
-        <v>226.3851459413948</v>
+        <v>500</v>
       </c>
       <c r="J68" t="n">
         <v>158.107921021308</v>
@@ -2862,7 +2862,7 @@
         <v>0.3205913798259547</v>
       </c>
       <c r="I69" t="n">
-        <v>225.8782733431835</v>
+        <v>500</v>
       </c>
       <c r="J69" t="n">
         <v>158.3318955760186</v>
@@ -2897,7 +2897,7 @@
         <v>0.3032718168845871</v>
       </c>
       <c r="I70" t="n">
-        <v>234.2933355597069</v>
+        <v>500</v>
       </c>
       <c r="J70" t="n">
         <v>152.0315007413299</v>
@@ -2932,7 +2932,7 @@
         <v>0.2960539002480533</v>
       </c>
       <c r="I71" t="n">
-        <v>237.9644622571309</v>
+        <v>500</v>
       </c>
       <c r="J71" t="n">
         <v>147.9949248940854</v>
@@ -2967,7 +2967,7 @@
         <v>0.2982900138096482</v>
       </c>
       <c r="I72" t="n">
-        <v>236.8163918332282</v>
+        <v>500</v>
       </c>
       <c r="J72" t="n">
         <v>147.7090411859489</v>
@@ -3002,7 +3002,7 @@
         <v>0.273734636036658</v>
       </c>
       <c r="I73" t="n">
-        <v>249.9832216432741</v>
+        <v>500</v>
       </c>
       <c r="J73" t="n">
         <v>138.5167530459403</v>
@@ -3037,7 +3037,7 @@
         <v>0.2576793978367655</v>
       </c>
       <c r="I74" t="n">
-        <v>259.3093162933336</v>
+        <v>500</v>
       </c>
       <c r="J74" t="n">
         <v>130.5718610570728</v>
@@ -3072,7 +3072,7 @@
         <v>0.2615235486787043</v>
       </c>
       <c r="I75" t="n">
-        <v>257.0209227730519</v>
+        <v>500</v>
       </c>
       <c r="J75" t="n">
         <v>129.9036651819162</v>
@@ -3107,7 +3107,7 @@
         <v>0.25170703252118</v>
       </c>
       <c r="I76" t="n">
-        <v>262.9369433738256</v>
+        <v>500</v>
       </c>
       <c r="J76" t="n">
         <v>125.868801237206</v>
@@ -3142,7 +3142,7 @@
         <v>0.3082866030205854</v>
       </c>
       <c r="I77" t="n">
-        <v>231.8008863084801</v>
+        <v>500</v>
       </c>
       <c r="J77" t="n">
         <v>145.5697307036373</v>
@@ -3177,7 +3177,7 @@
         <v>0.2756542005977451</v>
       </c>
       <c r="I78" t="n">
-        <v>248.9078117979975</v>
+        <v>500</v>
       </c>
       <c r="J78" t="n">
         <v>137.9012849661177</v>
@@ -3212,7 +3212,7 @@
         <v>0.2687217922260148</v>
       </c>
       <c r="I79" t="n">
-        <v>252.83063349861</v>
+        <v>500</v>
       </c>
       <c r="J79" t="n">
         <v>134.2769031344332</v>
@@ -3247,7 +3247,7 @@
         <v>0.3532875621886893</v>
       </c>
       <c r="I80" t="n">
-        <v>211.3612981902517</v>
+        <v>500</v>
       </c>
       <c r="J80" t="n">
         <v>164.197796899085</v>
@@ -3282,7 +3282,7 @@
         <v>0.5111507141046006</v>
       </c>
       <c r="I81" t="n">
-        <v>159.4661135991944</v>
+        <v>500</v>
       </c>
       <c r="J81" t="n">
         <v>228.3835216048609</v>
@@ -3317,7 +3317,7 @@
         <v>0.3912947987509279</v>
       </c>
       <c r="I82" t="n">
-        <v>196.4214706090269</v>
+        <v>500</v>
       </c>
       <c r="J82" t="n">
         <v>199.856948894974</v>
@@ -3352,7 +3352,7 @@
         <v>0.3894013937522755</v>
       </c>
       <c r="I83" t="n">
-        <v>197.1218861180121</v>
+        <v>500</v>
       </c>
       <c r="J83" t="n">
         <v>195.0203817803171</v>
@@ -3387,7 +3387,7 @@
         <v>0.4807496083973564</v>
       </c>
       <c r="I84" t="n">
-        <v>167.6391612625445</v>
+        <v>500</v>
       </c>
       <c r="J84" t="n">
         <v>226.7056331004698</v>
@@ -3422,7 +3422,7 @@
         <v>0.5007835610315862</v>
       </c>
       <c r="I85" t="n">
-        <v>162.1751613578228</v>
+        <v>500</v>
       </c>
       <c r="J85" t="n">
         <v>240.840091753564</v>
@@ -3457,7 +3457,7 @@
         <v>0.4210562326160445</v>
       </c>
       <c r="I86" t="n">
-        <v>185.9538808383394</v>
+        <v>500</v>
       </c>
       <c r="J86" t="n">
         <v>215.858792605975</v>
@@ -3492,7 +3492,7 @@
         <v>0.3997113484160246</v>
       </c>
       <c r="I87" t="n">
-        <v>193.3595720363701</v>
+        <v>500</v>
       </c>
       <c r="J87" t="n">
         <v>203.0961603493924</v>
@@ -3527,7 +3527,7 @@
         <v>0.4243536677290205</v>
       </c>
       <c r="I88" t="n">
-        <v>184.8535052629049</v>
+        <v>500</v>
       </c>
       <c r="J88" t="n">
         <v>208.5322026835503</v>
@@ -3562,7 +3562,7 @@
         <v>0.4185577833188718</v>
       </c>
       <c r="I89" t="n">
-        <v>186.7951904936945</v>
+        <v>500</v>
       </c>
       <c r="J89" t="n">
         <v>207.1096913695193</v>
@@ -3597,7 +3597,7 @@
         <v>0.4082899977329208</v>
       </c>
       <c r="I90" t="n">
-        <v>190.3228354868041</v>
+        <v>500</v>
       </c>
       <c r="J90" t="n">
         <v>203.143185038371</v>
@@ -3632,7 +3632,7 @@
         <v>0.3595221374535424</v>
       </c>
       <c r="I91" t="n">
-        <v>208.7772600439908</v>
+        <v>500</v>
       </c>
       <c r="J91" t="n">
         <v>184.4158407833725</v>
@@ -3667,7 +3667,7 @@
         <v>0.389826784485038</v>
       </c>
       <c r="I92" t="n">
-        <v>196.9641469020458</v>
+        <v>500</v>
       </c>
       <c r="J92" t="n">
         <v>191.1784314814672</v>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -517,7 +517,7 @@
         <v>0.4768961515609137</v>
       </c>
       <c r="I2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J2" t="n">
         <v>235.5866988710914</v>
@@ -552,7 +552,7 @@
         <v>0.4907090233955974</v>
       </c>
       <c r="I3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J3" t="n">
         <v>241.1100588728776</v>
@@ -587,7 +587,7 @@
         <v>0.4356852260653008</v>
       </c>
       <c r="I4" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J4" t="n">
         <v>221.2401482386922</v>
@@ -622,7 +622,7 @@
         <v>0.4294243174066552</v>
       </c>
       <c r="I5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J5" t="n">
         <v>215.0565715170844</v>
@@ -657,7 +657,7 @@
         <v>0.4105070183952378</v>
       </c>
       <c r="I6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J6" t="n">
         <v>206.2598606437968</v>
@@ -692,7 +692,7 @@
         <v>0.4325882074700618</v>
       </c>
       <c r="I7" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J7" t="n">
         <v>212.138457547282</v>
@@ -727,7 +727,7 @@
         <v>0.4078742690939023</v>
       </c>
       <c r="I8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J8" t="n">
         <v>204.093976021311</v>
@@ -762,7 +762,7 @@
         <v>0.4023122986670622</v>
       </c>
       <c r="I9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J9" t="n">
         <v>200.4154474160272</v>
@@ -797,7 +797,7 @@
         <v>0.376035111343873</v>
       </c>
       <c r="I10" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J10" t="n">
         <v>189.7594153972337</v>
@@ -832,7 +832,7 @@
         <v>0.3777768181144189</v>
       </c>
       <c r="I11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J11" t="n">
         <v>187.8682004633052</v>
@@ -867,7 +867,7 @@
         <v>0.3329170171784661</v>
       </c>
       <c r="I12" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J12" t="n">
         <v>170.6954212171697</v>
@@ -902,7 +902,7 @@
         <v>0.3120140651479551</v>
       </c>
       <c r="I13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J13" t="n">
         <v>159.1198267708231</v>
@@ -937,7 +937,7 @@
         <v>0.2902929820390653</v>
       </c>
       <c r="I14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J14" t="n">
         <v>148.0353084622459</v>
@@ -972,7 +972,7 @@
         <v>0.2802601456097492</v>
       </c>
       <c r="I15" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J15" t="n">
         <v>141.4438071086929</v>
@@ -1007,7 +1007,7 @@
         <v>0.2778206258124313</v>
       </c>
       <c r="I16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J16" t="n">
         <v>138.6594031359971</v>
@@ -1042,7 +1042,7 @@
         <v>0.263864912930071</v>
       </c>
       <c r="I17" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J17" t="n">
         <v>132.6670959223383</v>
@@ -1077,7 +1077,7 @@
         <v>0.2492252498794999</v>
       </c>
       <c r="I18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J18" t="n">
         <v>125.8549257307175</v>
@@ -1112,7 +1112,7 @@
         <v>0.2413439865064645</v>
       </c>
       <c r="I19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J19" t="n">
         <v>121.2458294438275</v>
@@ -1147,7 +1147,7 @@
         <v>0.2451939872486993</v>
       </c>
       <c r="I20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J20" t="n">
         <v>121.3739275383585</v>
@@ -1182,7 +1182,7 @@
         <v>0.2349415803644948</v>
       </c>
       <c r="I21" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J21" t="n">
         <v>117.4724881892059</v>
@@ -1217,7 +1217,7 @@
         <v>0.3169665383736176</v>
       </c>
       <c r="I22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J22" t="n">
         <v>146.539322195179</v>
@@ -1252,7 +1252,7 @@
         <v>0.3781259304022481</v>
       </c>
       <c r="I23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J23" t="n">
         <v>175.225160880978</v>
@@ -1287,7 +1287,7 @@
         <v>0.3531553111386488</v>
       </c>
       <c r="I24" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J24" t="n">
         <v>173.417870629293</v>
@@ -1322,7 +1322,7 @@
         <v>0.3197228536001017</v>
       </c>
       <c r="I25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J25" t="n">
         <v>161.8648710599797</v>
@@ -1357,7 +1357,7 @@
         <v>0.3036755765496637</v>
       </c>
       <c r="I26" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J26" t="n">
         <v>153.5246897182572</v>
@@ -1392,7 +1392,7 @@
         <v>0.2929974331720085</v>
       </c>
       <c r="I27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J27" t="n">
         <v>147.4064986521406</v>
@@ -1427,7 +1427,7 @@
         <v>0.3870498820743378</v>
       </c>
       <c r="I28" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J28" t="n">
         <v>180.0733356757863</v>
@@ -1462,7 +1462,7 @@
         <v>0.3918101098068956</v>
       </c>
       <c r="I29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J29" t="n">
         <v>188.84703487601</v>
@@ -1497,7 +1497,7 @@
         <v>0.344449805185451</v>
       </c>
       <c r="I30" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J30" t="n">
         <v>174.5245454428329</v>
@@ -1532,7 +1532,7 @@
         <v>0.3474612933649757</v>
       </c>
       <c r="I31" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J31" t="n">
         <v>172.8644136539463</v>
@@ -1567,7 +1567,7 @@
         <v>0.327834476144631</v>
       </c>
       <c r="I32" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J32" t="n">
         <v>164.9256109844224</v>
@@ -1602,7 +1602,7 @@
         <v>0.3087924015987075</v>
       </c>
       <c r="I33" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J33" t="n">
         <v>156.0898431463894</v>
@@ -1637,7 +1637,7 @@
         <v>0.28079239251543</v>
       </c>
       <c r="I34" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J34" t="n">
         <v>143.6213080526459</v>
@@ -1672,7 +1672,7 @@
         <v>0.2731209003803149</v>
       </c>
       <c r="I35" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J35" t="n">
         <v>137.7157280872388</v>
@@ -1707,7 +1707,7 @@
         <v>0.2658531243709848</v>
       </c>
       <c r="I36" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J36" t="n">
         <v>133.2950826935725</v>
@@ -1742,7 +1742,7 @@
         <v>0.2585666345583624</v>
       </c>
       <c r="I37" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J37" t="n">
         <v>129.3924924134965</v>
@@ -1777,7 +1777,7 @@
         <v>0.2600397844859729</v>
       </c>
       <c r="I38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J38" t="n">
         <v>128.8808653673879</v>
@@ -1812,7 +1812,7 @@
         <v>0.2544595542212646</v>
       </c>
       <c r="I39" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J39" t="n">
         <v>126.5764731554106</v>
@@ -1847,7 +1847,7 @@
         <v>0.2499336485751482</v>
       </c>
       <c r="I40" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J40" t="n">
         <v>124.3712936077679</v>
@@ -1882,7 +1882,7 @@
         <v>0.2345045001740313</v>
       </c>
       <c r="I41" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J41" t="n">
         <v>118.1644355701344</v>
@@ -1917,7 +1917,7 @@
         <v>0.2364121160680182</v>
       </c>
       <c r="I42" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J42" t="n">
         <v>117.3951554960653</v>
@@ -1952,7 +1952,7 @@
         <v>0.2307081262322634</v>
       </c>
       <c r="I43" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J43" t="n">
         <v>114.9277601367352</v>
@@ -1987,7 +1987,7 @@
         <v>0.3927675762381846</v>
       </c>
       <c r="I44" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J44" t="n">
         <v>173.51317225249</v>
@@ -2022,7 +2022,7 @@
         <v>0.41340858704039</v>
       </c>
       <c r="I45" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J45" t="n">
         <v>194.0194680807457</v>
@@ -2057,7 +2057,7 @@
         <v>0.4328056796145132</v>
       </c>
       <c r="I46" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J46" t="n">
         <v>207.5544993036212</v>
@@ -2092,7 +2092,7 @@
         <v>0.4293560179920805</v>
       </c>
       <c r="I47" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J47" t="n">
         <v>210.2462430540921</v>
@@ -2127,7 +2127,7 @@
         <v>0.3986609565188758</v>
       </c>
       <c r="I48" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" t="n">
         <v>200.2080931754933</v>
@@ -2162,7 +2162,7 @@
         <v>0.379327386564998</v>
       </c>
       <c r="I49" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" t="n">
         <v>191.079888486066</v>
@@ -2197,7 +2197,7 @@
         <v>0.3914169891562055</v>
       </c>
       <c r="I50" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J50" t="n">
         <v>193.1616315393534</v>
@@ -2232,7 +2232,7 @@
         <v>0.3953603486928283</v>
       </c>
       <c r="I51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J51" t="n">
         <v>194.7273009663018</v>
@@ -2267,7 +2267,7 @@
         <v>0.4163367303888826</v>
       </c>
       <c r="I52" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J52" t="n">
         <v>202.7558402163629</v>
@@ -2302,7 +2302,7 @@
         <v>0.5513435833091318</v>
       </c>
       <c r="I53" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J53" t="n">
         <v>253.9083578704211</v>
@@ -2337,7 +2337,7 @@
         <v>0.4620739720653525</v>
       </c>
       <c r="I54" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J54" t="n">
         <v>232.9693493020123</v>
@@ -2372,7 +2372,7 @@
         <v>0.4311930633969822</v>
       </c>
       <c r="I55" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J55" t="n">
         <v>218.7163331238376</v>
@@ -2407,7 +2407,7 @@
         <v>0.3907199248605503</v>
       </c>
       <c r="I56" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J56" t="n">
         <v>200.326348520764</v>
@@ -2442,7 +2442,7 @@
         <v>0.4031163811998669</v>
       </c>
       <c r="I57" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J57" t="n">
         <v>200.2328101173035</v>
@@ -2477,7 +2477,7 @@
         <v>0.3717213108698151</v>
       </c>
       <c r="I58" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J58" t="n">
         <v>188.0748970376515</v>
@@ -2512,7 +2512,7 @@
         <v>0.3817218058629429</v>
       </c>
       <c r="I59" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J59" t="n">
         <v>188.9179960500872</v>
@@ -2547,7 +2547,7 @@
         <v>0.3419814941718938</v>
       </c>
       <c r="I60" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J60" t="n">
         <v>174.1835435307954</v>
@@ -2582,7 +2582,7 @@
         <v>0.3417882519943188</v>
       </c>
       <c r="I61" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J61" t="n">
         <v>170.7976898614041</v>
@@ -2617,7 +2617,7 @@
         <v>0.3265550472567733</v>
       </c>
       <c r="I62" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J62" t="n">
         <v>163.9985316961058</v>
@@ -2652,7 +2652,7 @@
         <v>0.3443323840693779</v>
       </c>
       <c r="I63" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J63" t="n">
         <v>168.7972682488364</v>
@@ -2687,7 +2687,7 @@
         <v>0.3153774159504824</v>
       </c>
       <c r="I64" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J64" t="n">
         <v>159.0453006317724</v>
@@ -2722,7 +2722,7 @@
         <v>0.3178308460086563</v>
       </c>
       <c r="I65" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J65" t="n">
         <v>157.8877274143219</v>
@@ -2757,7 +2757,7 @@
         <v>0.3393529338140498</v>
       </c>
       <c r="I66" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" t="n">
         <v>165.1926850567532</v>
@@ -2792,7 +2792,7 @@
         <v>0.3153209456249411</v>
       </c>
       <c r="I67" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J67" t="n">
         <v>157.9624078180535</v>
@@ -2827,7 +2827,7 @@
         <v>0.3195162375719491</v>
       </c>
       <c r="I68" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J68" t="n">
         <v>158.107921021308</v>
@@ -2862,7 +2862,7 @@
         <v>0.3205913798259547</v>
       </c>
       <c r="I69" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J69" t="n">
         <v>158.3318955760186</v>
@@ -2897,7 +2897,7 @@
         <v>0.3032718168845871</v>
       </c>
       <c r="I70" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J70" t="n">
         <v>152.0315007413299</v>
@@ -2932,7 +2932,7 @@
         <v>0.2960539002480533</v>
       </c>
       <c r="I71" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J71" t="n">
         <v>147.9949248940854</v>
@@ -2967,7 +2967,7 @@
         <v>0.2982900138096482</v>
       </c>
       <c r="I72" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J72" t="n">
         <v>147.7090411859489</v>
@@ -3002,7 +3002,7 @@
         <v>0.273734636036658</v>
       </c>
       <c r="I73" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J73" t="n">
         <v>138.5167530459403</v>
@@ -3037,7 +3037,7 @@
         <v>0.2576793978367655</v>
       </c>
       <c r="I74" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J74" t="n">
         <v>130.5718610570728</v>
@@ -3072,7 +3072,7 @@
         <v>0.2615235486787043</v>
       </c>
       <c r="I75" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J75" t="n">
         <v>129.9036651819162</v>
@@ -3107,7 +3107,7 @@
         <v>0.25170703252118</v>
       </c>
       <c r="I76" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J76" t="n">
         <v>125.868801237206</v>
@@ -3142,7 +3142,7 @@
         <v>0.3082866030205854</v>
       </c>
       <c r="I77" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J77" t="n">
         <v>145.5697307036373</v>
@@ -3177,7 +3177,7 @@
         <v>0.2756542005977451</v>
       </c>
       <c r="I78" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J78" t="n">
         <v>137.9012849661177</v>
@@ -3212,7 +3212,7 @@
         <v>0.2687217922260148</v>
       </c>
       <c r="I79" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J79" t="n">
         <v>134.2769031344332</v>
@@ -3247,7 +3247,7 @@
         <v>0.3532875621886893</v>
       </c>
       <c r="I80" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J80" t="n">
         <v>164.197796899085</v>
@@ -3282,7 +3282,7 @@
         <v>0.5111507141046006</v>
       </c>
       <c r="I81" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J81" t="n">
         <v>228.3835216048609</v>
@@ -3317,7 +3317,7 @@
         <v>0.3912947987509279</v>
       </c>
       <c r="I82" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J82" t="n">
         <v>199.856948894974</v>
@@ -3352,7 +3352,7 @@
         <v>0.3894013937522755</v>
       </c>
       <c r="I83" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" t="n">
         <v>195.0203817803171</v>
@@ -3387,7 +3387,7 @@
         <v>0.4807496083973564</v>
       </c>
       <c r="I84" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J84" t="n">
         <v>226.7056331004698</v>
@@ -3422,7 +3422,7 @@
         <v>0.5007835610315862</v>
       </c>
       <c r="I85" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J85" t="n">
         <v>240.840091753564</v>
@@ -3457,7 +3457,7 @@
         <v>0.4210562326160445</v>
       </c>
       <c r="I86" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J86" t="n">
         <v>215.858792605975</v>
@@ -3492,7 +3492,7 @@
         <v>0.3997113484160246</v>
       </c>
       <c r="I87" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J87" t="n">
         <v>203.0961603493924</v>
@@ -3527,7 +3527,7 @@
         <v>0.4243536677290205</v>
       </c>
       <c r="I88" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J88" t="n">
         <v>208.5322026835503</v>
@@ -3562,7 +3562,7 @@
         <v>0.4185577833188718</v>
       </c>
       <c r="I89" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J89" t="n">
         <v>207.1096913695193</v>
@@ -3597,7 +3597,7 @@
         <v>0.4082899977329208</v>
       </c>
       <c r="I90" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J90" t="n">
         <v>203.143185038371</v>
@@ -3632,7 +3632,7 @@
         <v>0.3595221374535424</v>
       </c>
       <c r="I91" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J91" t="n">
         <v>184.4158407833725</v>
@@ -3667,7 +3667,7 @@
         <v>0.389826784485038</v>
       </c>
       <c r="I92" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J92" t="n">
         <v>191.1784314814672</v>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -517,7 +517,7 @@
         <v>0.4768961515609137</v>
       </c>
       <c r="I2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J2" t="n">
         <v>235.5866988710914</v>
@@ -552,7 +552,7 @@
         <v>0.4907090233955974</v>
       </c>
       <c r="I3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J3" t="n">
         <v>241.1100588728776</v>
@@ -587,7 +587,7 @@
         <v>0.4356852260653008</v>
       </c>
       <c r="I4" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J4" t="n">
         <v>221.2401482386922</v>
@@ -622,7 +622,7 @@
         <v>0.4294243174066552</v>
       </c>
       <c r="I5" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J5" t="n">
         <v>215.0565715170844</v>
@@ -657,7 +657,7 @@
         <v>0.4105070183952378</v>
       </c>
       <c r="I6" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J6" t="n">
         <v>206.2598606437968</v>
@@ -692,7 +692,7 @@
         <v>0.4325882074700618</v>
       </c>
       <c r="I7" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J7" t="n">
         <v>212.138457547282</v>
@@ -727,7 +727,7 @@
         <v>0.4078742690939023</v>
       </c>
       <c r="I8" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J8" t="n">
         <v>204.093976021311</v>
@@ -762,7 +762,7 @@
         <v>0.4023122986670622</v>
       </c>
       <c r="I9" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J9" t="n">
         <v>200.4154474160272</v>
@@ -797,7 +797,7 @@
         <v>0.376035111343873</v>
       </c>
       <c r="I10" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J10" t="n">
         <v>189.7594153972337</v>
@@ -832,7 +832,7 @@
         <v>0.3777768181144189</v>
       </c>
       <c r="I11" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J11" t="n">
         <v>187.8682004633052</v>
@@ -867,7 +867,7 @@
         <v>0.3329170171784661</v>
       </c>
       <c r="I12" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J12" t="n">
         <v>170.6954212171697</v>
@@ -902,7 +902,7 @@
         <v>0.3120140651479551</v>
       </c>
       <c r="I13" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J13" t="n">
         <v>159.1198267708231</v>
@@ -937,7 +937,7 @@
         <v>0.2902929820390653</v>
       </c>
       <c r="I14" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J14" t="n">
         <v>148.0353084622459</v>
@@ -972,7 +972,7 @@
         <v>0.2802601456097492</v>
       </c>
       <c r="I15" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J15" t="n">
         <v>141.4438071086929</v>
@@ -1007,7 +1007,7 @@
         <v>0.2778206258124313</v>
       </c>
       <c r="I16" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J16" t="n">
         <v>138.6594031359971</v>
@@ -1042,7 +1042,7 @@
         <v>0.263864912930071</v>
       </c>
       <c r="I17" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J17" t="n">
         <v>132.6670959223383</v>
@@ -1077,7 +1077,7 @@
         <v>0.2492252498794999</v>
       </c>
       <c r="I18" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J18" t="n">
         <v>125.8549257307175</v>
@@ -1112,7 +1112,7 @@
         <v>0.2413439865064645</v>
       </c>
       <c r="I19" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J19" t="n">
         <v>121.2458294438275</v>
@@ -1147,7 +1147,7 @@
         <v>0.2451939872486993</v>
       </c>
       <c r="I20" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J20" t="n">
         <v>121.3739275383585</v>
@@ -1182,7 +1182,7 @@
         <v>0.2349415803644948</v>
       </c>
       <c r="I21" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J21" t="n">
         <v>117.4724881892059</v>
@@ -1217,7 +1217,7 @@
         <v>0.3169665383736176</v>
       </c>
       <c r="I22" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J22" t="n">
         <v>146.539322195179</v>
@@ -1252,7 +1252,7 @@
         <v>0.3781259304022481</v>
       </c>
       <c r="I23" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J23" t="n">
         <v>175.225160880978</v>
@@ -1287,7 +1287,7 @@
         <v>0.3531553111386488</v>
       </c>
       <c r="I24" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J24" t="n">
         <v>173.417870629293</v>
@@ -1322,7 +1322,7 @@
         <v>0.3197228536001017</v>
       </c>
       <c r="I25" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J25" t="n">
         <v>161.8648710599797</v>
@@ -1357,7 +1357,7 @@
         <v>0.3036755765496637</v>
       </c>
       <c r="I26" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J26" t="n">
         <v>153.5246897182572</v>
@@ -1392,7 +1392,7 @@
         <v>0.2929974331720085</v>
       </c>
       <c r="I27" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J27" t="n">
         <v>147.4064986521406</v>
@@ -1427,7 +1427,7 @@
         <v>0.3870498820743378</v>
       </c>
       <c r="I28" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J28" t="n">
         <v>180.0733356757863</v>
@@ -1462,7 +1462,7 @@
         <v>0.3918101098068956</v>
       </c>
       <c r="I29" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J29" t="n">
         <v>188.84703487601</v>
@@ -1497,7 +1497,7 @@
         <v>0.344449805185451</v>
       </c>
       <c r="I30" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J30" t="n">
         <v>174.5245454428329</v>
@@ -1532,7 +1532,7 @@
         <v>0.3474612933649757</v>
       </c>
       <c r="I31" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J31" t="n">
         <v>172.8644136539463</v>
@@ -1567,7 +1567,7 @@
         <v>0.327834476144631</v>
       </c>
       <c r="I32" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J32" t="n">
         <v>164.9256109844224</v>
@@ -1602,7 +1602,7 @@
         <v>0.3087924015987075</v>
       </c>
       <c r="I33" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J33" t="n">
         <v>156.0898431463894</v>
@@ -1637,7 +1637,7 @@
         <v>0.28079239251543</v>
       </c>
       <c r="I34" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J34" t="n">
         <v>143.6213080526459</v>
@@ -1672,7 +1672,7 @@
         <v>0.2731209003803149</v>
       </c>
       <c r="I35" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J35" t="n">
         <v>137.7157280872388</v>
@@ -1707,7 +1707,7 @@
         <v>0.2658531243709848</v>
       </c>
       <c r="I36" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J36" t="n">
         <v>133.2950826935725</v>
@@ -1742,7 +1742,7 @@
         <v>0.2585666345583624</v>
       </c>
       <c r="I37" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J37" t="n">
         <v>129.3924924134965</v>
@@ -1777,7 +1777,7 @@
         <v>0.2600397844859729</v>
       </c>
       <c r="I38" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J38" t="n">
         <v>128.8808653673879</v>
@@ -1812,7 +1812,7 @@
         <v>0.2544595542212646</v>
       </c>
       <c r="I39" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J39" t="n">
         <v>126.5764731554106</v>
@@ -1847,7 +1847,7 @@
         <v>0.2499336485751482</v>
       </c>
       <c r="I40" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J40" t="n">
         <v>124.3712936077679</v>
@@ -1882,7 +1882,7 @@
         <v>0.2345045001740313</v>
       </c>
       <c r="I41" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J41" t="n">
         <v>118.1644355701344</v>
@@ -1917,7 +1917,7 @@
         <v>0.2364121160680182</v>
       </c>
       <c r="I42" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J42" t="n">
         <v>117.3951554960653</v>
@@ -1952,7 +1952,7 @@
         <v>0.2307081262322634</v>
       </c>
       <c r="I43" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J43" t="n">
         <v>114.9277601367352</v>
@@ -1987,7 +1987,7 @@
         <v>0.3927675762381846</v>
       </c>
       <c r="I44" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J44" t="n">
         <v>173.51317225249</v>
@@ -2022,7 +2022,7 @@
         <v>0.41340858704039</v>
       </c>
       <c r="I45" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J45" t="n">
         <v>194.0194680807457</v>
@@ -2057,7 +2057,7 @@
         <v>0.4328056796145132</v>
       </c>
       <c r="I46" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J46" t="n">
         <v>207.5544993036212</v>
@@ -2092,7 +2092,7 @@
         <v>0.4293560179920805</v>
       </c>
       <c r="I47" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J47" t="n">
         <v>210.2462430540921</v>
@@ -2127,7 +2127,7 @@
         <v>0.3986609565188758</v>
       </c>
       <c r="I48" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J48" t="n">
         <v>200.2080931754933</v>
@@ -2162,7 +2162,7 @@
         <v>0.379327386564998</v>
       </c>
       <c r="I49" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J49" t="n">
         <v>191.079888486066</v>
@@ -2197,7 +2197,7 @@
         <v>0.3914169891562055</v>
       </c>
       <c r="I50" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J50" t="n">
         <v>193.1616315393534</v>
@@ -2232,7 +2232,7 @@
         <v>0.3953603486928283</v>
       </c>
       <c r="I51" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J51" t="n">
         <v>194.7273009663018</v>
@@ -2267,7 +2267,7 @@
         <v>0.4163367303888826</v>
       </c>
       <c r="I52" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J52" t="n">
         <v>202.7558402163629</v>
@@ -2302,7 +2302,7 @@
         <v>0.5513435833091318</v>
       </c>
       <c r="I53" t="n">
-        <v>400</v>
+        <v>735.2145083291738</v>
       </c>
       <c r="J53" t="n">
         <v>253.9083578704211</v>
@@ -2337,7 +2337,7 @@
         <v>0.4620739720653525</v>
       </c>
       <c r="I54" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J54" t="n">
         <v>232.9693493020123</v>
@@ -2372,7 +2372,7 @@
         <v>0.4311930633969822</v>
       </c>
       <c r="I55" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J55" t="n">
         <v>218.7163331238376</v>
@@ -2407,7 +2407,7 @@
         <v>0.3907199248605503</v>
       </c>
       <c r="I56" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J56" t="n">
         <v>200.326348520764</v>
@@ -2442,7 +2442,7 @@
         <v>0.4031163811998669</v>
       </c>
       <c r="I57" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J57" t="n">
         <v>200.2328101173035</v>
@@ -2477,7 +2477,7 @@
         <v>0.3717213108698151</v>
       </c>
       <c r="I58" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J58" t="n">
         <v>188.0748970376515</v>
@@ -2512,7 +2512,7 @@
         <v>0.3817218058629429</v>
       </c>
       <c r="I59" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J59" t="n">
         <v>188.9179960500872</v>
@@ -2547,7 +2547,7 @@
         <v>0.3419814941718938</v>
       </c>
       <c r="I60" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J60" t="n">
         <v>174.1835435307954</v>
@@ -2582,7 +2582,7 @@
         <v>0.3417882519943188</v>
       </c>
       <c r="I61" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J61" t="n">
         <v>170.7976898614041</v>
@@ -2617,7 +2617,7 @@
         <v>0.3265550472567733</v>
       </c>
       <c r="I62" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J62" t="n">
         <v>163.9985316961058</v>
@@ -2652,7 +2652,7 @@
         <v>0.3443323840693779</v>
       </c>
       <c r="I63" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J63" t="n">
         <v>168.7972682488364</v>
@@ -2687,7 +2687,7 @@
         <v>0.3153774159504824</v>
       </c>
       <c r="I64" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J64" t="n">
         <v>159.0453006317724</v>
@@ -2722,7 +2722,7 @@
         <v>0.3178308460086563</v>
       </c>
       <c r="I65" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J65" t="n">
         <v>157.8877274143219</v>
@@ -2757,7 +2757,7 @@
         <v>0.3393529338140498</v>
       </c>
       <c r="I66" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J66" t="n">
         <v>165.1926850567532</v>
@@ -2792,7 +2792,7 @@
         <v>0.3153209456249411</v>
       </c>
       <c r="I67" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J67" t="n">
         <v>157.9624078180535</v>
@@ -2827,7 +2827,7 @@
         <v>0.3195162375719491</v>
       </c>
       <c r="I68" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J68" t="n">
         <v>158.107921021308</v>
@@ -2862,7 +2862,7 @@
         <v>0.3205913798259547</v>
       </c>
       <c r="I69" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J69" t="n">
         <v>158.3318955760186</v>
@@ -2897,7 +2897,7 @@
         <v>0.3032718168845871</v>
       </c>
       <c r="I70" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J70" t="n">
         <v>152.0315007413299</v>
@@ -2932,7 +2932,7 @@
         <v>0.2960539002480533</v>
       </c>
       <c r="I71" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J71" t="n">
         <v>147.9949248940854</v>
@@ -2967,7 +2967,7 @@
         <v>0.2982900138096482</v>
       </c>
       <c r="I72" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J72" t="n">
         <v>147.7090411859489</v>
@@ -3002,7 +3002,7 @@
         <v>0.273734636036658</v>
       </c>
       <c r="I73" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J73" t="n">
         <v>138.5167530459403</v>
@@ -3037,7 +3037,7 @@
         <v>0.2576793978367655</v>
       </c>
       <c r="I74" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J74" t="n">
         <v>130.5718610570728</v>
@@ -3072,7 +3072,7 @@
         <v>0.2615235486787043</v>
       </c>
       <c r="I75" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J75" t="n">
         <v>129.9036651819162</v>
@@ -3107,7 +3107,7 @@
         <v>0.25170703252118</v>
       </c>
       <c r="I76" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J76" t="n">
         <v>125.868801237206</v>
@@ -3142,7 +3142,7 @@
         <v>0.3082866030205854</v>
       </c>
       <c r="I77" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J77" t="n">
         <v>145.5697307036373</v>
@@ -3177,7 +3177,7 @@
         <v>0.2756542005977451</v>
       </c>
       <c r="I78" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J78" t="n">
         <v>137.9012849661177</v>
@@ -3212,7 +3212,7 @@
         <v>0.2687217922260148</v>
       </c>
       <c r="I79" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J79" t="n">
         <v>134.2769031344332</v>
@@ -3247,7 +3247,7 @@
         <v>0.3532875621886893</v>
       </c>
       <c r="I80" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J80" t="n">
         <v>164.197796899085</v>
@@ -3282,7 +3282,7 @@
         <v>0.5111507141046006</v>
       </c>
       <c r="I81" t="n">
-        <v>400</v>
+        <v>789.6315636186259</v>
       </c>
       <c r="J81" t="n">
         <v>228.3835216048609</v>
@@ -3317,7 +3317,7 @@
         <v>0.3912947987509279</v>
       </c>
       <c r="I82" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J82" t="n">
         <v>199.856948894974</v>
@@ -3352,7 +3352,7 @@
         <v>0.3894013937522755</v>
       </c>
       <c r="I83" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J83" t="n">
         <v>195.0203817803171</v>
@@ -3387,7 +3387,7 @@
         <v>0.4807496083973564</v>
       </c>
       <c r="I84" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J84" t="n">
         <v>226.7056331004698</v>
@@ -3422,7 +3422,7 @@
         <v>0.5007835610315862</v>
       </c>
       <c r="I85" t="n">
-        <v>400</v>
+        <v>798.5294941743178</v>
       </c>
       <c r="J85" t="n">
         <v>240.840091753564</v>
@@ -3457,7 +3457,7 @@
         <v>0.4210562326160445</v>
       </c>
       <c r="I86" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J86" t="n">
         <v>215.858792605975</v>
@@ -3492,7 +3492,7 @@
         <v>0.3997113484160246</v>
       </c>
       <c r="I87" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J87" t="n">
         <v>203.0961603493924</v>
@@ -3527,7 +3527,7 @@
         <v>0.4243536677290205</v>
       </c>
       <c r="I88" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J88" t="n">
         <v>208.5322026835503</v>
@@ -3562,7 +3562,7 @@
         <v>0.4185577833188718</v>
       </c>
       <c r="I89" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J89" t="n">
         <v>207.1096913695193</v>
@@ -3597,7 +3597,7 @@
         <v>0.4082899977329208</v>
       </c>
       <c r="I90" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J90" t="n">
         <v>203.143185038371</v>
@@ -3632,7 +3632,7 @@
         <v>0.3595221374535424</v>
       </c>
       <c r="I91" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J91" t="n">
         <v>184.4158407833725</v>
@@ -3667,7 +3667,7 @@
         <v>0.389826784485038</v>
       </c>
       <c r="I92" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J92" t="n">
         <v>191.1784314814672</v>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -517,7 +517,7 @@
         <v>0.4768961515609137</v>
       </c>
       <c r="I2" t="n">
-        <v>800</v>
+        <v>82.64908734862028</v>
       </c>
       <c r="J2" t="n">
         <v>235.5866988710914</v>
@@ -552,7 +552,7 @@
         <v>0.4907090233955974</v>
       </c>
       <c r="I3" t="n">
-        <v>800</v>
+        <v>80.74966477683617</v>
       </c>
       <c r="J3" t="n">
         <v>241.1100588728776</v>
@@ -587,7 +587,7 @@
         <v>0.4356852260653008</v>
       </c>
       <c r="I4" t="n">
-        <v>800</v>
+        <v>89.24522385154923</v>
       </c>
       <c r="J4" t="n">
         <v>221.2401482386922</v>
@@ -622,7 +622,7 @@
         <v>0.4294243174066552</v>
       </c>
       <c r="I5" t="n">
-        <v>800</v>
+        <v>90.42227141145275</v>
       </c>
       <c r="J5" t="n">
         <v>215.0565715170844</v>
@@ -657,7 +657,7 @@
         <v>0.4105070183952378</v>
       </c>
       <c r="I6" t="n">
-        <v>800</v>
+        <v>93.73375619569829</v>
       </c>
       <c r="J6" t="n">
         <v>206.2598606437968</v>
@@ -692,7 +692,7 @@
         <v>0.4325882074700618</v>
       </c>
       <c r="I7" t="n">
-        <v>800</v>
+        <v>89.82944838814083</v>
       </c>
       <c r="J7" t="n">
         <v>212.138457547282</v>
@@ -727,7 +727,7 @@
         <v>0.4078742690939023</v>
       </c>
       <c r="I8" t="n">
-        <v>800</v>
+        <v>94.05118301750124</v>
       </c>
       <c r="J8" t="n">
         <v>204.093976021311</v>
@@ -762,7 +762,7 @@
         <v>0.4023122986670622</v>
       </c>
       <c r="I9" t="n">
-        <v>800</v>
+        <v>94.90211928643795</v>
       </c>
       <c r="J9" t="n">
         <v>200.4154474160272</v>
@@ -797,7 +797,7 @@
         <v>0.376035111343873</v>
       </c>
       <c r="I10" t="n">
-        <v>800</v>
+        <v>100.080211925543</v>
       </c>
       <c r="J10" t="n">
         <v>189.7594153972337</v>
@@ -832,7 +832,7 @@
         <v>0.3777768181144189</v>
       </c>
       <c r="I11" t="n">
-        <v>800</v>
+        <v>99.67231747469037</v>
       </c>
       <c r="J11" t="n">
         <v>187.8682004633052</v>
@@ -867,7 +867,7 @@
         <v>0.3329170171784661</v>
       </c>
       <c r="I12" t="n">
-        <v>800</v>
+        <v>109.8696377725473</v>
       </c>
       <c r="J12" t="n">
         <v>170.6954212171697</v>
@@ -902,7 +902,7 @@
         <v>0.3120140651479551</v>
       </c>
       <c r="I13" t="n">
-        <v>800</v>
+        <v>115.5744907696093</v>
       </c>
       <c r="J13" t="n">
         <v>159.1198267708231</v>
@@ -937,7 +937,7 @@
         <v>0.2902929820390653</v>
       </c>
       <c r="I14" t="n">
-        <v>800</v>
+        <v>122.3555871692085</v>
       </c>
       <c r="J14" t="n">
         <v>148.0353084622459</v>
@@ -972,7 +972,7 @@
         <v>0.2802601456097492</v>
       </c>
       <c r="I15" t="n">
-        <v>800</v>
+        <v>125.6085489181119</v>
       </c>
       <c r="J15" t="n">
         <v>141.4438071086929</v>
@@ -1007,7 +1007,7 @@
         <v>0.2778206258124313</v>
       </c>
       <c r="I16" t="n">
-        <v>800</v>
+        <v>126.3829822327553</v>
       </c>
       <c r="J16" t="n">
         <v>138.6594031359971</v>
@@ -1042,7 +1042,7 @@
         <v>0.263864912930071</v>
       </c>
       <c r="I17" t="n">
-        <v>800</v>
+        <v>131.3188930058458</v>
       </c>
       <c r="J17" t="n">
         <v>132.6670959223383</v>
@@ -1077,7 +1077,7 @@
         <v>0.2492252498794999</v>
       </c>
       <c r="I18" t="n">
-        <v>800</v>
+        <v>136.9676294156157</v>
       </c>
       <c r="J18" t="n">
         <v>125.8549257307175</v>
@@ -1112,7 +1112,7 @@
         <v>0.2413439865064645</v>
       </c>
       <c r="I19" t="n">
-        <v>800</v>
+        <v>140.0055681255689</v>
       </c>
       <c r="J19" t="n">
         <v>121.2458294438275</v>
@@ -1147,7 +1147,7 @@
         <v>0.2451939872486993</v>
       </c>
       <c r="I20" t="n">
-        <v>800</v>
+        <v>138.2930877036855</v>
       </c>
       <c r="J20" t="n">
         <v>121.3739275383585</v>
@@ -1182,7 +1182,7 @@
         <v>0.2349415803644948</v>
       </c>
       <c r="I21" t="n">
-        <v>800</v>
+        <v>142.6920082158764</v>
       </c>
       <c r="J21" t="n">
         <v>117.4724881892059</v>
@@ -1217,7 +1217,7 @@
         <v>0.3169665383736176</v>
       </c>
       <c r="I22" t="n">
-        <v>800</v>
+        <v>114.6597801099504</v>
       </c>
       <c r="J22" t="n">
         <v>146.539322195179</v>
@@ -1252,7 +1252,7 @@
         <v>0.3781259304022481</v>
       </c>
       <c r="I23" t="n">
-        <v>800</v>
+        <v>99.70416949282965</v>
       </c>
       <c r="J23" t="n">
         <v>175.225160880978</v>
@@ -1287,7 +1287,7 @@
         <v>0.3531553111386488</v>
       </c>
       <c r="I24" t="n">
-        <v>800</v>
+        <v>105.3945696238195</v>
       </c>
       <c r="J24" t="n">
         <v>173.417870629293</v>
@@ -1322,7 +1322,7 @@
         <v>0.3197228536001017</v>
       </c>
       <c r="I25" t="n">
-        <v>800</v>
+        <v>114.0529112659552</v>
       </c>
       <c r="J25" t="n">
         <v>161.8648710599797</v>
@@ -1357,7 +1357,7 @@
         <v>0.3036755765496637</v>
       </c>
       <c r="I26" t="n">
-        <v>800</v>
+        <v>118.4516731026231</v>
       </c>
       <c r="J26" t="n">
         <v>153.5246897182572</v>
@@ -1392,7 +1392,7 @@
         <v>0.2929974331720085</v>
       </c>
       <c r="I27" t="n">
-        <v>800</v>
+        <v>121.4217636196194</v>
       </c>
       <c r="J27" t="n">
         <v>147.4064986521406</v>
@@ -1427,7 +1427,7 @@
         <v>0.3870498820743378</v>
       </c>
       <c r="I28" t="n">
-        <v>800</v>
+        <v>98.07078299586489</v>
       </c>
       <c r="J28" t="n">
         <v>180.0733356757863</v>
@@ -1462,7 +1462,7 @@
         <v>0.3918101098068956</v>
       </c>
       <c r="I29" t="n">
-        <v>800</v>
+        <v>97.39366576844633</v>
       </c>
       <c r="J29" t="n">
         <v>188.84703487601</v>
@@ -1497,7 +1497,7 @@
         <v>0.344449805185451</v>
       </c>
       <c r="I30" t="n">
-        <v>800</v>
+        <v>107.5223856353804</v>
       </c>
       <c r="J30" t="n">
         <v>174.5245454428329</v>
@@ -1532,7 +1532,7 @@
         <v>0.3474612933649757</v>
       </c>
       <c r="I31" t="n">
-        <v>800</v>
+        <v>106.4515276569145</v>
       </c>
       <c r="J31" t="n">
         <v>172.8644136539463</v>
@@ -1567,7 +1567,7 @@
         <v>0.327834476144631</v>
       </c>
       <c r="I32" t="n">
-        <v>800</v>
+        <v>111.4716893975568</v>
       </c>
       <c r="J32" t="n">
         <v>164.9256109844224</v>
@@ -1602,7 +1602,7 @@
         <v>0.3087924015987075</v>
       </c>
       <c r="I33" t="n">
-        <v>800</v>
+        <v>116.7542027237232</v>
       </c>
       <c r="J33" t="n">
         <v>156.0898431463894</v>
@@ -1637,7 +1637,7 @@
         <v>0.28079239251543</v>
       </c>
       <c r="I34" t="n">
-        <v>800</v>
+        <v>125.5132378640368</v>
       </c>
       <c r="J34" t="n">
         <v>143.6213080526459</v>
@@ -1672,7 +1672,7 @@
         <v>0.2731209003803149</v>
       </c>
       <c r="I35" t="n">
-        <v>800</v>
+        <v>128.5121521408224</v>
       </c>
       <c r="J35" t="n">
         <v>137.7157280872388</v>
@@ -1707,7 +1707,7 @@
         <v>0.2658531243709848</v>
       </c>
       <c r="I36" t="n">
-        <v>800</v>
+        <v>130.7048308610691</v>
       </c>
       <c r="J36" t="n">
         <v>133.2950826935725</v>
@@ -1742,7 +1742,7 @@
         <v>0.2585666345583624</v>
       </c>
       <c r="I37" t="n">
-        <v>800</v>
+        <v>132.9809540971734</v>
       </c>
       <c r="J37" t="n">
         <v>129.3924924134965</v>
@@ -1777,7 +1777,7 @@
         <v>0.2600397844859729</v>
       </c>
       <c r="I38" t="n">
-        <v>800</v>
+        <v>132.9621745501398</v>
       </c>
       <c r="J38" t="n">
         <v>128.8808653673879</v>
@@ -1812,7 +1812,7 @@
         <v>0.2544595542212646</v>
       </c>
       <c r="I39" t="n">
-        <v>800</v>
+        <v>135.2870138744988</v>
       </c>
       <c r="J39" t="n">
         <v>126.5764731554106</v>
@@ -1847,7 +1847,7 @@
         <v>0.2499336485751482</v>
       </c>
       <c r="I40" t="n">
-        <v>800</v>
+        <v>137.1046757071238</v>
       </c>
       <c r="J40" t="n">
         <v>124.3712936077679</v>
@@ -1882,7 +1882,7 @@
         <v>0.2345045001740313</v>
       </c>
       <c r="I41" t="n">
-        <v>800</v>
+        <v>143.3253153383109</v>
       </c>
       <c r="J41" t="n">
         <v>118.1644355701344</v>
@@ -1917,7 +1917,7 @@
         <v>0.2364121160680182</v>
       </c>
       <c r="I42" t="n">
-        <v>800</v>
+        <v>142.5487929507821</v>
       </c>
       <c r="J42" t="n">
         <v>117.3951554960653</v>
@@ -1952,7 +1952,7 @@
         <v>0.2307081262322634</v>
       </c>
       <c r="I43" t="n">
-        <v>800</v>
+        <v>145.3360181211143</v>
       </c>
       <c r="J43" t="n">
         <v>114.9277601367352</v>
@@ -1987,7 +1987,7 @@
         <v>0.3927675762381846</v>
       </c>
       <c r="I44" t="n">
-        <v>800</v>
+        <v>97.78521670714663</v>
       </c>
       <c r="J44" t="n">
         <v>173.51317225249</v>
@@ -2022,7 +2022,7 @@
         <v>0.41340858704039</v>
       </c>
       <c r="I45" t="n">
-        <v>800</v>
+        <v>93.3472816279444</v>
       </c>
       <c r="J45" t="n">
         <v>194.0194680807457</v>
@@ -2057,7 +2057,7 @@
         <v>0.4328056796145132</v>
       </c>
       <c r="I46" t="n">
-        <v>800</v>
+        <v>89.64241679306824</v>
       </c>
       <c r="J46" t="n">
         <v>207.5544993036212</v>
@@ -2092,7 +2092,7 @@
         <v>0.4293560179920805</v>
       </c>
       <c r="I47" t="n">
-        <v>800</v>
+        <v>90.64788206683431</v>
       </c>
       <c r="J47" t="n">
         <v>210.2462430540921</v>
@@ -2127,7 +2127,7 @@
         <v>0.3986609565188758</v>
       </c>
       <c r="I48" t="n">
-        <v>800</v>
+        <v>96.67720124018388</v>
       </c>
       <c r="J48" t="n">
         <v>200.2080931754933</v>
@@ -2162,7 +2162,7 @@
         <v>0.379327386564998</v>
       </c>
       <c r="I49" t="n">
-        <v>800</v>
+        <v>100.4841005338901</v>
       </c>
       <c r="J49" t="n">
         <v>191.079888486066</v>
@@ -2197,7 +2197,7 @@
         <v>0.3914169891562055</v>
       </c>
       <c r="I50" t="n">
-        <v>800</v>
+        <v>97.92064861871874</v>
       </c>
       <c r="J50" t="n">
         <v>193.1616315393534</v>
@@ -2232,7 +2232,7 @@
         <v>0.3953603486928283</v>
       </c>
       <c r="I51" t="n">
-        <v>800</v>
+        <v>97.18581320572747</v>
       </c>
       <c r="J51" t="n">
         <v>194.7273009663018</v>
@@ -2267,7 +2267,7 @@
         <v>0.4163367303888826</v>
       </c>
       <c r="I52" t="n">
-        <v>800</v>
+        <v>92.95621624030515</v>
       </c>
       <c r="J52" t="n">
         <v>202.7558402163629</v>
@@ -2302,7 +2302,7 @@
         <v>0.5513435833091318</v>
       </c>
       <c r="I53" t="n">
-        <v>735.2145083291738</v>
+        <v>73.52145083291738</v>
       </c>
       <c r="J53" t="n">
         <v>253.9083578704211</v>
@@ -2337,7 +2337,7 @@
         <v>0.4620739720653525</v>
       </c>
       <c r="I54" t="n">
-        <v>800</v>
+        <v>85.42521579716903</v>
       </c>
       <c r="J54" t="n">
         <v>232.9693493020123</v>
@@ -2372,7 +2372,7 @@
         <v>0.4311930633969822</v>
       </c>
       <c r="I55" t="n">
-        <v>800</v>
+        <v>90.91347252837582</v>
       </c>
       <c r="J55" t="n">
         <v>218.7163331238376</v>
@@ -2407,7 +2407,7 @@
         <v>0.3907199248605503</v>
       </c>
       <c r="I56" t="n">
-        <v>800</v>
+        <v>98.23151781491616</v>
       </c>
       <c r="J56" t="n">
         <v>200.326348520764</v>
@@ -2442,7 +2442,7 @@
         <v>0.4031163811998669</v>
       </c>
       <c r="I57" t="n">
-        <v>800</v>
+        <v>95.63452663458882</v>
       </c>
       <c r="J57" t="n">
         <v>200.2328101173035</v>
@@ -2477,7 +2477,7 @@
         <v>0.3717213108698151</v>
       </c>
       <c r="I58" t="n">
-        <v>800</v>
+        <v>101.7811381376723</v>
       </c>
       <c r="J58" t="n">
         <v>188.0748970376515</v>
@@ -2512,7 +2512,7 @@
         <v>0.3817218058629429</v>
       </c>
       <c r="I59" t="n">
-        <v>800</v>
+        <v>99.74022403027426</v>
       </c>
       <c r="J59" t="n">
         <v>188.9179960500872</v>
@@ -2547,7 +2547,7 @@
         <v>0.3419814941718938</v>
       </c>
       <c r="I60" t="n">
-        <v>800</v>
+        <v>109.2161376299767</v>
       </c>
       <c r="J60" t="n">
         <v>174.1835435307954</v>
@@ -2582,7 +2582,7 @@
         <v>0.3417882519943188</v>
       </c>
       <c r="I61" t="n">
-        <v>800</v>
+        <v>109.4653728779752</v>
       </c>
       <c r="J61" t="n">
         <v>170.7976898614041</v>
@@ -2617,7 +2617,7 @@
         <v>0.3265550472567733</v>
       </c>
       <c r="I62" t="n">
-        <v>800</v>
+        <v>112.8400068214694</v>
       </c>
       <c r="J62" t="n">
         <v>163.9985316961058</v>
@@ -2652,7 +2652,7 @@
         <v>0.3443323840693779</v>
       </c>
       <c r="I63" t="n">
-        <v>800</v>
+        <v>107.6752151926321</v>
       </c>
       <c r="J63" t="n">
         <v>168.7972682488364</v>
@@ -2687,7 +2687,7 @@
         <v>0.3153774159504824</v>
       </c>
       <c r="I64" t="n">
-        <v>800</v>
+        <v>115.7623313276748</v>
       </c>
       <c r="J64" t="n">
         <v>159.0453006317724</v>
@@ -2722,7 +2722,7 @@
         <v>0.3178308460086563</v>
       </c>
       <c r="I65" t="n">
-        <v>800</v>
+        <v>115.681226080212</v>
       </c>
       <c r="J65" t="n">
         <v>157.8877274143219</v>
@@ -2757,7 +2757,7 @@
         <v>0.3393529338140498</v>
       </c>
       <c r="I66" t="n">
-        <v>800</v>
+        <v>110.2155845613356</v>
       </c>
       <c r="J66" t="n">
         <v>165.1926850567532</v>
@@ -2792,7 +2792,7 @@
         <v>0.3153209456249411</v>
       </c>
       <c r="I67" t="n">
-        <v>800</v>
+        <v>116.5593026496945</v>
       </c>
       <c r="J67" t="n">
         <v>157.9624078180535</v>
@@ -2827,7 +2827,7 @@
         <v>0.3195162375719491</v>
       </c>
       <c r="I68" t="n">
-        <v>800</v>
+        <v>115.1231932938402</v>
       </c>
       <c r="J68" t="n">
         <v>158.107921021308</v>
@@ -2862,7 +2862,7 @@
         <v>0.3205913798259547</v>
       </c>
       <c r="I69" t="n">
-        <v>800</v>
+        <v>114.3627976448881</v>
       </c>
       <c r="J69" t="n">
         <v>158.3318955760186</v>
@@ -2897,7 +2897,7 @@
         <v>0.3032718168845871</v>
       </c>
       <c r="I70" t="n">
-        <v>800</v>
+        <v>119.2502097185457</v>
       </c>
       <c r="J70" t="n">
         <v>152.0315007413299</v>
@@ -2932,7 +2932,7 @@
         <v>0.2960539002480533</v>
       </c>
       <c r="I71" t="n">
-        <v>800</v>
+        <v>121.4441793354409</v>
       </c>
       <c r="J71" t="n">
         <v>147.9949248940854</v>
@@ -2967,7 +2967,7 @@
         <v>0.2982900138096482</v>
       </c>
       <c r="I72" t="n">
-        <v>800</v>
+        <v>120.5497152696404</v>
       </c>
       <c r="J72" t="n">
         <v>147.7090411859489</v>
@@ -3002,7 +3002,7 @@
         <v>0.273734636036658</v>
       </c>
       <c r="I73" t="n">
-        <v>800</v>
+        <v>128.7084229301876</v>
       </c>
       <c r="J73" t="n">
         <v>138.5167530459403</v>
@@ -3037,7 +3037,7 @@
         <v>0.2576793978367655</v>
       </c>
       <c r="I74" t="n">
-        <v>800</v>
+        <v>135.0715937255335</v>
       </c>
       <c r="J74" t="n">
         <v>130.5718610570728</v>
@@ -3072,7 +3072,7 @@
         <v>0.2615235486787043</v>
       </c>
       <c r="I75" t="n">
-        <v>800</v>
+        <v>133.8620296162118</v>
       </c>
       <c r="J75" t="n">
         <v>129.9036651819162</v>
@@ -3107,7 +3107,7 @@
         <v>0.25170703252118</v>
       </c>
       <c r="I76" t="n">
-        <v>800</v>
+        <v>137.0996835018156</v>
       </c>
       <c r="J76" t="n">
         <v>125.868801237206</v>
@@ -3142,7 +3142,7 @@
         <v>0.3082866030205854</v>
       </c>
       <c r="I77" t="n">
-        <v>800</v>
+        <v>117.873804967698</v>
       </c>
       <c r="J77" t="n">
         <v>145.5697307036373</v>
@@ -3177,7 +3177,7 @@
         <v>0.2756542005977451</v>
       </c>
       <c r="I78" t="n">
-        <v>800</v>
+        <v>128.6376867512708</v>
       </c>
       <c r="J78" t="n">
         <v>137.9012849661177</v>
@@ -3212,7 +3212,7 @@
         <v>0.2687217922260148</v>
       </c>
       <c r="I79" t="n">
-        <v>800</v>
+        <v>131.1138308299631</v>
       </c>
       <c r="J79" t="n">
         <v>134.2769031344332</v>
@@ -3247,7 +3247,7 @@
         <v>0.3532875621886893</v>
       </c>
       <c r="I80" t="n">
-        <v>800</v>
+        <v>106.0941677035183</v>
       </c>
       <c r="J80" t="n">
         <v>164.197796899085</v>
@@ -3282,7 +3282,7 @@
         <v>0.5111507141046006</v>
       </c>
       <c r="I81" t="n">
-        <v>789.6315636186259</v>
+        <v>78.96315636186259</v>
       </c>
       <c r="J81" t="n">
         <v>228.3835216048609</v>
@@ -3317,7 +3317,7 @@
         <v>0.3912947987509279</v>
       </c>
       <c r="I82" t="n">
-        <v>800</v>
+        <v>99.33427079557418</v>
       </c>
       <c r="J82" t="n">
         <v>199.856948894974</v>
@@ -3352,7 +3352,7 @@
         <v>0.3894013937522755</v>
       </c>
       <c r="I83" t="n">
-        <v>800</v>
+        <v>99.14194409309677</v>
       </c>
       <c r="J83" t="n">
         <v>195.0203817803171</v>
@@ -3387,7 +3387,7 @@
         <v>0.4807496083973564</v>
       </c>
       <c r="I84" t="n">
-        <v>800</v>
+        <v>82.90600211636747</v>
       </c>
       <c r="J84" t="n">
         <v>226.7056331004698</v>
@@ -3422,7 +3422,7 @@
         <v>0.5007835610315862</v>
       </c>
       <c r="I85" t="n">
-        <v>798.5294941743178</v>
+        <v>79.85294941743179</v>
       </c>
       <c r="J85" t="n">
         <v>240.840091753564</v>
@@ -3457,7 +3457,7 @@
         <v>0.4210562326160445</v>
       </c>
       <c r="I86" t="n">
-        <v>800</v>
+        <v>92.76749967513014</v>
       </c>
       <c r="J86" t="n">
         <v>215.858792605975</v>
@@ -3492,7 +3492,7 @@
         <v>0.3997113484160246</v>
       </c>
       <c r="I87" t="n">
-        <v>800</v>
+        <v>97.14150496504389</v>
       </c>
       <c r="J87" t="n">
         <v>203.0961603493924</v>
@@ -3527,7 +3527,7 @@
         <v>0.4243536677290205</v>
       </c>
       <c r="I88" t="n">
-        <v>800</v>
+        <v>92.33485738764996</v>
       </c>
       <c r="J88" t="n">
         <v>208.5322026835503</v>
@@ -3562,7 +3562,7 @@
         <v>0.4185577833188718</v>
       </c>
       <c r="I89" t="n">
-        <v>800</v>
+        <v>92.6651564080509</v>
       </c>
       <c r="J89" t="n">
         <v>207.1096913695193</v>
@@ -3597,7 +3597,7 @@
         <v>0.4082899977329208</v>
       </c>
       <c r="I90" t="n">
-        <v>800</v>
+        <v>94.56609258938406</v>
       </c>
       <c r="J90" t="n">
         <v>203.143185038371</v>
@@ -3632,7 +3632,7 @@
         <v>0.3595221374535424</v>
       </c>
       <c r="I91" t="n">
-        <v>800</v>
+        <v>104.911146670797</v>
       </c>
       <c r="J91" t="n">
         <v>184.4158407833725</v>
@@ -3667,7 +3667,7 @@
         <v>0.389826784485038</v>
       </c>
       <c r="I92" t="n">
-        <v>800</v>
+        <v>98.52088456880585</v>
       </c>
       <c r="J92" t="n">
         <v>191.1784314814672</v>

--- a/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
+++ b/data/output/PC/soil_moisture/PC_soil_moisture.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,15 +477,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sensing_depth</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>storage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sigma_VWC</t>
         </is>
@@ -502,28 +497,25 @@
         <v>1351.445824761179</v>
       </c>
       <c r="D2" t="n">
-        <v>944.7108333333334</v>
+        <v>944.6163636363636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9811550437389979</v>
+        <v>0.9809024933164626</v>
       </c>
       <c r="F2" t="n">
-        <v>1.035325017532157</v>
+        <v>1.036075597280551</v>
       </c>
       <c r="G2" t="n">
-        <v>1.011039285961181</v>
+        <v>1.011528686014019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4768961515609137</v>
+        <v>0.4786315278007754</v>
       </c>
       <c r="I2" t="n">
-        <v>82.64908734862028</v>
+        <v>95.72630556015508</v>
       </c>
       <c r="J2" t="n">
-        <v>235.5866988710914</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06693981299303341</v>
+        <v>0.06724124174517981</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +541,13 @@
         <v>1.015307784497257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4907090233955974</v>
+        <v>0.4925067294799467</v>
       </c>
       <c r="I3" t="n">
-        <v>80.74966477683617</v>
+        <v>98.50134589598933</v>
       </c>
       <c r="J3" t="n">
-        <v>241.1100588728776</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06979156875739603</v>
+        <v>0.07011918657663735</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +573,13 @@
         <v>1.00907707767537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4356852260653008</v>
+        <v>0.4372410175911853</v>
       </c>
       <c r="I4" t="n">
-        <v>89.24522385154923</v>
+        <v>87.44820351823707</v>
       </c>
       <c r="J4" t="n">
-        <v>221.2401482386922</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.05978818768419102</v>
+        <v>0.06004875241366404</v>
       </c>
     </row>
     <row r="5">
@@ -619,16 +605,13 @@
         <v>1.005906517168711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4294243174066552</v>
+        <v>0.4309536615451564</v>
       </c>
       <c r="I5" t="n">
-        <v>90.42227141145275</v>
+        <v>86.19073230903128</v>
       </c>
       <c r="J5" t="n">
-        <v>215.0565715170844</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0586805775451495</v>
+        <v>0.05893404790806949</v>
       </c>
     </row>
     <row r="6">
@@ -654,16 +637,13 @@
         <v>1.009867091672857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4105070183952378</v>
+        <v>0.4119577909917903</v>
       </c>
       <c r="I6" t="n">
-        <v>93.73375619569829</v>
+        <v>82.39155819835806</v>
       </c>
       <c r="J6" t="n">
-        <v>206.2598606437968</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05522519525852151</v>
+        <v>0.05545738107177309</v>
       </c>
     </row>
     <row r="7">
@@ -689,16 +669,13 @@
         <v>0.9998557628986058</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4325882074700618</v>
+        <v>0.4341308889921295</v>
       </c>
       <c r="I7" t="n">
-        <v>89.82944838814083</v>
+        <v>86.8261777984259</v>
       </c>
       <c r="J7" t="n">
-        <v>212.138457547282</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.05865040974554771</v>
+        <v>0.05890477483339718</v>
       </c>
     </row>
     <row r="8">
@@ -724,16 +701,13 @@
         <v>0.996344672098604</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4078742690939023</v>
+        <v>0.4093142662647271</v>
       </c>
       <c r="I8" t="n">
-        <v>94.05118301750124</v>
+        <v>81.86285325294541</v>
       </c>
       <c r="J8" t="n">
-        <v>204.093976021311</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.05392245556697744</v>
+        <v>0.05414814935851053</v>
       </c>
     </row>
     <row r="9">
@@ -759,16 +733,13 @@
         <v>0.9997210634550072</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4023122986670622</v>
+        <v>0.4037296596951824</v>
       </c>
       <c r="I9" t="n">
-        <v>94.90211928643795</v>
+        <v>80.74593193903648</v>
       </c>
       <c r="J9" t="n">
-        <v>200.4154474160272</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05261064515604628</v>
+        <v>0.05282899737913581</v>
       </c>
     </row>
     <row r="10">
@@ -794,16 +765,13 @@
         <v>0.998048500563279</v>
       </c>
       <c r="H10" t="n">
-        <v>0.376035111343873</v>
+        <v>0.3773478808666696</v>
       </c>
       <c r="I10" t="n">
-        <v>100.080211925543</v>
+        <v>75.46957617333392</v>
       </c>
       <c r="J10" t="n">
-        <v>189.7594153972337</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.04822603965412651</v>
+        <v>0.0484185638366584</v>
       </c>
     </row>
     <row r="11">
@@ -829,16 +797,13 @@
         <v>0.9971628855117611</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3777768181144189</v>
+        <v>0.3790964000787755</v>
       </c>
       <c r="I11" t="n">
-        <v>99.67231747469037</v>
+        <v>75.8192800157551</v>
       </c>
       <c r="J11" t="n">
-        <v>187.8682004633052</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.04834625005019486</v>
+        <v>0.04853970234521026</v>
       </c>
     </row>
     <row r="12">
@@ -864,16 +829,13 @@
         <v>1.003920795697977</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3329170171784661</v>
+        <v>0.3340665714765944</v>
       </c>
       <c r="I12" t="n">
-        <v>109.8696377725473</v>
+        <v>66.81331429531888</v>
       </c>
       <c r="J12" t="n">
-        <v>170.6954212171697</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.04187376752602712</v>
+        <v>0.04203024304488529</v>
       </c>
     </row>
     <row r="13">
@@ -899,16 +861,13 @@
         <v>1.001599389997483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3120140651479551</v>
+        <v>0.3130882549836683</v>
       </c>
       <c r="I13" t="n">
-        <v>115.5744907696093</v>
+        <v>62.61765099673365</v>
       </c>
       <c r="J13" t="n">
-        <v>159.1198267708231</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0391796960248289</v>
+        <v>0.03932115902666015</v>
       </c>
     </row>
     <row r="14">
@@ -934,16 +893,13 @@
         <v>0.9882279857143632</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2902929820390653</v>
+        <v>0.2912914581222826</v>
       </c>
       <c r="I14" t="n">
-        <v>122.3555871692085</v>
+        <v>58.25829162445652</v>
       </c>
       <c r="J14" t="n">
-        <v>148.0353084622459</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.03613106549217279</v>
+        <v>0.03625687905598823</v>
       </c>
     </row>
     <row r="15">
@@ -969,16 +925,13 @@
         <v>0.9915568604427379</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2802601456097492</v>
+        <v>0.2812245446496505</v>
       </c>
       <c r="I15" t="n">
-        <v>125.6085489181119</v>
+        <v>56.24490892993011</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4438071086929</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.03477877104213935</v>
+        <v>0.03489780540963884</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +939,10 @@
         <v>45519</v>
       </c>
       <c r="B16" t="n">
-        <v>1516.434782608696</v>
+        <v>1521.083333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>1512.666516530498</v>
+        <v>1516.731719069294</v>
       </c>
       <c r="D16" t="n">
         <v>948.7083375000001</v>
@@ -1004,16 +957,13 @@
         <v>0.9918504838889164</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2778206258124313</v>
+        <v>0.2752684787677005</v>
       </c>
       <c r="I16" t="n">
-        <v>126.3829822327553</v>
+        <v>55.0536957535401</v>
       </c>
       <c r="J16" t="n">
-        <v>138.6594031359971</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.03441358478080326</v>
+        <v>0.03398744810361653</v>
       </c>
     </row>
     <row r="17">
@@ -1021,10 +971,10 @@
         <v>45520</v>
       </c>
       <c r="B17" t="n">
-        <v>1535.363636363636</v>
+        <v>1542.25</v>
       </c>
       <c r="C17" t="n">
-        <v>1529.264703604407</v>
+        <v>1535.24936223632</v>
       </c>
       <c r="D17" t="n">
         <v>949.6388916666666</v>
@@ -1039,16 +989,13 @@
         <v>0.9875863774353532</v>
       </c>
       <c r="H17" t="n">
-        <v>0.263864912930071</v>
+        <v>0.2599289381341629</v>
       </c>
       <c r="I17" t="n">
-        <v>131.3188930058458</v>
+        <v>51.98578762683258</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6670959223383</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.03253720548470863</v>
+        <v>0.03191397272655877</v>
       </c>
     </row>
     <row r="18">
@@ -1074,16 +1021,13 @@
         <v>0.9908948286419145</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2492252498794999</v>
+        <v>0.2500878159697966</v>
       </c>
       <c r="I18" t="n">
-        <v>136.9676294156157</v>
+        <v>50.01756319395933</v>
       </c>
       <c r="J18" t="n">
-        <v>125.8549257307175</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.03075616089161685</v>
+        <v>0.030855804468085</v>
       </c>
     </row>
     <row r="19">
@@ -1109,16 +1053,13 @@
         <v>0.9934562375409199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2413439865064645</v>
+        <v>0.2421815533438199</v>
       </c>
       <c r="I19" t="n">
-        <v>140.0055681255689</v>
+        <v>48.43631066876398</v>
       </c>
       <c r="J19" t="n">
-        <v>121.2458294438275</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.02979948531177192</v>
+        <v>0.0298946562776518</v>
       </c>
     </row>
     <row r="20">
@@ -1144,16 +1085,13 @@
         <v>0.9962213371865957</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2451939872486993</v>
+        <v>0.2460437226642663</v>
       </c>
       <c r="I20" t="n">
-        <v>138.2930877036855</v>
+        <v>49.20874453285325</v>
       </c>
       <c r="J20" t="n">
-        <v>121.3739275383585</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.03013416052873152</v>
+        <v>0.03023107074087847</v>
       </c>
     </row>
     <row r="21">
@@ -1161,10 +1099,10 @@
         <v>45524</v>
       </c>
       <c r="B21" t="n">
-        <v>1548.478260869565</v>
+        <v>1551.541666666667</v>
       </c>
       <c r="C21" t="n">
-        <v>1567.129697678575</v>
+        <v>1570.160559437637</v>
       </c>
       <c r="D21" t="n">
         <v>950.5386041666667</v>
@@ -1179,16 +1117,13 @@
         <v>1.002215229255286</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2349415803644948</v>
+        <v>0.2335955360617108</v>
       </c>
       <c r="I21" t="n">
-        <v>142.6920082158764</v>
+        <v>46.71910721234216</v>
       </c>
       <c r="J21" t="n">
-        <v>117.4724881892059</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.02900037384098823</v>
+        <v>0.0288149856043188</v>
       </c>
     </row>
     <row r="22">
@@ -1196,10 +1131,10 @@
         <v>45525</v>
       </c>
       <c r="B22" t="n">
-        <v>1458.260869565217</v>
+        <v>1465.041666666667</v>
       </c>
       <c r="C22" t="n">
-        <v>1470.978002098959</v>
+        <v>1478.512267564952</v>
       </c>
       <c r="D22" t="n">
         <v>949.1741583333334</v>
@@ -1214,16 +1149,13 @@
         <v>1.012934585837288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3169665383736176</v>
+        <v>0.3104797446186247</v>
       </c>
       <c r="I22" t="n">
-        <v>114.6597801099504</v>
+        <v>62.09594892372493</v>
       </c>
       <c r="J22" t="n">
-        <v>146.539322195179</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.04004851512328721</v>
+        <v>0.03918425447138848</v>
       </c>
     </row>
     <row r="23">
@@ -1249,16 +1181,13 @@
         <v>1.011151691890591</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3781259304022481</v>
+        <v>0.3794468799216242</v>
       </c>
       <c r="I23" t="n">
-        <v>99.70416949282965</v>
+        <v>75.88937598432484</v>
       </c>
       <c r="J23" t="n">
-        <v>175.225160880978</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.04873120294269419</v>
+        <v>0.04892633089288805</v>
       </c>
     </row>
     <row r="24">
@@ -1284,16 +1213,13 @@
         <v>0.9971542973543993</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3531553111386488</v>
+        <v>0.3543801725528745</v>
       </c>
       <c r="I24" t="n">
-        <v>105.3945696238195</v>
+        <v>70.8760345105749</v>
       </c>
       <c r="J24" t="n">
-        <v>173.417870629293</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.04508319276356262</v>
+        <v>0.04525706177934152</v>
       </c>
     </row>
     <row r="25">
@@ -1319,16 +1245,13 @@
         <v>0.9962586344995673</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3197228536001017</v>
+        <v>0.3208245513528886</v>
       </c>
       <c r="I25" t="n">
-        <v>114.0529112659552</v>
+        <v>64.16491027057772</v>
       </c>
       <c r="J25" t="n">
-        <v>161.8648710599797</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.04036389017530256</v>
+        <v>0.04051146376651821</v>
       </c>
     </row>
     <row r="26">
@@ -1354,16 +1277,13 @@
         <v>0.9962290073403652</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3036755765496637</v>
+        <v>0.3047203872931629</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4516731026231</v>
+        <v>60.94407745863257</v>
       </c>
       <c r="J26" t="n">
-        <v>153.5246897182572</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.03792361057585052</v>
+        <v>0.03805865519792885</v>
       </c>
     </row>
     <row r="27">
@@ -1389,16 +1309,13 @@
         <v>0.9998777582318099</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2929974331720085</v>
+        <v>0.2940051917961936</v>
       </c>
       <c r="I27" t="n">
-        <v>121.4217636196194</v>
+        <v>58.80103835923871</v>
       </c>
       <c r="J27" t="n">
-        <v>147.4064986521406</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.03625441694166282</v>
+        <v>0.0363812115211841</v>
       </c>
     </row>
     <row r="28">
@@ -1424,16 +1341,13 @@
         <v>0.9918605004544373</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3870498820743378</v>
+        <v>0.3884060213777464</v>
       </c>
       <c r="I28" t="n">
-        <v>98.07078299586489</v>
+        <v>77.68120427554929</v>
       </c>
       <c r="J28" t="n">
-        <v>180.0733356757863</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.05019897537761379</v>
+        <v>0.0504027031995453</v>
       </c>
     </row>
     <row r="29">
@@ -1459,16 +1373,13 @@
         <v>0.9800643214246958</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3918101098068956</v>
+        <v>0.3931852031717573</v>
       </c>
       <c r="I29" t="n">
-        <v>97.39366576844633</v>
+        <v>78.63704063435145</v>
       </c>
       <c r="J29" t="n">
-        <v>188.84703487601</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.05130937474799704</v>
+        <v>0.05151919347359591</v>
       </c>
     </row>
     <row r="30">
@@ -1494,16 +1405,13 @@
         <v>0.9851294272203579</v>
       </c>
       <c r="H30" t="n">
-        <v>0.344449805185451</v>
+        <v>0.3456419911610788</v>
       </c>
       <c r="I30" t="n">
-        <v>107.5223856353804</v>
+        <v>69.12839823221576</v>
       </c>
       <c r="J30" t="n">
-        <v>174.5245454428329</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.04350645491192796</v>
+        <v>0.04367191792515485</v>
       </c>
     </row>
     <row r="31">
@@ -1529,16 +1437,13 @@
         <v>0.9896139614843973</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3474612933649757</v>
+        <v>0.3486647345494929</v>
       </c>
       <c r="I31" t="n">
-        <v>106.4515276569145</v>
+        <v>69.73294690989857</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8644136539463</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.04365075548887271</v>
+        <v>0.04381749547156458</v>
       </c>
     </row>
     <row r="32">
@@ -1546,10 +1451,10 @@
         <v>45535</v>
       </c>
       <c r="B32" t="n">
-        <v>1521.090909090909</v>
+        <v>1531.041666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>1460.520407679729</v>
+        <v>1470.433632324136</v>
       </c>
       <c r="D32" t="n">
         <v>946.6605416666666</v>
@@ -1564,16 +1469,13 @@
         <v>0.9787811095690396</v>
       </c>
       <c r="H32" t="n">
-        <v>0.327834476144631</v>
+        <v>0.318614823960539</v>
       </c>
       <c r="I32" t="n">
-        <v>111.4716893975568</v>
+        <v>63.7229647921078</v>
       </c>
       <c r="J32" t="n">
-        <v>164.9256109844224</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.04067063484021796</v>
+        <v>0.03936761324742768</v>
       </c>
     </row>
     <row r="33">
@@ -1599,16 +1501,13 @@
         <v>0.977712298607603</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3087924015987075</v>
+        <v>0.3098551942107188</v>
       </c>
       <c r="I33" t="n">
-        <v>116.7542027237232</v>
+        <v>61.97103884214377</v>
       </c>
       <c r="J33" t="n">
-        <v>156.0898431463894</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.0381236620491824</v>
+        <v>0.03826050154325532</v>
       </c>
     </row>
     <row r="34">
@@ -1634,16 +1533,13 @@
         <v>0.9800121759078605</v>
       </c>
       <c r="H34" t="n">
-        <v>0.28079239251543</v>
+        <v>0.2817585851597662</v>
       </c>
       <c r="I34" t="n">
-        <v>125.5132378640368</v>
+        <v>56.35171703195323</v>
       </c>
       <c r="J34" t="n">
-        <v>143.6213080526459</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.03444593289229408</v>
+        <v>0.03456392886352012</v>
       </c>
     </row>
     <row r="35">
@@ -1669,16 +1565,13 @@
         <v>0.9654521452338373</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2731209003803149</v>
+        <v>0.2740613948580505</v>
       </c>
       <c r="I35" t="n">
-        <v>128.5121521408224</v>
+        <v>54.8122789716101</v>
       </c>
       <c r="J35" t="n">
-        <v>137.7157280872388</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.03360836589810703</v>
+        <v>0.0337219805080449</v>
       </c>
     </row>
     <row r="36">
@@ -1686,10 +1579,10 @@
         <v>45539</v>
       </c>
       <c r="B36" t="n">
-        <v>1562.333333333333</v>
+        <v>1587.541666666667</v>
       </c>
       <c r="C36" t="n">
-        <v>1526.838050924268</v>
+        <v>1546.426592482488</v>
       </c>
       <c r="D36" t="n">
         <v>950.320275</v>
@@ -1704,16 +1597,13 @@
         <v>0.9656869970645143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2658531243709848</v>
+        <v>0.2511492228651855</v>
       </c>
       <c r="I36" t="n">
-        <v>130.7048308610691</v>
+        <v>50.2298445730371</v>
       </c>
       <c r="J36" t="n">
-        <v>133.2950826935725</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.03288541086572677</v>
+        <v>0.03043456368776567</v>
       </c>
     </row>
     <row r="37">
@@ -1721,10 +1611,10 @@
         <v>45540</v>
       </c>
       <c r="B37" t="n">
-        <v>1556.388888888889</v>
+        <v>1575.458333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>1535.836231580925</v>
+        <v>1553.729158981653</v>
       </c>
       <c r="D37" t="n">
         <v>947.7711208333334</v>
@@ -1739,16 +1629,13 @@
         <v>0.981070113489937</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2585666345583624</v>
+        <v>0.245595494026274</v>
       </c>
       <c r="I37" t="n">
-        <v>132.9809540971734</v>
+        <v>49.1190988052548</v>
       </c>
       <c r="J37" t="n">
-        <v>129.3924924134965</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.03170087883587704</v>
+        <v>0.0299322951385178</v>
       </c>
     </row>
     <row r="38">
@@ -1756,10 +1643,10 @@
         <v>45541</v>
       </c>
       <c r="B38" t="n">
-        <v>1492.304347826087</v>
+        <v>1497.541666666667</v>
       </c>
       <c r="C38" t="n">
-        <v>1533.99355875741</v>
+        <v>1539.79611277925</v>
       </c>
       <c r="D38" t="n">
         <v>951.4979291666667</v>
@@ -1774,16 +1661,13 @@
         <v>0.9807689952629124</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2600397844859729</v>
+        <v>0.2563157082251977</v>
       </c>
       <c r="I38" t="n">
-        <v>132.9621745501398</v>
+        <v>51.26314164503953</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8808653673879</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.03245967194194018</v>
+        <v>0.03199755522763228</v>
       </c>
     </row>
     <row r="39">
@@ -1809,16 +1693,13 @@
         <v>0.9847216515502094</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2544595542212646</v>
+        <v>0.255338916168217</v>
       </c>
       <c r="I39" t="n">
-        <v>135.2870138744988</v>
+        <v>51.0677832336434</v>
       </c>
       <c r="J39" t="n">
-        <v>126.5764731554106</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.03213880754896484</v>
+        <v>0.03224400099606303</v>
       </c>
     </row>
     <row r="40">
@@ -1844,16 +1725,13 @@
         <v>0.9803796061111253</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2499336485751482</v>
+        <v>0.2507984787773767</v>
       </c>
       <c r="I40" t="n">
-        <v>137.1046757071238</v>
+        <v>50.15969575547534</v>
       </c>
       <c r="J40" t="n">
-        <v>124.3712936077679</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.03154127412871684</v>
+        <v>0.03164363528387312</v>
       </c>
     </row>
     <row r="41">
@@ -1879,16 +1757,13 @@
         <v>0.9951380051977817</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2345045001740313</v>
+        <v>0.2353206548836307</v>
       </c>
       <c r="I41" t="n">
-        <v>143.3253153383109</v>
+        <v>47.06413097672615</v>
       </c>
       <c r="J41" t="n">
-        <v>118.1644355701344</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.029701675506322</v>
+        <v>0.0297953987294961</v>
       </c>
     </row>
     <row r="42">
@@ -1914,16 +1789,13 @@
         <v>0.9923226523333516</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2364121160680182</v>
+        <v>0.2372342164719904</v>
       </c>
       <c r="I42" t="n">
-        <v>142.5487929507821</v>
+        <v>47.44684329439809</v>
       </c>
       <c r="J42" t="n">
-        <v>117.3951554960653</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.02998459246255367</v>
+        <v>0.03007954273377417</v>
       </c>
     </row>
     <row r="43">
@@ -1949,16 +1821,13 @@
         <v>0.9938736090344585</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2307081262322634</v>
+        <v>0.231512509111503</v>
       </c>
       <c r="I43" t="n">
-        <v>145.3360181211143</v>
+        <v>46.30250182230059</v>
       </c>
       <c r="J43" t="n">
-        <v>114.9277601367352</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.02944539881061827</v>
+        <v>0.02953761706442087</v>
       </c>
     </row>
     <row r="44">
@@ -1966,10 +1835,10 @@
         <v>45547</v>
       </c>
       <c r="B44" t="n">
-        <v>1303.130434782609</v>
+        <v>1299.208333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>1406.155701352885</v>
+        <v>1400.97053691708</v>
       </c>
       <c r="D44" t="n">
         <v>955.57805</v>
@@ -1984,16 +1853,13 @@
         <v>0.9989925715564865</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3927675762381846</v>
+        <v>0.4012277052392567</v>
       </c>
       <c r="I44" t="n">
-        <v>97.78521670714663</v>
+        <v>80.24554104785135</v>
       </c>
       <c r="J44" t="n">
-        <v>173.51317225249</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.05433211757667214</v>
+        <v>0.05558463667297359</v>
       </c>
     </row>
     <row r="45">
@@ -2019,16 +1885,13 @@
         <v>1.002115654058295</v>
       </c>
       <c r="H45" t="n">
-        <v>0.41340858704039</v>
+        <v>0.4148712804383012</v>
       </c>
       <c r="I45" t="n">
-        <v>93.3472816279444</v>
+        <v>82.97425608766025</v>
       </c>
       <c r="J45" t="n">
-        <v>194.0194680807457</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.05654971855960293</v>
+        <v>0.05678865045199313</v>
       </c>
     </row>
     <row r="46">
@@ -2054,16 +1917,13 @@
         <v>1.007085338710099</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4328056796145132</v>
+        <v>0.4343492799582375</v>
       </c>
       <c r="I46" t="n">
-        <v>89.64241679306824</v>
+        <v>86.8698559916475</v>
       </c>
       <c r="J46" t="n">
-        <v>207.5544993036212</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.05942359354704619</v>
+        <v>0.05968151957076172</v>
       </c>
     </row>
     <row r="47">
@@ -2089,16 +1949,13 @@
         <v>0.991193743614422</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4293560179920805</v>
+        <v>0.4308850748349564</v>
       </c>
       <c r="I47" t="n">
-        <v>90.64788206683431</v>
+        <v>86.17701496699128</v>
       </c>
       <c r="J47" t="n">
-        <v>210.2462430540921</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.05937604393345686</v>
+        <v>0.05963268260965243</v>
       </c>
     </row>
     <row r="48">
@@ -2124,16 +1981,13 @@
         <v>0.9909671422666598</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3986609565188758</v>
+        <v>0.400063551852279</v>
       </c>
       <c r="I48" t="n">
-        <v>96.67720124018388</v>
+        <v>80.01271037045579</v>
       </c>
       <c r="J48" t="n">
-        <v>200.2080931754933</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0549591538061262</v>
+        <v>0.05518656572486566</v>
       </c>
     </row>
     <row r="49">
@@ -2141,10 +1995,10 @@
         <v>45552</v>
       </c>
       <c r="B49" t="n">
-        <v>1294.695652173913</v>
+        <v>1291.333333333333</v>
       </c>
       <c r="C49" t="n">
-        <v>1416.391959922231</v>
+        <v>1412.251797541929</v>
       </c>
       <c r="D49" t="n">
         <v>955.3333250000001</v>
@@ -2159,16 +2013,13 @@
         <v>1.005907189132189</v>
       </c>
       <c r="H49" t="n">
-        <v>0.379327386564998</v>
+        <v>0.3860349263166231</v>
       </c>
       <c r="I49" t="n">
-        <v>100.4841005338901</v>
+        <v>77.20698526332461</v>
       </c>
       <c r="J49" t="n">
-        <v>191.079888486066</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.05219626815140496</v>
+        <v>0.05324087566932678</v>
       </c>
     </row>
     <row r="50">
@@ -2176,10 +2027,10 @@
         <v>45553</v>
       </c>
       <c r="B50" t="n">
-        <v>1285.5</v>
+        <v>1277.875</v>
       </c>
       <c r="C50" t="n">
-        <v>1407.162968157232</v>
+        <v>1397.266544366541</v>
       </c>
       <c r="D50" t="n">
         <v>954.2948708333333</v>
@@ -2194,16 +2045,13 @@
         <v>1.005020385772365</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3914169891562055</v>
+        <v>0.4063920316772461</v>
       </c>
       <c r="I50" t="n">
-        <v>97.92064861871874</v>
+        <v>81.27840633544922</v>
       </c>
       <c r="J50" t="n">
-        <v>193.1616315393534</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0545839026690921</v>
+        <v>0.0568736342867462</v>
       </c>
     </row>
     <row r="51">
@@ -2211,10 +2059,10 @@
         <v>45554</v>
       </c>
       <c r="B51" t="n">
-        <v>1285.608695652174</v>
+        <v>1282.291666666667</v>
       </c>
       <c r="C51" t="n">
-        <v>1404.235023758271</v>
+        <v>1400.80213783544</v>
       </c>
       <c r="D51" t="n">
         <v>954.6870791666666</v>
@@ -2229,16 +2077,13 @@
         <v>1.005134646263246</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3953603486928283</v>
+        <v>0.4014605581892984</v>
       </c>
       <c r="I51" t="n">
-        <v>97.18581320572747</v>
+        <v>80.29211163785968</v>
       </c>
       <c r="J51" t="n">
-        <v>194.7273009663018</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.05478460056097935</v>
+        <v>0.05589853809488562</v>
       </c>
     </row>
     <row r="52">
@@ -2264,16 +2109,13 @@
         <v>0.9975243084907198</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4163367303888826</v>
+        <v>0.4178115017543014</v>
       </c>
       <c r="I52" t="n">
-        <v>92.95621624030515</v>
+        <v>83.56230035086027</v>
       </c>
       <c r="J52" t="n">
-        <v>202.7558402163629</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.05761628900613641</v>
+        <v>0.05786097500156065</v>
       </c>
     </row>
     <row r="53">
@@ -2299,16 +2141,13 @@
         <v>0.9680565732179059</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5513435833091318</v>
+        <v>0.5534275991972</v>
       </c>
       <c r="I53" t="n">
-        <v>73.52145083291738</v>
+        <v>110.68551983944</v>
       </c>
       <c r="J53" t="n">
-        <v>253.9083578704211</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.08190655300840101</v>
+        <v>0.08232173126361839</v>
       </c>
     </row>
     <row r="54">
@@ -2334,16 +2173,13 @@
         <v>0.9596437438260682</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4620739720653525</v>
+        <v>0.4637436577863329</v>
       </c>
       <c r="I54" t="n">
-        <v>85.42521579716903</v>
+        <v>92.74873155726657</v>
       </c>
       <c r="J54" t="n">
-        <v>232.9693493020123</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.06468215037443355</v>
+        <v>0.06497474010703297</v>
       </c>
     </row>
     <row r="55">
@@ -2369,16 +2205,13 @@
         <v>0.9464036328457328</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4311930633969822</v>
+        <v>0.4327298567490711</v>
       </c>
       <c r="I55" t="n">
-        <v>90.91347252837582</v>
+        <v>86.54597134981421</v>
       </c>
       <c r="J55" t="n">
-        <v>218.7163331238376</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.05970025615349418</v>
+        <v>0.05995896647327524</v>
       </c>
     </row>
     <row r="56">
@@ -2404,16 +2237,13 @@
         <v>0.9472458622596908</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3907199248605503</v>
+        <v>0.3920906661306664</v>
       </c>
       <c r="I56" t="n">
-        <v>98.23151781491616</v>
+        <v>78.41813322613328</v>
       </c>
       <c r="J56" t="n">
-        <v>200.326348520764</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.05212413583355606</v>
+        <v>0.05233707600881824</v>
       </c>
     </row>
     <row r="57">
@@ -2439,16 +2269,13 @@
         <v>0.9646333961290349</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4031163811998669</v>
+        <v>0.4045370039343745</v>
       </c>
       <c r="I57" t="n">
-        <v>95.63452663458882</v>
+        <v>80.9074007868749</v>
       </c>
       <c r="J57" t="n">
-        <v>200.2328101173035</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.05414156141854814</v>
+        <v>0.05436677954213169</v>
       </c>
     </row>
     <row r="58">
@@ -2474,16 +2301,13 @@
         <v>0.9732559064222442</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3717213108698151</v>
+        <v>0.373017280977061</v>
       </c>
       <c r="I58" t="n">
-        <v>101.7811381376723</v>
+        <v>74.60345619541221</v>
       </c>
       <c r="J58" t="n">
-        <v>188.0748970376515</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.0488437182175649</v>
+        <v>0.04903759912227883</v>
       </c>
     </row>
     <row r="59">
@@ -2509,16 +2333,13 @@
         <v>0.9699502898569047</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3817218058629429</v>
+        <v>0.3830568811394121</v>
       </c>
       <c r="I59" t="n">
-        <v>99.74022403027426</v>
+        <v>76.61137622788242</v>
       </c>
       <c r="J59" t="n">
-        <v>188.9179960500872</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.05048142228237486</v>
+        <v>0.05068490978159892</v>
       </c>
     </row>
     <row r="60">
@@ -2544,16 +2365,13 @@
         <v>0.95878239910843</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3419814941718938</v>
+        <v>0.3431644930231138</v>
       </c>
       <c r="I60" t="n">
-        <v>109.2161376299767</v>
+        <v>68.63289860462277</v>
       </c>
       <c r="J60" t="n">
-        <v>174.1835435307954</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.04470724190117074</v>
+        <v>0.04487686014153046</v>
       </c>
     </row>
     <row r="61">
@@ -2579,16 +2397,13 @@
         <v>0.9587446997997372</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3417882519943188</v>
+        <v>0.3429705330375849</v>
       </c>
       <c r="I61" t="n">
-        <v>109.4653728779752</v>
+        <v>68.59410660751698</v>
       </c>
       <c r="J61" t="n">
-        <v>170.7976898614041</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.04486840999598562</v>
+        <v>0.04503856762121126</v>
       </c>
     </row>
     <row r="62">
@@ -2614,16 +2429,13 @@
         <v>0.9493064618728285</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3265550472567733</v>
+        <v>0.3276814039564174</v>
       </c>
       <c r="I62" t="n">
-        <v>112.8400068214694</v>
+        <v>65.53628079128347</v>
       </c>
       <c r="J62" t="n">
-        <v>163.9985316961058</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.04160186704635953</v>
+        <v>0.04175569596912553</v>
       </c>
     </row>
     <row r="63">
@@ -2649,16 +2461,13 @@
         <v>0.9542294929713252</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3443323840693779</v>
+        <v>0.3455241322247016</v>
       </c>
       <c r="I63" t="n">
-        <v>107.6752151926321</v>
+        <v>69.10482644494031</v>
       </c>
       <c r="J63" t="n">
-        <v>168.7972682488364</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.04345295733125907</v>
+        <v>0.04361818241476396</v>
       </c>
     </row>
     <row r="64">
@@ -2684,16 +2493,13 @@
         <v>0.9313706988744671</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3153774159504824</v>
+        <v>0.3164635664616183</v>
       </c>
       <c r="I64" t="n">
-        <v>115.7623313276748</v>
+        <v>63.29271329232367</v>
       </c>
       <c r="J64" t="n">
-        <v>159.0453006317724</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.03954658314577932</v>
+        <v>0.03969019155457077</v>
       </c>
     </row>
     <row r="65">
@@ -2719,16 +2525,13 @@
         <v>0.9415334139100704</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3178308460086563</v>
+        <v>0.3189257614394544</v>
       </c>
       <c r="I65" t="n">
-        <v>115.681226080212</v>
+        <v>63.78515228789089</v>
       </c>
       <c r="J65" t="n">
-        <v>157.8877274143219</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.04091288476040123</v>
+        <v>0.041062125324159</v>
       </c>
     </row>
     <row r="66">
@@ -2754,16 +2557,13 @@
         <v>0.9437892034693941</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3393529338140498</v>
+        <v>0.3405261867275493</v>
       </c>
       <c r="I66" t="n">
-        <v>110.2155845613356</v>
+        <v>68.10523734550985</v>
       </c>
       <c r="J66" t="n">
-        <v>165.1926850567532</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.04459491904647518</v>
+        <v>0.0447634141397828</v>
       </c>
     </row>
     <row r="67">
@@ -2789,16 +2589,13 @@
         <v>0.9425167029839741</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3153209456249411</v>
+        <v>0.3164068947930104</v>
       </c>
       <c r="I67" t="n">
-        <v>116.5593026496945</v>
+        <v>63.28137895860208</v>
       </c>
       <c r="J67" t="n">
-        <v>157.9624078180535</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.04081693392428603</v>
+        <v>0.04096529007804779</v>
       </c>
     </row>
     <row r="68">
@@ -2824,16 +2621,13 @@
         <v>0.9490757379474209</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3195162375719491</v>
+        <v>0.3206171936854906</v>
       </c>
       <c r="I68" t="n">
-        <v>115.1231932938402</v>
+        <v>64.12343873709813</v>
       </c>
       <c r="J68" t="n">
-        <v>158.107921021308</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.04131092608904901</v>
+        <v>0.04146209763165132</v>
       </c>
     </row>
     <row r="69">
@@ -2859,16 +2653,13 @@
         <v>0.9504581220264615</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3205913798259547</v>
+        <v>0.321696197738793</v>
       </c>
       <c r="I69" t="n">
-        <v>114.3627976448881</v>
+        <v>64.33923954775861</v>
       </c>
       <c r="J69" t="n">
-        <v>158.3318955760186</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.04157923933629219</v>
+        <v>0.04173166422553907</v>
       </c>
     </row>
     <row r="70">
@@ -2894,16 +2685,13 @@
         <v>0.949423034115814</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3032718168845871</v>
+        <v>0.3043152149707616</v>
       </c>
       <c r="I70" t="n">
-        <v>119.2502097185457</v>
+        <v>60.86304299415232</v>
       </c>
       <c r="J70" t="n">
-        <v>152.0315007413299</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.03877893955326341</v>
+        <v>0.03891705590579744</v>
       </c>
     </row>
     <row r="71">
@@ -2929,16 +2717,13 @@
         <v>0.9449870683448972</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2960539002480533</v>
+        <v>0.2970721990930535</v>
       </c>
       <c r="I71" t="n">
-        <v>121.4441793354409</v>
+        <v>59.4144398186107</v>
       </c>
       <c r="J71" t="n">
-        <v>147.9949248940854</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.0377511137315584</v>
+        <v>0.03788396254952896</v>
       </c>
     </row>
     <row r="72">
@@ -2964,16 +2749,13 @@
         <v>0.9437194893027189</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2982900138096482</v>
+        <v>0.2993160571243137</v>
       </c>
       <c r="I72" t="n">
-        <v>120.5497152696404</v>
+        <v>59.86321142486274</v>
       </c>
       <c r="J72" t="n">
-        <v>147.7090411859489</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.03765924243803031</v>
+        <v>0.03779219288499523</v>
       </c>
     </row>
     <row r="73">
@@ -2999,16 +2781,13 @@
         <v>0.9454227150413246</v>
       </c>
       <c r="H73" t="n">
-        <v>0.273734636036658</v>
+        <v>0.2746771742596421</v>
       </c>
       <c r="I73" t="n">
-        <v>128.7084229301876</v>
+        <v>54.93543485192842</v>
       </c>
       <c r="J73" t="n">
-        <v>138.5167530459403</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.03543841820735389</v>
+        <v>0.03555857313138701</v>
       </c>
     </row>
     <row r="74">
@@ -3034,16 +2813,13 @@
         <v>0.9436880058792002</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2576793978367655</v>
+        <v>0.2585691680501624</v>
       </c>
       <c r="I74" t="n">
-        <v>135.0715937255335</v>
+        <v>51.71383361003249</v>
       </c>
       <c r="J74" t="n">
-        <v>130.5718610570728</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.03388500633096127</v>
+        <v>0.03399669306870516</v>
       </c>
     </row>
     <row r="75">
@@ -3069,16 +2845,13 @@
         <v>0.9438447913215465</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2615235486787043</v>
+        <v>0.2624258214921172</v>
       </c>
       <c r="I75" t="n">
-        <v>133.8620296162118</v>
+        <v>52.48516429842345</v>
       </c>
       <c r="J75" t="n">
-        <v>129.9036651819162</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.03428409493526411</v>
+        <v>0.03439783463077185</v>
       </c>
     </row>
     <row r="76">
@@ -3104,16 +2877,13 @@
         <v>0.9547797492704527</v>
       </c>
       <c r="H76" t="n">
-        <v>0.25170703252118</v>
+        <v>0.2525775429882721</v>
       </c>
       <c r="I76" t="n">
-        <v>137.0996835018156</v>
+        <v>50.51550859765441</v>
       </c>
       <c r="J76" t="n">
-        <v>125.868801237206</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.03245504928860274</v>
+        <v>0.03256080263146834</v>
       </c>
     </row>
     <row r="77">
@@ -3139,16 +2909,13 @@
         <v>0.9616510614080539</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3082866030205854</v>
+        <v>0.3093476115730091</v>
       </c>
       <c r="I77" t="n">
-        <v>117.873804967698</v>
+        <v>61.86952231460182</v>
       </c>
       <c r="J77" t="n">
-        <v>145.5697307036373</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.03988914301699326</v>
+        <v>0.04003243324681293</v>
       </c>
     </row>
     <row r="78">
@@ -3174,16 +2941,13 @@
         <v>0.9519299648352434</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2756542005977451</v>
+        <v>0.2766031446420492</v>
       </c>
       <c r="I78" t="n">
-        <v>128.6376867512708</v>
+        <v>55.32062892840985</v>
       </c>
       <c r="J78" t="n">
-        <v>137.9012849661177</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.03536311470507963</v>
+        <v>0.03548332177134372</v>
       </c>
     </row>
     <row r="79">
@@ -3209,16 +2973,13 @@
         <v>0.950368059559252</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2687217922260148</v>
+        <v>0.2696476995516259</v>
       </c>
       <c r="I79" t="n">
-        <v>131.1138308299631</v>
+        <v>53.92953991032519</v>
       </c>
       <c r="J79" t="n">
-        <v>134.2769031344332</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.03431984809926516</v>
+        <v>0.03443506239719803</v>
       </c>
     </row>
     <row r="80">
@@ -3244,16 +3005,13 @@
         <v>0.954509391289227</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3532875621886893</v>
+        <v>0.3545129232808484</v>
       </c>
       <c r="I80" t="n">
-        <v>106.0941677035183</v>
+        <v>70.90258465616968</v>
       </c>
       <c r="J80" t="n">
-        <v>164.197796899085</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.04623646760260081</v>
+        <v>0.04641548488201701</v>
       </c>
     </row>
     <row r="81">
@@ -3279,16 +3037,13 @@
         <v>0.949892163963943</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5111507141046006</v>
+        <v>0.5130426319523408</v>
       </c>
       <c r="I81" t="n">
-        <v>78.96315636186259</v>
+        <v>102.6085263904682</v>
       </c>
       <c r="J81" t="n">
-        <v>228.3835216048609</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.07533780892869735</v>
+        <v>0.07570232517712756</v>
       </c>
     </row>
     <row r="82">
@@ -3296,10 +3051,10 @@
         <v>45585</v>
       </c>
       <c r="B82" t="n">
-        <v>1284.173913043478</v>
+        <v>1279.916666666667</v>
       </c>
       <c r="C82" t="n">
-        <v>1407.254328260856</v>
+        <v>1402.678895746358</v>
       </c>
       <c r="D82" t="n">
         <v>967.832225</v>
@@ -3314,16 +3069,13 @@
         <v>0.9271584893622458</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3912947987509279</v>
+        <v>0.3988757913529008</v>
       </c>
       <c r="I82" t="n">
-        <v>99.33427079557418</v>
+        <v>79.77515827058016</v>
       </c>
       <c r="J82" t="n">
-        <v>199.856948894974</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.0542243584017959</v>
+        <v>0.05557463977494263</v>
       </c>
     </row>
     <row r="83">
@@ -3349,16 +3101,13 @@
         <v>0.9405957777819972</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3894013937522755</v>
+        <v>0.3907668802801103</v>
       </c>
       <c r="I83" t="n">
-        <v>99.14194409309677</v>
+        <v>78.15337605602205</v>
       </c>
       <c r="J83" t="n">
-        <v>195.0203817803171</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.05304838722949676</v>
+        <v>0.05326489016560049</v>
       </c>
     </row>
     <row r="84">
@@ -3384,16 +3133,13 @@
         <v>0.9575081626872995</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4807496083973564</v>
+        <v>0.4825022652058671</v>
       </c>
       <c r="I84" t="n">
-        <v>82.90600211636747</v>
+        <v>96.50045304117342</v>
       </c>
       <c r="J84" t="n">
-        <v>226.7056331004698</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.06871491005222813</v>
+        <v>0.06903428178580856</v>
       </c>
     </row>
     <row r="85">
@@ -3419,16 +3165,13 @@
         <v>0.9409737857042395</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5007835610315862</v>
+        <v>0.5026274048715369</v>
       </c>
       <c r="I85" t="n">
-        <v>79.85294941743179</v>
+        <v>100.5254809743074</v>
       </c>
       <c r="J85" t="n">
-        <v>240.840091753564</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.0705814705647613</v>
+        <v>0.07091727726171473</v>
       </c>
     </row>
     <row r="86">
@@ -3454,16 +3197,13 @@
         <v>0.931813017250927</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4210562326160445</v>
+        <v>0.4225505723881084</v>
       </c>
       <c r="I86" t="n">
-        <v>92.76749967513014</v>
+        <v>84.51011447762168</v>
       </c>
       <c r="J86" t="n">
-        <v>215.858792605975</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.05715794717476631</v>
+        <v>0.05740196797537829</v>
       </c>
     </row>
     <row r="87">
@@ -3489,16 +3229,13 @@
         <v>0.9360155011724109</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3997113484160246</v>
+        <v>0.4011181837592763</v>
       </c>
       <c r="I87" t="n">
-        <v>97.14150496504389</v>
+        <v>80.22363675185525</v>
       </c>
       <c r="J87" t="n">
-        <v>203.0961603493924</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.05444683965731708</v>
+        <v>0.05467240676101365</v>
       </c>
     </row>
     <row r="88">
@@ -3524,16 +3261,13 @@
         <v>0.9435329554104673</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4243536677290205</v>
+        <v>0.4258617539282338</v>
       </c>
       <c r="I88" t="n">
-        <v>92.33485738764996</v>
+        <v>85.17235078564676</v>
       </c>
       <c r="J88" t="n">
-        <v>208.5322026835503</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.05837229735629487</v>
+        <v>0.05862277393512907</v>
       </c>
     </row>
     <row r="89">
@@ -3559,16 +3293,13 @@
         <v>0.9443146285935352</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4185577833188718</v>
+        <v>0.4200417482050748</v>
       </c>
       <c r="I89" t="n">
-        <v>92.6651564080509</v>
+        <v>84.00834964101497</v>
       </c>
       <c r="J89" t="n">
-        <v>207.1096913695193</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0563260126839195</v>
+        <v>0.05656566583409136</v>
       </c>
     </row>
     <row r="90">
@@ -3594,16 +3325,13 @@
         <v>0.943275947102855</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4082899977329208</v>
+        <v>0.4097316938243299</v>
       </c>
       <c r="I90" t="n">
-        <v>94.56609258938406</v>
+        <v>81.94633876486598</v>
       </c>
       <c r="J90" t="n">
-        <v>203.143185038371</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.05516304758326411</v>
+        <v>0.05539425834299786</v>
       </c>
     </row>
     <row r="91">
@@ -3629,16 +3357,13 @@
         <v>0.9336831586572351</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3595221374535424</v>
+        <v>0.3607711658806174</v>
       </c>
       <c r="I91" t="n">
-        <v>104.911146670797</v>
+        <v>72.15423317612347</v>
       </c>
       <c r="J91" t="n">
-        <v>184.4158407833725</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.04808746524798355</v>
+        <v>0.04827503364341983</v>
       </c>
     </row>
     <row r="92">
@@ -3664,16 +3389,13 @@
         <v>0.9383068961726039</v>
       </c>
       <c r="H92" t="n">
-        <v>0.389826784485038</v>
+        <v>0.3911939652548098</v>
       </c>
       <c r="I92" t="n">
-        <v>98.52088456880585</v>
+        <v>78.23879305096196</v>
       </c>
       <c r="J92" t="n">
-        <v>191.1784314814672</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.05352279287885344</v>
+        <v>0.05374142530946506</v>
       </c>
     </row>
   </sheetData>
